--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -2374,76 +2374,76 @@
     <t>Not enough input arguments.Error in getFilename (line 39)            stem = end_with_slash(fullfile(path, stem));Error in getBeadFile (line 30)            file = getFilename(extractor, i);Error in make_color_model_excel (line 91)    bead_files = getBeadFile(extractor);Error in analyzeFromExcel (line 31)                make_color_model_excel(path, extractor);</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B3_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B4_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B5_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B6_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B7_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B8_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B9_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B10_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B11_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B12_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C1_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C2_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C3_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C4_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_blank_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_EYFP_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_mkate_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_ebfp2_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_mkate_EBFP2_EYFP_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_Beads_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_Beads2_P3.fcs</t>
+  </si>
+  <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
   </si>
   <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B3_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B4_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B5_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B6_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B7_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B8_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B9_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B10_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B11_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B12_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C1_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C2_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C3_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C4_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_blank_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_EYFP_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_mkate_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_ebfp2_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_mkate_EBFP2_EYFP_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_Beads_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_Beads2_P3.fcs</t>
   </si>
 </sst>
 </file>
@@ -3567,9 +3567,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3950,6 +3947,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4074,6 +4075,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4235,13 +4242,6 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5071,231 +5071,231 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="157" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="143" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="87" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="20" style="87" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="87" customWidth="1"/>
-    <col min="11" max="11" width="6" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="87" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="87"/>
+    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="20" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="6" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="239"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="217"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="233"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="217" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="217"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="245"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="144"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="220" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="220"/>
-      <c r="C11" s="220"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="224" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="144"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="226"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="144"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="E15" s="219" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="231"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="246" t="s">
+      <c r="B16" s="232"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="248"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="E17" s="249" t="s">
+      <c r="C17" s="90"/>
+      <c r="E17" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="250"/>
-      <c r="G17" s="84" t="s">
+      <c r="F17" s="251"/>
+      <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="196" t="s">
         <v>363</v>
       </c>
       <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="159" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="E18" s="85">
+      <c r="C18" s="90"/>
+      <c r="E18" s="84">
         <v>1</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="94" t="s">
         <v>171</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="234" t="s">
-        <v>472</v>
+      <c r="I18" s="235" t="s">
+        <v>494</v>
       </c>
       <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="91"/>
-      <c r="E19" s="85">
+      <c r="B19" s="117"/>
+      <c r="C19" s="90"/>
+      <c r="E19" s="84">
         <v>2</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="94" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -5304,107 +5304,107 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="234"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="93"/>
-      <c r="E20" s="86">
+      <c r="B20" s="117"/>
+      <c r="C20" s="92"/>
+      <c r="E20" s="85">
         <v>3</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="141" t="s">
         <v>172</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="235"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="118"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="33"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="90"/>
       <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="163"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="93"/>
-      <c r="E23" s="214" t="s">
+      <c r="A23" s="162"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92"/>
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="215"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="255"/>
-      <c r="G24" s="83" t="s">
+      <c r="F24" s="256"/>
+      <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="197" t="s">
+      <c r="I24" s="196" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>288</v>
       </c>
       <c r="C25" s="33"/>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <v>1</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="94" t="s">
         <v>221</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="251" t="s">
-        <v>473</v>
+      <c r="I25" s="252" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="159" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="E26" s="85">
+      <c r="C26" s="90"/>
+      <c r="E26" s="84">
         <v>2</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="94" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="34" t="s">
@@ -5413,247 +5413,247 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="252"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="93"/>
-      <c r="E27" s="86">
+      <c r="B27" s="117"/>
+      <c r="C27" s="92"/>
+      <c r="E27" s="85">
         <v>3</v>
       </c>
-      <c r="F27" s="142" t="s">
+      <c r="F27" s="141" t="s">
         <v>172</v>
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="253"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="118"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="33"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="33"/>
       <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="91"/>
-      <c r="E30" s="214" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="90"/>
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="215"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="E31" s="308" t="s">
-        <v>474</v>
-      </c>
-      <c r="F31" s="309"/>
-      <c r="G31" s="213" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="E31" s="257" t="s">
+        <v>472</v>
+      </c>
+      <c r="F31" s="258"/>
+      <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="213" t="s">
+      <c r="H31" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="197" t="s">
+      <c r="I31" s="196" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="215"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
-      <c r="E32" s="85">
+      <c r="E32" s="84">
         <v>1</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="94" t="s">
         <v>171</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="234"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="E33" s="85">
+      <c r="C33" s="90"/>
+      <c r="E33" s="84">
         <v>2</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="94" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="234"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="84">
         <v>3</v>
       </c>
-      <c r="F34" s="95"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="234"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="E35" s="85">
+      <c r="B35" s="117"/>
+      <c r="E35" s="84">
         <v>4</v>
       </c>
-      <c r="F35" s="95"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="234"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="E36" s="85">
+      <c r="B36" s="117"/>
+      <c r="E36" s="84">
         <v>5</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="234"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="160" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="E37" s="86">
+      <c r="B37" s="117"/>
+      <c r="E37" s="85">
         <v>6</v>
       </c>
-      <c r="F37" s="142"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="235"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="119"/>
+      <c r="B38" s="118"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="164"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="236"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="215"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="254"/>
-      <c r="F41" s="255"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="197" t="s">
+      <c r="I41" s="196" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="85">
+      <c r="E42" s="84">
         <v>1</v>
       </c>
-      <c r="F42" s="95"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="234"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="85">
+      <c r="E43" s="84">
         <v>2</v>
       </c>
-      <c r="F43" s="95"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="234"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="85">
+      <c r="E44" s="84">
         <v>3</v>
       </c>
-      <c r="F44" s="95"/>
+      <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="234"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="85">
+      <c r="E45" s="84">
         <v>4</v>
       </c>
-      <c r="F45" s="95"/>
+      <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="234"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="85">
+      <c r="E46" s="84">
         <v>5</v>
       </c>
-      <c r="F46" s="95"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="234"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="86">
+      <c r="E47" s="85">
         <v>6</v>
       </c>
-      <c r="F47" s="142"/>
+      <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="235"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5726,32 +5726,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="261" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="260"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="263"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="264" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="263"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
       <c r="M2" s="76"/>
@@ -5759,26 +5759,26 @@
       <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="267" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="183" t="s">
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="183" t="s">
         <v>325</v>
       </c>
       <c r="K3" s="80"/>
@@ -5788,488 +5788,488 @@
       <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="141" t="s">
+      <c r="H4" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="141" t="s">
+      <c r="I4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="201" t="s">
+      <c r="J4" s="200" t="s">
         <v>415</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
       <c r="B5" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <v>0.1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="110">
         <v>0.1</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="111">
         <v>1</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="310" t="s">
-        <v>475</v>
+      <c r="J5" s="113"/>
+      <c r="K5" s="213" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>0.2</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="110">
         <v>0.2</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="111">
         <v>1</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="310" t="s">
-        <v>476</v>
+      <c r="J6" s="113"/>
+      <c r="K6" s="213" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <v>0.5</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111">
         <v>1</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="310" t="s">
-        <v>477</v>
+      <c r="J7" s="113"/>
+      <c r="K7" s="213" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <v>1</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="110">
         <v>0.1</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="111">
         <v>1</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="310" t="s">
-        <v>478</v>
+      <c r="J8" s="113"/>
+      <c r="K8" s="213" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="110">
         <v>0.2</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="111">
         <v>1</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="310" t="s">
-        <v>479</v>
+      <c r="J9" s="113"/>
+      <c r="K9" s="213" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <v>5</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111">
         <v>1</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="310" t="s">
-        <v>480</v>
+      <c r="J10" s="113"/>
+      <c r="K10" s="213" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <v>10</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112">
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111">
         <v>1</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="310" t="s">
-        <v>481</v>
+      <c r="J11" s="113"/>
+      <c r="K11" s="213" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>20</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112">
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111">
         <v>1</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="310" t="s">
-        <v>482</v>
+      <c r="J12" s="113"/>
+      <c r="K12" s="213" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <v>50</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112">
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111">
         <v>1</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="310" t="s">
-        <v>483</v>
+      <c r="J13" s="113"/>
+      <c r="K13" s="213" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>100</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="110"/>
+      <c r="F14" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="110">
         <v>100</v>
       </c>
-      <c r="H14" s="112">
+      <c r="H14" s="111">
         <v>1</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="310" t="s">
-        <v>484</v>
+      <c r="J14" s="113"/>
+      <c r="K14" s="213" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <v>200</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="110">
         <v>200</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="111">
         <v>1</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="310" t="s">
-        <v>485</v>
+      <c r="J15" s="113"/>
+      <c r="K15" s="213" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>500</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111">
         <v>1</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="114"/>
-      <c r="K16" s="310" t="s">
-        <v>486</v>
+      <c r="J16" s="113"/>
+      <c r="K16" s="213" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <v>1000</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="110">
         <v>100</v>
       </c>
-      <c r="H17" s="112">
+      <c r="H17" s="111">
         <v>1</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="114"/>
-      <c r="K17" s="310" t="s">
-        <v>487</v>
+      <c r="J17" s="113"/>
+      <c r="K17" s="213" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <v>2000</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="110">
         <v>200</v>
       </c>
-      <c r="H18" s="112">
+      <c r="H18" s="111">
         <v>1</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="114"/>
-      <c r="K18" s="310" t="s">
-        <v>488</v>
+      <c r="J18" s="113"/>
+      <c r="K18" s="213" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6277,23 +6277,23 @@
         <v>217</v>
       </c>
       <c r="C19" s="78"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112">
+      <c r="D19" s="110"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111">
         <v>2</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114" t="s">
+      <c r="I19" s="112"/>
+      <c r="J19" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="310" t="s">
-        <v>489</v>
+      <c r="K19" s="213" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6301,23 +6301,23 @@
         <v>175</v>
       </c>
       <c r="C20" s="78"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112">
+      <c r="D20" s="110"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111">
         <v>2</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114" t="s">
+      <c r="I20" s="112"/>
+      <c r="J20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="310" t="s">
-        <v>490</v>
+      <c r="K20" s="213" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6325,23 +6325,23 @@
         <v>218</v>
       </c>
       <c r="C21" s="78"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112">
+      <c r="D21" s="110"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111">
         <v>2</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114" t="s">
+      <c r="I21" s="112"/>
+      <c r="J21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="310" t="s">
-        <v>491</v>
+      <c r="K21" s="213" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6349,324 +6349,324 @@
         <v>219</v>
       </c>
       <c r="C22" s="78"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112">
+      <c r="D22" s="110"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111">
         <v>2</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="310" t="s">
-        <v>492</v>
+      <c r="K22" s="213" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112">
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111">
         <v>2</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114" t="s">
+      <c r="I23" s="112"/>
+      <c r="J23" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="310" t="s">
-        <v>493</v>
+      <c r="K23" s="213" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112">
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111">
         <v>2</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114" t="s">
+      <c r="I24" s="112"/>
+      <c r="J24" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="310" t="s">
-        <v>494</v>
+      <c r="K24" s="213" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174">
+      <c r="A25" s="173">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="174" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177">
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176">
         <v>2</v>
       </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179" t="s">
+      <c r="I25" s="177"/>
+      <c r="J25" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="310" t="s">
-        <v>495</v>
+      <c r="K25" s="213" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="276" t="s">
+      <c r="A27" s="279" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="277"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="277"/>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
-      <c r="Q27" s="278"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="280"/>
+      <c r="Q27" s="281"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="195" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="196" t="s">
+      <c r="E28" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="196" t="s">
+      <c r="F28" s="195" t="s">
         <v>388</v>
       </c>
-      <c r="G28" s="196" t="s">
+      <c r="G28" s="195" t="s">
         <v>442</v>
       </c>
-      <c r="H28" s="200" t="s">
+      <c r="H28" s="199" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="200" t="s">
+      <c r="I28" s="199" t="s">
         <v>442</v>
       </c>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="199" t="s">
         <v>454</v>
       </c>
-      <c r="K28" s="200" t="s">
+      <c r="K28" s="199" t="s">
         <v>442</v>
       </c>
-      <c r="L28" s="125" t="s">
+      <c r="L28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="M28" s="125" t="s">
+      <c r="M28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="196" t="s">
+      <c r="O28" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="196" t="s">
+      <c r="P28" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="Q28" s="199" t="s">
+      <c r="Q28" s="198" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="98" t="s">
+      <c r="N29" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="98" t="s">
+      <c r="P29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="Q29" s="120" t="s">
+      <c r="Q29" s="119" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="210" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="209" t="s">
         <v>445</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154" t="s">
         <v>444</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155" t="s">
+      <c r="H30" s="154"/>
+      <c r="I30" s="154" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="155">
+      <c r="J30" s="154">
         <v>3</v>
       </c>
-      <c r="K30" s="155" t="s">
+      <c r="K30" s="154" t="s">
         <v>450</v>
       </c>
-      <c r="L30" s="155">
+      <c r="L30" s="154">
         <v>100</v>
       </c>
-      <c r="M30" s="155">
+      <c r="M30" s="154">
         <v>0</v>
       </c>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155">
+      <c r="N30" s="154"/>
+      <c r="O30" s="154">
         <v>4</v>
       </c>
-      <c r="P30" s="155">
+      <c r="P30" s="154">
         <v>10</v>
       </c>
-      <c r="Q30" s="156">
+      <c r="Q30" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="273" t="s">
+      <c r="A32" s="276" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="274"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="274"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="275"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="278"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="270" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="269"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="272"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="268"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="268"/>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="269"/>
+      <c r="A34" s="270"/>
+      <c r="B34" s="271"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="271"/>
+      <c r="H34" s="272"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
-      <c r="B35" s="268"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="268"/>
-      <c r="G35" s="268"/>
-      <c r="H35" s="269"/>
+      <c r="A35" s="270"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="272"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="270"/>
-      <c r="B36" s="271"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="272"/>
+      <c r="A36" s="273"/>
+      <c r="B36" s="274"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="275"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="260" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="257"/>
-      <c r="C38" s="257"/>
-      <c r="D38" s="257"/>
-      <c r="E38" s="257"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="257"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
@@ -6678,12 +6678,12 @@
       <c r="C39" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="256" t="s">
+      <c r="D39" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="256"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6695,7 +6695,7 @@
       <c r="C40" t="s">
         <v>452</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       <c r="C41" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="195" t="s">
+      <c r="D41" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="C42" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       <c r="C43" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       <c r="C44" t="s">
         <v>452</v>
       </c>
-      <c r="D44" s="185" t="s">
+      <c r="D44" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       <c r="C45" t="s">
         <v>452</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="C46" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       <c r="C47" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       <c r="C48" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="195" t="s">
+      <c r="D48" s="194" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       <c r="C49" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="194" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="C50" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="195" t="s">
+      <c r="D50" s="194" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       <c r="C51" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="195" t="s">
+      <c r="D51" s="194" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="C52" t="s">
         <v>452</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="181" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       <c r="C53" t="s">
         <v>452</v>
       </c>
-      <c r="D53" s="195" t="s">
+      <c r="D53" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       <c r="C54" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="195" t="s">
+      <c r="D54" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       <c r="C55" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="195" t="s">
+      <c r="D55" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       <c r="C56" t="s">
         <v>452</v>
       </c>
-      <c r="D56" s="195" t="s">
+      <c r="D56" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="C57" t="s">
         <v>452</v>
       </c>
-      <c r="D57" s="195" t="s">
+      <c r="D57" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       <c r="C58" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="182" t="s">
+      <c r="D58" s="181" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       <c r="C59" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="182" t="s">
+      <c r="D59" s="181" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       <c r="C60" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="182" t="s">
+      <c r="D60" s="181" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="C61" t="s">
         <v>452</v>
       </c>
-      <c r="D61" s="182" t="s">
+      <c r="D61" s="181" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       <c r="C62" t="s">
         <v>452</v>
       </c>
-      <c r="D62" s="182" t="s">
+      <c r="D62" s="181" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       <c r="C63" t="s">
         <v>452</v>
       </c>
-      <c r="D63" s="182" t="s">
+      <c r="D63" s="181" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       <c r="C64" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="182" t="s">
+      <c r="D64" s="181" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="C65" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="182" t="s">
+      <c r="D65" s="181" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
       <c r="C66" t="s">
         <v>452</v>
       </c>
-      <c r="D66" s="182" t="s">
+      <c r="D66" s="181" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="C67" t="s">
         <v>452</v>
       </c>
-      <c r="D67" s="182" t="s">
+      <c r="D67" s="181" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       <c r="C68" t="s">
         <v>452</v>
       </c>
-      <c r="D68" s="182" t="s">
+      <c r="D68" s="181" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       <c r="C69" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="182" t="s">
+      <c r="D69" s="181" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       <c r="C70" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="182" t="s">
+      <c r="D70" s="181" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       <c r="C71" t="s">
         <v>452</v>
       </c>
-      <c r="D71" s="182" t="s">
+      <c r="D71" s="181" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7227,91 +7227,91 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="282" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="281"/>
-    </row>
-    <row r="2" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="276" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="284"/>
+    </row>
+    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
-    </row>
-    <row r="3" spans="1:10" s="115" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="281"/>
+    </row>
+    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>308</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="132"/>
-    </row>
-    <row r="4" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="172" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:10" s="115" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+    </row>
+    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>173</v>
       </c>
@@ -7324,60 +7324,60 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="212" t="s">
+      <c r="G5" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-    </row>
-    <row r="6" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="276" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+    </row>
+    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="278"/>
-    </row>
-    <row r="7" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="281"/>
+    </row>
+    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+    </row>
+    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
@@ -7393,76 +7393,76 @@
       <c r="I9" s="72"/>
       <c r="J9" s="73"/>
     </row>
-    <row r="10" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="278"/>
-    </row>
-    <row r="11" spans="1:10" s="115" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="130" t="s">
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="281"/>
+    </row>
+    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="180" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="129" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="134" t="s">
         <v>330</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="1:10" s="115" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="I11" s="129"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="101" t="s">
+      <c r="H12" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-    </row>
-    <row r="13" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7489,8 +7489,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7517,8 +7517,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7545,8 +7545,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7559,8 +7559,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7573,8 +7573,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7587,8 +7587,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7601,8 +7601,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="115" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109">
+    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7615,61 +7615,61 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="276" t="s">
+    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="278"/>
-    </row>
-    <row r="22" spans="1:10" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="281"/>
+    </row>
+    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="133" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:10" s="115" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="115"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="154" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="8"/>
@@ -7689,70 +7689,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="276" t="s">
+    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="277"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="277"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="277"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="278"/>
-    </row>
-    <row r="26" spans="1:10" s="115" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="281"/>
+    </row>
+    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="199" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="133" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="196" t="s">
+      <c r="E26" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="153"/>
-    </row>
-    <row r="27" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="149" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="152"/>
+    </row>
+    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="149"/>
+      <c r="B27" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="211" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="153"/>
+    </row>
+    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147"/>
+      <c r="B28" s="210" t="s">
         <v>466</v>
       </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="155" t="s">
+      <c r="C28" s="191"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="154" t="s">
         <v>467</v>
       </c>
       <c r="F28" s="8"/>
@@ -7761,74 +7761,74 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="273" t="s">
+    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="276" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
-    </row>
-    <row r="31" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267" t="s">
+      <c r="B30" s="277"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="277"/>
+      <c r="E30" s="277"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="277"/>
+      <c r="H30" s="278"/>
+    </row>
+    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="270" t="s">
         <v>367</v>
       </c>
-      <c r="B31" s="268"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="269"/>
-    </row>
-    <row r="32" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="269"/>
-    </row>
-    <row r="33" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="269"/>
-    </row>
-    <row r="34" spans="1:8" s="115" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
-    </row>
-    <row r="35" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="115" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="257" t="s">
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="272"/>
+    </row>
+    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="270"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="272"/>
+    </row>
+    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="270"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="272"/>
+    </row>
+    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="273"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="274"/>
+      <c r="G34" s="274"/>
+      <c r="H34" s="275"/>
+    </row>
+    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="260" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="257"/>
-      <c r="C36" s="257"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-    </row>
-    <row r="37" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+    </row>
+    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>319</v>
       </c>
@@ -7838,12 +7838,12 @@
       <c r="C37" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="256" t="s">
+      <c r="D37" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="259"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7855,7 +7855,7 @@
       <c r="C38" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="C39" t="s">
         <v>469</v>
       </c>
-      <c r="D39" s="195" t="s">
+      <c r="D39" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       <c r="C40" t="s">
         <v>469</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       <c r="C41" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       <c r="C42" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="185" t="s">
+      <c r="D42" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       <c r="C43" t="s">
         <v>469</v>
       </c>
-      <c r="D43" s="195" t="s">
+      <c r="D43" s="194" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
       <c r="C44" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="195" t="s">
+      <c r="D44" s="194" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       <c r="C45" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       <c r="C46" t="s">
         <v>469</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="194" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       <c r="C47" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       <c r="C48" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="185" t="s">
+      <c r="D48" s="184" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8080,366 +8080,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="286" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="283"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="286" t="s">
+      <c r="B3" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="204" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="208"/>
+      <c r="P3" s="207"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="206">
+      <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="168" t="s">
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>374</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282" t="s">
+      <c r="A5" s="192"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="282"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="282" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202" t="s">
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201" t="s">
         <v>391</v>
       </c>
-      <c r="O5" s="209" t="s">
+      <c r="O5" s="208" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="282" t="s">
+      <c r="A6" s="192"/>
+      <c r="B6" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202" t="s">
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201" t="s">
         <v>392</v>
       </c>
-      <c r="O6" s="209" t="s">
+      <c r="O6" s="208" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="282" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="166"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="282"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="166"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="276" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="278"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="270" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="272"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="272"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="270"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="272"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="275"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="260" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
@@ -8451,12 +8451,12 @@
       <c r="C22" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8468,7 +8468,7 @@
       <c r="C23" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       <c r="C24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       <c r="C27" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       <c r="C28" t="s">
         <v>455</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8566,7 +8566,7 @@
       <c r="C30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8580,7 +8580,7 @@
       <c r="C31" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       <c r="C32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="C33" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="194" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
       <c r="C34" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="181" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="C35" t="s">
         <v>455</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="181" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
       <c r="C36" t="s">
         <v>455</v>
       </c>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="181" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       <c r="C37" t="s">
         <v>455</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="181" t="s">
         <v>405</v>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       <c r="C38" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8692,7 +8692,7 @@
       <c r="C39" t="s">
         <v>455</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="181" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="C40" t="s">
         <v>455</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
       <c r="C41" t="s">
         <v>455</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="181" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       <c r="C42" t="s">
         <v>455</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="181" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="181" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="181" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8818,7 +8818,7 @@
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="181" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       <c r="C49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="182" t="s">
+      <c r="D49" s="181" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       <c r="C50" t="s">
         <v>455</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="D50" s="181" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       <c r="C51" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="181" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8874,7 +8874,7 @@
       <c r="C52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="194" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
       <c r="C53" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="181" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9016,351 +9016,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="286" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="283"/>
-      <c r="P1" s="283"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="203" t="s">
+      <c r="O3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="203" t="s">
+      <c r="P3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="Q3" s="207"/>
+      <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="168" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>374</v>
       </c>
-      <c r="P4" s="168" t="s">
+      <c r="P4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="282"/>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="291" t="s">
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="202" t="s">
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202" t="s">
+      <c r="N5" s="201"/>
+      <c r="O5" s="201" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="202" t="s">
+      <c r="P5" s="201" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="169"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="167"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="282"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="167"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="170"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="276" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="278"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="270" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="272"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="272"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="270"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="272"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="275"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="260" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
@@ -9372,12 +9372,12 @@
       <c r="C22" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="259" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9389,7 +9389,7 @@
       <c r="C23" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="C24" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       <c r="C25" t="s">
         <v>465</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="C26" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       <c r="C27" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
       <c r="C28" t="s">
         <v>465</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9473,7 +9473,7 @@
       <c r="C29" t="s">
         <v>465</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       <c r="C30" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       <c r="C31" t="s">
         <v>465</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       <c r="C32" t="s">
         <v>465</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
       <c r="C33" t="s">
         <v>465</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="181" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       <c r="C34" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="195" t="s">
+      <c r="D34" s="194" t="s">
         <v>354</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="191" customWidth="1"/>
+    <col min="3" max="3" width="16" style="190" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9656,12 +9656,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="295" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="294"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="297"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -9685,7 +9685,7 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="136" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9696,9 +9696,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="189"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9724,7 +9724,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="189"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="189"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="B7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="189"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
       <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="188"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="189"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="24">
         <v>0</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="B10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="189"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="25" t="s">
         <v>68</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="189"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="25" t="s">
         <v>69</v>
       </c>
@@ -9804,7 +9804,7 @@
       <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="189"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="24">
         <v>0</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="189"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="24" t="s">
         <v>31</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9838,7 +9838,7 @@
       <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="189"/>
+      <c r="C15" s="188"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
       <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="189"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9858,7 +9858,7 @@
       <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="189"/>
+      <c r="C17" s="188"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9868,7 +9868,7 @@
       <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="189"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9878,7 +9878,7 @@
       <c r="B19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="189"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="24">
         <v>1</v>
       </c>
@@ -9890,7 +9890,7 @@
       <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="189"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9900,7 +9900,7 @@
       <c r="B21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="189"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9910,7 +9910,7 @@
       <c r="B22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="189"/>
+      <c r="C22" s="188"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
       <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9930,7 +9930,7 @@
       <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="189"/>
+      <c r="C24" s="188"/>
       <c r="D24" s="24">
         <v>100</v>
       </c>
@@ -9942,7 +9942,7 @@
       <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="189"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="24">
         <v>65535</v>
       </c>
@@ -9954,7 +9954,7 @@
       <c r="B26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="189"/>
+      <c r="C26" s="188"/>
       <c r="D26" s="24">
         <v>10</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="189"/>
+      <c r="C27" s="188"/>
       <c r="D27" s="24">
         <v>0.1</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="189"/>
+      <c r="C28" s="188"/>
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9988,7 +9988,7 @@
       <c r="B29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="189"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9998,7 +9998,7 @@
       <c r="B30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="189"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10008,7 +10008,7 @@
       <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10018,7 +10018,7 @@
       <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="189"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="188"/>
       <c r="D33" s="24">
         <v>0.02</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="B34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="189"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10050,7 +10050,7 @@
       <c r="B35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="189"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10060,7 +10060,7 @@
       <c r="B36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="189"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10070,7 +10070,7 @@
       <c r="B37" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="189"/>
+      <c r="C37" s="188"/>
       <c r="D37" s="25" t="s">
         <v>72</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="B38" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="189"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="25">
         <v>0</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="B39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="187"/>
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10102,7 +10102,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="189"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,7 +10112,7 @@
       <c r="B41" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="189"/>
+      <c r="C41" s="188"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10122,7 +10122,7 @@
       <c r="B42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="189"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
       <c r="B43" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="189"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10142,7 +10142,7 @@
       <c r="B44" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="189"/>
+      <c r="C44" s="188"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10152,7 +10152,7 @@
       <c r="B45" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="189"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10162,7 +10162,7 @@
       <c r="B46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="189"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
       <c r="B47" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="189"/>
+      <c r="C47" s="188"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
       <c r="B48" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="189"/>
+      <c r="C48" s="188"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10192,7 +10192,7 @@
       <c r="B49" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="189"/>
+      <c r="C49" s="188"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10202,7 +10202,7 @@
       <c r="B50" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="189"/>
+      <c r="C50" s="188"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
       <c r="B51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="189"/>
+      <c r="C51" s="188"/>
       <c r="D51" s="24">
         <v>1</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="B52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="189"/>
+      <c r="C52" s="188"/>
       <c r="D52" s="24">
         <v>1</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="B53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="189"/>
+      <c r="C53" s="188"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="B54" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="189"/>
+      <c r="C54" s="188"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="B55" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="189"/>
+      <c r="C55" s="188"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="B56" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="189"/>
+      <c r="C56" s="188"/>
       <c r="D56" s="24">
         <v>0</v>
       </c>
@@ -10284,7 +10284,7 @@
       <c r="B57" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="189"/>
+      <c r="C57" s="188"/>
       <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10294,7 +10294,7 @@
       <c r="B58" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="189"/>
+      <c r="C58" s="188"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
       <c r="B59" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="188"/>
+      <c r="C59" s="187"/>
       <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
       <c r="B60" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="189"/>
+      <c r="C60" s="188"/>
       <c r="D60" s="27">
         <v>0</v>
       </c>
@@ -10323,9 +10323,9 @@
       <c r="A61" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B61" s="186"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="187"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="186"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10334,7 +10334,7 @@
       <c r="B62" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="189"/>
+      <c r="C62" s="188"/>
       <c r="D62" s="27">
         <v>0</v>
       </c>
@@ -10346,7 +10346,7 @@
       <c r="B63" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="188"/>
+      <c r="C63" s="187"/>
       <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10356,7 +10356,7 @@
       <c r="B64" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="190"/>
+      <c r="C64" s="189"/>
       <c r="D64" s="30">
         <v>0</v>
       </c>
@@ -10396,23 +10396,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="301" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10430,17 +10430,17 @@
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="300"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="38"/>
@@ -10631,21 +10631,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
-      <c r="J19" s="296"/>
-      <c r="K19" s="296"/>
-      <c r="L19" s="296"/>
-      <c r="M19" s="296"/>
-      <c r="N19" s="297"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="299"/>
+      <c r="M19" s="299"/>
+      <c r="N19" s="300"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="38"/>
@@ -10847,27 +10847,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="306" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="304"/>
-      <c r="S1" s="304"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="307"/>
+      <c r="S1" s="307"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -10881,26 +10881,26 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
-      <c r="L3" s="300" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="300"/>
+      <c r="L3" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
     </row>
@@ -11131,23 +11131,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="310"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -11160,22 +11160,22 @@
       <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="297"/>
-      <c r="J3" s="300" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="300"/>
+      <c r="J3" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="302"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -3951,12 +3951,90 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3999,90 +4077,12 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,31 +4161,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5072,7 +5072,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5093,86 +5093,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="258"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="244"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="230" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5183,62 +5183,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="246" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="249" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="251" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="246" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="248"/>
+      <c r="E15" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="242"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5248,10 +5248,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="251"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="215" t="s">
         <v>494</v>
       </c>
       <c r="J18" s="82"/>
@@ -5304,7 +5304,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="235"/>
+      <c r="I19" s="215"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,24 +5343,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="216"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="E24" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="256"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="220" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5453,22 +5453,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="225" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5480,10 +5480,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5528,7 +5528,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5541,7 +5541,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5554,7 +5554,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5567,7 +5567,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5580,17 +5580,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="219"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="I42" s="215"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5617,7 +5617,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5626,7 +5626,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5635,7 +5635,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="I45" s="215"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5644,7 +5644,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="I46" s="215"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5653,25 +5653,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="I47" s="216"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5687,6 +5673,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8080,23 +8080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8104,26 +8104,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8131,21 +8131,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="293" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8161,25 +8161,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8217,23 +8217,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8244,57 +8244,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8894,15 +8894,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8919,12 +8916,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9016,68 +9016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="293" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9093,24 +9093,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9125,12 +9125,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9151,12 +9151,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9169,12 +9169,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9187,12 +9187,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9206,17 +9206,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9549,16 +9549,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9575,6 +9565,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -2440,10 +2440,10 @@
     <t>2012-03-12_Beads2_P3.fcs</t>
   </si>
   <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3951,20 +3951,116 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3987,102 +4083,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,10 +4161,19 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4177,15 +4186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5072,7 +5072,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5093,86 +5093,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="238" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="217" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="217" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5183,62 +5183,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="220" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="252"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="242"/>
+      <c r="B16" s="232"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="236" t="s">
+      <c r="E16" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5248,10 +5248,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="239" t="s">
+      <c r="E17" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="240"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="235" t="s">
         <v>494</v>
       </c>
       <c r="J18" s="82"/>
@@ -5304,7 +5304,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="215"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,24 +5343,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="219"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="224"/>
+      <c r="F24" s="256"/>
       <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="252" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5453,22 +5453,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="225" t="s">
+      <c r="E31" s="257" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="258"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5480,10 +5480,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="219"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5528,7 +5528,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5541,7 +5541,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5554,7 +5554,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5567,7 +5567,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5580,17 +5580,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5617,7 +5617,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5626,7 +5626,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5635,7 +5635,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5644,7 +5644,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5653,11 +5653,25 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5673,20 +5687,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8080,23 +8080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8104,26 +8104,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8131,21 +8131,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8161,25 +8161,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8217,23 +8217,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8244,57 +8244,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8894,12 +8894,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8916,15 +8919,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9016,68 +9016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9093,24 +9093,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9125,12 +9125,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9151,12 +9151,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9169,12 +9169,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9187,12 +9187,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9206,17 +9206,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9549,6 +9549,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9565,16 +9575,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -2440,10 +2440,10 @@
     <t>2012-03-12_Beads2_P3.fcs</t>
   </si>
   <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3951,12 +3951,90 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3999,90 +4077,12 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,31 +4161,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5072,7 +5072,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5093,86 +5093,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="258"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="244"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="230" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5183,62 +5183,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="246" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="249" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="251" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="246" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="248"/>
+      <c r="E15" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="242"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5248,10 +5248,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="251"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="215" t="s">
         <v>494</v>
       </c>
       <c r="J18" s="82"/>
@@ -5304,7 +5304,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="235"/>
+      <c r="I19" s="215"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,24 +5343,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="216"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="E24" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="256"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="220" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5453,22 +5453,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="225" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5480,10 +5480,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5528,7 +5528,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5541,7 +5541,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5554,7 +5554,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5567,7 +5567,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5580,17 +5580,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="219"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="I42" s="215"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5617,7 +5617,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5626,7 +5626,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5635,7 +5635,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="I45" s="215"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5644,7 +5644,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="I46" s="215"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5653,25 +5653,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="I47" s="216"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5687,6 +5673,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8080,23 +8080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8104,26 +8104,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8131,21 +8131,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="293" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8161,25 +8161,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8217,23 +8217,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8244,57 +8244,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8894,15 +8894,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8919,12 +8916,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9016,68 +9016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="293" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9093,24 +9093,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9125,12 +9125,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9151,12 +9151,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9169,12 +9169,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9187,12 +9187,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9206,17 +9206,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9549,16 +9549,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9575,6 +9565,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -3951,20 +3951,116 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3987,102 +4083,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,10 +4161,19 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4177,15 +4186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5071,8 +5071,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5093,86 +5093,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="238" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="217" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="217" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5183,62 +5183,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="220" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="252"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="242"/>
+      <c r="B16" s="232"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="236" t="s">
+      <c r="E16" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5248,10 +5248,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="239" t="s">
+      <c r="E17" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="240"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="235" t="s">
         <v>494</v>
       </c>
       <c r="J18" s="82"/>
@@ -5304,7 +5304,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="215"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,24 +5343,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="219"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="224"/>
+      <c r="F24" s="256"/>
       <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="252" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5453,22 +5453,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="225" t="s">
+      <c r="E31" s="257" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="258"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5480,10 +5480,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="219"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5528,7 +5528,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5541,7 +5541,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5554,7 +5554,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5567,7 +5567,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5580,17 +5580,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5617,7 +5617,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5626,7 +5626,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5635,7 +5635,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5644,7 +5644,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5653,11 +5653,25 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5673,20 +5687,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5701,7 +5701,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8080,23 +8080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8104,26 +8104,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8131,21 +8131,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8161,25 +8161,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8217,23 +8217,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8244,57 +8244,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8894,12 +8894,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8916,15 +8919,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9016,68 +9016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9093,24 +9093,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9125,12 +9125,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9151,12 +9151,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9169,12 +9169,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9187,12 +9187,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9206,17 +9206,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9549,6 +9549,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9565,16 +9575,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -3951,12 +3951,90 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3999,90 +4077,12 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,31 +4161,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5071,7 +5071,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -5093,86 +5093,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="258"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="244"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="230" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5183,62 +5183,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="246" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="249" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="251" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="246" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="248"/>
+      <c r="E15" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="242"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5248,10 +5248,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="251"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="214" t="s">
         <v>159</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="215" t="s">
         <v>494</v>
       </c>
       <c r="J18" s="82"/>
@@ -5304,7 +5304,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="235"/>
+      <c r="I19" s="215"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,24 +5343,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="216"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="E24" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="256"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="214" t="s">
         <v>159</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="220" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5453,22 +5453,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="225" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5480,10 +5480,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5528,7 +5528,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5541,7 +5541,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5554,7 +5554,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5567,7 +5567,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5580,17 +5580,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="219"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="I42" s="215"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5617,7 +5617,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5626,7 +5626,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5635,7 +5635,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="I45" s="215"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5644,7 +5644,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="I46" s="215"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5653,25 +5653,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="I47" s="216"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5687,6 +5673,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5700,8 +5700,8 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8080,23 +8080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8104,26 +8104,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8131,21 +8131,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="293" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8161,25 +8161,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8192,21 +8192,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8217,23 +8217,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8244,57 +8244,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8894,15 +8894,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8919,12 +8916,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9016,68 +9016,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="293" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9093,24 +9093,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9125,12 +9125,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9151,12 +9151,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9169,12 +9169,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9187,12 +9187,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9206,17 +9206,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9549,16 +9549,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9575,6 +9565,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="500">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2444,6 +2444,18 @@
   </si>
   <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+  </si>
+  <si>
+    <t>flow.outputHistogramFile</t>
+  </si>
+  <si>
+    <t>if true, output histogram file for batch analysis</t>
+  </si>
+  <si>
+    <t>flow.outputStatisticsFile</t>
+  </si>
+  <si>
+    <t>if true, output statistics file for batch analysis</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3359,11 +3371,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3438,7 +3459,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3950,6 +3970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5077,583 +5104,583 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="20" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="6" style="86" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="86"/>
+    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="20" style="85" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="6" style="85" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="245"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="243"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="258" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="259"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="244" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="143"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="247" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="143"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="250" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="251"/>
+      <c r="C12" s="252" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="252"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="143"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="247" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="249"/>
+      <c r="E15" s="247" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="242" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="242"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="236" t="s">
+      <c r="B16" s="243"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="E17" s="239" t="s">
+      <c r="C17" s="89"/>
+      <c r="E17" s="240" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="214" t="s">
+      <c r="F17" s="241"/>
+      <c r="G17" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="214" t="s">
+      <c r="H17" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="196" t="s">
+      <c r="I17" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="J17" s="82"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="158" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="E18" s="84">
+      <c r="C18" s="89"/>
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="216" t="s">
         <v>494</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="90"/>
-      <c r="E19" s="84">
+      <c r="B19" s="116"/>
+      <c r="C19" s="89"/>
+      <c r="E19" s="83">
         <v>2</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="215"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="159" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="92"/>
-      <c r="E20" s="85">
+      <c r="B20" s="116"/>
+      <c r="C20" s="91"/>
+      <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="82"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="33"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="32"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="90"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="89"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92"/>
-      <c r="E23" s="217" t="s">
+      <c r="A23" s="161"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="E23" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="218" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="219"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="B24" s="220"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="224" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="224"/>
-      <c r="G24" s="214" t="s">
+      <c r="F24" s="225"/>
+      <c r="G24" s="213" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="214" t="s">
+      <c r="H24" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="196" t="s">
+      <c r="I24" s="195" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="E25" s="84">
+      <c r="C25" s="32"/>
+      <c r="E25" s="83">
         <v>1</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="221" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="158" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="E26" s="84">
+      <c r="C26" s="89"/>
+      <c r="E26" s="83">
         <v>2</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="222"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="159" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="92"/>
-      <c r="E27" s="85">
+      <c r="B27" s="116"/>
+      <c r="C27" s="91"/>
+      <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="141" t="s">
+      <c r="F27" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="223"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="82"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="33"/>
-      <c r="I29" s="82"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="32"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="90"/>
-      <c r="E30" s="217" t="s">
+      <c r="A30" s="160"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="89"/>
+      <c r="E30" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="E31" s="225" t="s">
+      <c r="A31" s="161"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="E31" s="226" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="212" t="s">
+      <c r="F31" s="227"/>
+      <c r="G31" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="212" t="s">
+      <c r="H31" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="196" t="s">
+      <c r="I31" s="195" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="33"/>
-      <c r="E32" s="84">
+      <c r="B32" s="220"/>
+      <c r="C32" s="32"/>
+      <c r="E32" s="83">
         <v>1</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="216"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="E33" s="84">
+      <c r="C33" s="89"/>
+      <c r="E33" s="83">
         <v>2</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="216"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="158" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>3</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="216"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="E35" s="84">
+      <c r="B35" s="116"/>
+      <c r="E35" s="83">
         <v>4</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="216"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="E36" s="84">
+      <c r="B36" s="116"/>
+      <c r="E36" s="83">
         <v>5</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="216"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="E37" s="85">
+      <c r="B37" s="116"/>
+      <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="218" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="220"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="83" t="s">
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="196" t="s">
+      <c r="I41" s="195" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="84">
+      <c r="E42" s="83">
         <v>1</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="216"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <v>2</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="216"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="84">
+      <c r="E44" s="83">
         <v>3</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="216"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="84">
+      <c r="E45" s="83">
         <v>4</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="216"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="84">
+      <c r="E46" s="83">
         <v>5</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="216"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="85">
+      <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="141"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="217"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5700,7 +5727,7 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5726,964 +5753,964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="262" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="263"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="264"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="265" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="181" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="182" t="s">
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="181" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="181" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="199" t="s">
         <v>415</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="109">
         <v>0.1</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="110">
         <v>1</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="213" t="s">
+      <c r="J5" s="112"/>
+      <c r="K5" s="212" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="108">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <v>0.2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="109">
         <v>0.2</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="110">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="213" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="212" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <v>0.5</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110">
         <v>1</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="213" t="s">
+      <c r="J7" s="112"/>
+      <c r="K7" s="212" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="109">
         <v>1</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="109">
         <v>0.1</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="110">
         <v>1</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="213" t="s">
+      <c r="J8" s="112"/>
+      <c r="K8" s="212" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="109">
         <v>2</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="109">
         <v>0.2</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="110">
         <v>1</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="213" t="s">
+      <c r="J9" s="112"/>
+      <c r="K9" s="212" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="109">
         <v>5</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110">
         <v>1</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="213" t="s">
+      <c r="J10" s="112"/>
+      <c r="K10" s="212" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="109">
         <v>10</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111">
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110">
         <v>1</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="213" t="s">
+      <c r="J11" s="112"/>
+      <c r="K11" s="212" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="109">
         <v>20</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111">
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110">
         <v>1</v>
       </c>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="213" t="s">
+      <c r="J12" s="112"/>
+      <c r="K12" s="212" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="109">
         <v>50</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111">
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110">
         <v>1</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="213" t="s">
+      <c r="J13" s="112"/>
+      <c r="K13" s="212" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <v>100</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="109">
         <v>100</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="110">
         <v>1</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="213" t="s">
+      <c r="J14" s="112"/>
+      <c r="K14" s="212" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <v>200</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="109">
         <v>200</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="110">
         <v>1</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="213" t="s">
+      <c r="J15" s="112"/>
+      <c r="K15" s="212" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="109">
         <v>500</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111">
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110">
         <v>1</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="213" t="s">
+      <c r="J16" s="112"/>
+      <c r="K16" s="212" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109">
+      <c r="A17" s="108">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="109">
         <v>1000</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="109">
         <v>100</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="110">
         <v>1</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="213" t="s">
+      <c r="J17" s="112"/>
+      <c r="K17" s="212" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <v>2000</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="109">
         <v>200</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="110">
         <v>1</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="213" t="s">
+      <c r="J18" s="112"/>
+      <c r="K18" s="212" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109">
+      <c r="A19" s="108">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111">
+      <c r="C19" s="77"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110">
         <v>2</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113" t="s">
+      <c r="I19" s="111"/>
+      <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="213" t="s">
+      <c r="K19" s="212" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111">
+      <c r="C20" s="77"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110">
         <v>2</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113" t="s">
+      <c r="I20" s="111"/>
+      <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="213" t="s">
+      <c r="K20" s="212" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+      <c r="A21" s="108">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111">
+      <c r="C21" s="77"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110">
         <v>2</v>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113" t="s">
+      <c r="I21" s="111"/>
+      <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="213" t="s">
+      <c r="K21" s="212" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+      <c r="A22" s="108">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111">
+      <c r="C22" s="77"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110">
         <v>2</v>
       </c>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113" t="s">
+      <c r="I22" s="111"/>
+      <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="213" t="s">
+      <c r="K22" s="212" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109">
+      <c r="A23" s="108">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110">
         <v>2</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113" t="s">
+      <c r="I23" s="111"/>
+      <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="213" t="s">
+      <c r="K23" s="212" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109">
+      <c r="A24" s="108">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111">
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110">
         <v>2</v>
       </c>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113" t="s">
+      <c r="I24" s="111"/>
+      <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="213" t="s">
+      <c r="K24" s="212" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173">
+      <c r="A25" s="172">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="173" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176">
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="175">
         <v>2</v>
       </c>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178" t="s">
+      <c r="I25" s="176"/>
+      <c r="J25" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="213" t="s">
+      <c r="K25" s="212" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="279" t="s">
+      <c r="A27" s="280" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="280"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="280"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="280"/>
-      <c r="Q27" s="281"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="282"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="196" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="195" t="s">
+      <c r="C28" s="194" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="194" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="195" t="s">
+      <c r="F28" s="194" t="s">
         <v>388</v>
       </c>
-      <c r="G28" s="195" t="s">
+      <c r="G28" s="194" t="s">
         <v>442</v>
       </c>
-      <c r="H28" s="199" t="s">
+      <c r="H28" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="199" t="s">
+      <c r="I28" s="198" t="s">
         <v>442</v>
       </c>
-      <c r="J28" s="199" t="s">
+      <c r="J28" s="198" t="s">
         <v>454</v>
       </c>
-      <c r="K28" s="199" t="s">
+      <c r="K28" s="198" t="s">
         <v>442</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="L28" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="M28" s="124" t="s">
+      <c r="M28" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="N28" s="124" t="s">
+      <c r="N28" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="195" t="s">
+      <c r="O28" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="195" t="s">
+      <c r="P28" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="Q28" s="198" t="s">
+      <c r="Q28" s="197" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="97" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="H29" s="97" t="s">
+      <c r="H29" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="97" t="s">
+      <c r="J29" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="97" t="s">
+      <c r="M29" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="N29" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="97" t="s">
+      <c r="O29" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="97" t="s">
+      <c r="P29" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="Q29" s="119" t="s">
+      <c r="Q29" s="118" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="209" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="208" t="s">
         <v>445</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153" t="s">
         <v>444</v>
       </c>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154" t="s">
+      <c r="H30" s="153"/>
+      <c r="I30" s="153" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="154">
+      <c r="J30" s="153">
         <v>3</v>
       </c>
-      <c r="K30" s="154" t="s">
+      <c r="K30" s="153" t="s">
         <v>450</v>
       </c>
-      <c r="L30" s="154">
+      <c r="L30" s="153">
         <v>100</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="153">
         <v>0</v>
       </c>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154">
+      <c r="N30" s="153"/>
+      <c r="O30" s="153">
         <v>4</v>
       </c>
-      <c r="P30" s="154">
+      <c r="P30" s="153">
         <v>10</v>
       </c>
-      <c r="Q30" s="155">
+      <c r="Q30" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="277"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="278"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="279"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="271" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="270"/>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="272"/>
+      <c r="A35" s="271"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="273"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="273"/>
-      <c r="B36" s="274"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="274"/>
-      <c r="H36" s="275"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="275"/>
+      <c r="C36" s="275"/>
+      <c r="D36" s="275"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="276"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="259" t="s">
+      <c r="D39" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="259"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="260"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6695,7 +6722,7 @@
       <c r="C40" t="s">
         <v>452</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6709,7 +6736,7 @@
       <c r="C41" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6723,7 +6750,7 @@
       <c r="C42" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6737,7 +6764,7 @@
       <c r="C43" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6751,7 +6778,7 @@
       <c r="C44" t="s">
         <v>452</v>
       </c>
-      <c r="D44" s="184" t="s">
+      <c r="D44" s="183" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6765,7 +6792,7 @@
       <c r="C45" t="s">
         <v>452</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6779,7 +6806,7 @@
       <c r="C46" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="193" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6793,7 +6820,7 @@
       <c r="C47" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6807,7 +6834,7 @@
       <c r="C48" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="194" t="s">
+      <c r="D48" s="193" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6821,7 +6848,7 @@
       <c r="C49" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="194" t="s">
+      <c r="D49" s="193" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6835,7 +6862,7 @@
       <c r="C50" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="194" t="s">
+      <c r="D50" s="193" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6849,7 +6876,7 @@
       <c r="C51" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="194" t="s">
+      <c r="D51" s="193" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6863,7 +6890,7 @@
       <c r="C52" t="s">
         <v>452</v>
       </c>
-      <c r="D52" s="181" t="s">
+      <c r="D52" s="180" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6877,7 +6904,7 @@
       <c r="C53" t="s">
         <v>452</v>
       </c>
-      <c r="D53" s="194" t="s">
+      <c r="D53" s="193" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6891,7 +6918,7 @@
       <c r="C54" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="194" t="s">
+      <c r="D54" s="193" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6905,7 +6932,7 @@
       <c r="C55" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="194" t="s">
+      <c r="D55" s="193" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6919,7 +6946,7 @@
       <c r="C56" t="s">
         <v>452</v>
       </c>
-      <c r="D56" s="194" t="s">
+      <c r="D56" s="193" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6933,7 +6960,7 @@
       <c r="C57" t="s">
         <v>452</v>
       </c>
-      <c r="D57" s="194" t="s">
+      <c r="D57" s="193" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6947,7 +6974,7 @@
       <c r="C58" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="181" t="s">
+      <c r="D58" s="180" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6961,7 +6988,7 @@
       <c r="C59" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="181" t="s">
+      <c r="D59" s="180" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6975,7 +7002,7 @@
       <c r="C60" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="181" t="s">
+      <c r="D60" s="180" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6989,7 +7016,7 @@
       <c r="C61" t="s">
         <v>452</v>
       </c>
-      <c r="D61" s="181" t="s">
+      <c r="D61" s="180" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7003,7 +7030,7 @@
       <c r="C62" t="s">
         <v>452</v>
       </c>
-      <c r="D62" s="181" t="s">
+      <c r="D62" s="180" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7017,7 +7044,7 @@
       <c r="C63" t="s">
         <v>452</v>
       </c>
-      <c r="D63" s="181" t="s">
+      <c r="D63" s="180" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7031,7 +7058,7 @@
       <c r="C64" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="181" t="s">
+      <c r="D64" s="180" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7045,7 +7072,7 @@
       <c r="C65" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="181" t="s">
+      <c r="D65" s="180" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7059,7 +7086,7 @@
       <c r="C66" t="s">
         <v>452</v>
       </c>
-      <c r="D66" s="181" t="s">
+      <c r="D66" s="180" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7073,7 +7100,7 @@
       <c r="C67" t="s">
         <v>452</v>
       </c>
-      <c r="D67" s="181" t="s">
+      <c r="D67" s="180" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7087,7 +7114,7 @@
       <c r="C68" t="s">
         <v>452</v>
       </c>
-      <c r="D68" s="181" t="s">
+      <c r="D68" s="180" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7101,7 +7128,7 @@
       <c r="C69" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="181" t="s">
+      <c r="D69" s="180" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7115,7 +7142,7 @@
       <c r="C70" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="181" t="s">
+      <c r="D70" s="180" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7129,7 +7156,7 @@
       <c r="C71" t="s">
         <v>452</v>
       </c>
-      <c r="D71" s="181" t="s">
+      <c r="D71" s="180" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7227,92 +7254,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="283" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="284"/>
-    </row>
-    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="285"/>
+    </row>
+    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="281"/>
-    </row>
-    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="282"/>
+    </row>
+    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="170" t="s">
         <v>308</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7324,145 +7351,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="211" t="s">
+      <c r="G5" s="210" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-    </row>
-    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="279" t="s">
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+    </row>
+    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-    </row>
-    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="B6" s="281"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="282"/>
+    </row>
+    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="132" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
-    </row>
-    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129" t="s">
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="282"/>
+    </row>
+    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="128" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="179" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="128" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>330</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="I11" s="128"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
-    </row>
-    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7489,8 +7516,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7517,8 +7544,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7545,8 +7572,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7559,8 +7586,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7573,8 +7600,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7587,8 +7614,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7601,8 +7628,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
+    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7615,62 +7642,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="279" t="s">
+    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="280"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="281"/>
-    </row>
-    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="282"/>
+    </row>
+    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="132" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="132" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="130"/>
+    </row>
+    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="E23" s="114"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7679,7 +7706,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="153" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="8"/>
@@ -7689,70 +7716,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="279" t="s">
+    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="280" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="281"/>
-    </row>
-    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="B25" s="281"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="282"/>
+    </row>
+    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="198" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="132" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="194" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="152"/>
-    </row>
-    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="148" t="s">
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="148"/>
+      <c r="B27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
-      <c r="B28" s="210" t="s">
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="152"/>
+    </row>
+    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="209" t="s">
         <v>466</v>
       </c>
-      <c r="C28" s="191"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="154" t="s">
+      <c r="C28" s="190"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="153" t="s">
         <v>467</v>
       </c>
       <c r="F28" s="8"/>
@@ -7761,89 +7788,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="276" t="s">
+    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="277"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="277"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="278"/>
-    </row>
-    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270" t="s">
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
+    </row>
+    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="271" t="s">
         <v>367</v>
       </c>
-      <c r="B31" s="271"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="272"/>
-    </row>
-    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="270"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="272"/>
-    </row>
-    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
-    </row>
-    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="273"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="275"/>
-    </row>
-    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="260" t="s">
+      <c r="B31" s="272"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
+    </row>
+    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="271"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="273"/>
+    </row>
+    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="271"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
+    </row>
+    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="274"/>
+      <c r="B34" s="275"/>
+      <c r="C34" s="275"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="275"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="276"/>
+    </row>
+    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="260"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="260"/>
-    </row>
-    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="B36" s="261"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
+    </row>
+    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="259" t="s">
+      <c r="D37" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="259"/>
-      <c r="F37" s="259"/>
-      <c r="G37" s="259"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7855,7 +7882,7 @@
       <c r="C38" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="180" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7869,7 +7896,7 @@
       <c r="C39" t="s">
         <v>469</v>
       </c>
-      <c r="D39" s="194" t="s">
+      <c r="D39" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7883,7 +7910,7 @@
       <c r="C40" t="s">
         <v>469</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7897,7 +7924,7 @@
       <c r="C41" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="180" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7911,7 +7938,7 @@
       <c r="C42" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="183" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7925,7 +7952,7 @@
       <c r="C43" t="s">
         <v>469</v>
       </c>
-      <c r="D43" s="194" t="s">
+      <c r="D43" s="193" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7939,7 +7966,7 @@
       <c r="C44" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="193" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7953,7 +7980,7 @@
       <c r="C45" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="193" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7967,7 +7994,7 @@
       <c r="C46" t="s">
         <v>469</v>
       </c>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="193" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7981,7 +8008,7 @@
       <c r="C47" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7995,7 +8022,7 @@
       <c r="C48" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="184" t="s">
+      <c r="D48" s="183" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8080,383 +8107,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="292" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="202" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="288" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="201" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="294" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="201" t="s">
         <v>373</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="203" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="207"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+      <c r="A4" s="204">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="286"/>
+      <c r="D4" s="286" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="167" t="s">
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>374</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="191"/>
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="287" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201" t="s">
+      <c r="K5" s="287"/>
+      <c r="L5" s="287"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200" t="s">
         <v>391</v>
       </c>
-      <c r="O5" s="208" t="s">
+      <c r="O5" s="207" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="191"/>
+      <c r="B6" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="287"/>
+      <c r="D6" s="287" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201" t="s">
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200" t="s">
         <v>392</v>
       </c>
-      <c r="O6" s="208" t="s">
+      <c r="O6" s="207" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="287"/>
+      <c r="D7" s="287" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="165"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="287"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="287"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="165"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="287"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="289" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="194" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="271" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8468,7 +8495,7 @@
       <c r="C23" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="180" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8482,7 +8509,7 @@
       <c r="C24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8496,7 +8523,7 @@
       <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="180" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8510,7 +8537,7 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="180" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8524,7 +8551,7 @@
       <c r="C27" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="184" t="s">
+      <c r="D27" s="183" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8538,7 +8565,7 @@
       <c r="C28" t="s">
         <v>455</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="193" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8552,7 +8579,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="193" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8566,7 +8593,7 @@
       <c r="C30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8580,7 +8607,7 @@
       <c r="C31" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D31" s="193" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8594,7 +8621,7 @@
       <c r="C32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="193" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8608,7 +8635,7 @@
       <c r="C33" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="193" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8622,7 +8649,7 @@
       <c r="C34" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="180" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8636,7 +8663,7 @@
       <c r="C35" t="s">
         <v>455</v>
       </c>
-      <c r="D35" s="181" t="s">
+      <c r="D35" s="180" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8650,7 +8677,7 @@
       <c r="C36" t="s">
         <v>455</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="180" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8664,7 +8691,7 @@
       <c r="C37" t="s">
         <v>455</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>405</v>
       </c>
     </row>
@@ -8678,7 +8705,7 @@
       <c r="C38" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="180" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8692,7 +8719,7 @@
       <c r="C39" t="s">
         <v>455</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8706,7 +8733,7 @@
       <c r="C40" t="s">
         <v>455</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8720,7 +8747,7 @@
       <c r="C41" t="s">
         <v>455</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="180" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8734,7 +8761,7 @@
       <c r="C42" t="s">
         <v>455</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8748,7 +8775,7 @@
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8762,7 +8789,7 @@
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="180" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8776,7 +8803,7 @@
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="180" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8790,7 +8817,7 @@
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="181" t="s">
+      <c r="D46" s="180" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8804,7 +8831,7 @@
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="181" t="s">
+      <c r="D47" s="180" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8818,7 +8845,7 @@
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="180" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8832,7 +8859,7 @@
       <c r="C49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="181" t="s">
+      <c r="D49" s="180" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8846,7 +8873,7 @@
       <c r="C50" t="s">
         <v>455</v>
       </c>
-      <c r="D50" s="181" t="s">
+      <c r="D50" s="180" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8860,7 +8887,7 @@
       <c r="C51" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="181" t="s">
+      <c r="D51" s="180" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8874,7 +8901,7 @@
       <c r="C52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="194" t="s">
+      <c r="D52" s="193" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8888,7 +8915,7 @@
       <c r="C53" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="180" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9016,368 +9043,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="288" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="294" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="294"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="201" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="201" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="201" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="202" t="s">
+      <c r="P3" s="201" t="s">
         <v>373</v>
       </c>
-      <c r="Q3" s="206"/>
+      <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="286"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="167" t="s">
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="166" t="s">
         <v>254</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>374</v>
       </c>
-      <c r="P4" s="167" t="s">
+      <c r="P4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="294" t="s">
+      <c r="A5" s="287"/>
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="201" t="s">
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201" t="s">
+      <c r="N5" s="200"/>
+      <c r="O5" s="200" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="201" t="s">
+      <c r="P5" s="200" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="168"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="295"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="166"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="287"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="166"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="287"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="289" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="194" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="169"/>
+      <c r="K12" s="168"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="271" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9389,7 +9416,7 @@
       <c r="C23" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="180" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9403,7 +9430,7 @@
       <c r="C24" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9417,7 +9444,7 @@
       <c r="C25" t="s">
         <v>465</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="180" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9431,7 +9458,7 @@
       <c r="C26" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="180" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9445,7 +9472,7 @@
       <c r="C27" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="184" t="s">
+      <c r="D27" s="183" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9459,7 +9486,7 @@
       <c r="C28" t="s">
         <v>465</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="193" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9473,7 +9500,7 @@
       <c r="C29" t="s">
         <v>465</v>
       </c>
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="193" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9487,7 +9514,7 @@
       <c r="C30" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9501,7 +9528,7 @@
       <c r="C31" t="s">
         <v>465</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D31" s="193" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9515,7 +9542,7 @@
       <c r="C32" t="s">
         <v>465</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="193" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9529,7 +9556,7 @@
       <c r="C33" t="s">
         <v>465</v>
       </c>
-      <c r="D33" s="181" t="s">
+      <c r="D33" s="180" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9543,7 +9570,7 @@
       <c r="C34" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="193" t="s">
         <v>354</v>
       </c>
     </row>
@@ -9638,39 +9665,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="190" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="189" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9685,7 +9712,7 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="135" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9696,9 +9723,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="187"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="136" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9709,7 +9736,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="188"/>
+      <c r="C4" s="187"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9724,7 +9751,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9736,633 +9763,663 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="188"/>
+      <c r="C6" s="187">
+        <v>1</v>
+      </c>
       <c r="D6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>102</v>
+      <c r="A7" s="214" t="s">
+        <v>496</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="24"/>
+        <v>497</v>
+      </c>
+      <c r="C7" s="215">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="214" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="215">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="187"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="25" t="s">
-        <v>68</v>
-      </c>
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="186"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="25" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="187"/>
+      <c r="D11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="188"/>
-      <c r="D12" s="24">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="187"/>
+      <c r="D12" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="187"/>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
+      <c r="A14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="187"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="187"/>
+      <c r="D15" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="186"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="188"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="187"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="188"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="187"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C19" s="187"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="188"/>
+        <v>38</v>
+      </c>
+      <c r="C20" s="187"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="187"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="188"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="187"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>42</v>
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="187"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="24">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C24" s="187"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="188"/>
-      <c r="D25" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="186"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="188"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="187"/>
       <c r="D26" s="24">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="188"/>
+        <v>44</v>
+      </c>
+      <c r="C27" s="187"/>
       <c r="D27" s="24">
-        <v>0.1</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="C28" s="187"/>
+      <c r="D28" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C29" s="187"/>
+      <c r="D29" s="24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="188"/>
+        <v>47</v>
+      </c>
+      <c r="C30" s="187"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>50</v>
+      <c r="A31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="187"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="188"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="187"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="24">
-        <v>0.02</v>
-      </c>
+      <c r="A33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="186"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="188"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="187"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C35" s="187"/>
+      <c r="D35" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="188"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="187"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C37" s="187"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="187"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="187"/>
+      <c r="D39" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="25">
+      <c r="C40" s="187"/>
+      <c r="D40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="187"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="188"/>
+        <v>129</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="188"/>
+        <v>85</v>
+      </c>
+      <c r="C43" s="187"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="188"/>
+        <v>86</v>
+      </c>
+      <c r="C44" s="187"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="188"/>
+        <v>87</v>
+      </c>
+      <c r="C45" s="187"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="188"/>
+        <v>169</v>
+      </c>
+      <c r="C46" s="187"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="188"/>
+        <v>89</v>
+      </c>
+      <c r="C47" s="187"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="188"/>
+        <v>90</v>
+      </c>
+      <c r="C48" s="187"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="188"/>
+        <v>88</v>
+      </c>
+      <c r="C49" s="187"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="188"/>
+        <v>91</v>
+      </c>
+      <c r="C50" s="187"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="188"/>
-      <c r="D51" s="24">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C51" s="187"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="188"/>
-      <c r="D52" s="24">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C52" s="187"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="188"/>
+        <v>59</v>
+      </c>
+      <c r="C53" s="187"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="188"/>
+        <v>60</v>
+      </c>
+      <c r="C54" s="187"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="188"/>
+        <v>61</v>
+      </c>
+      <c r="C55" s="187"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="188"/>
+        <v>62</v>
+      </c>
+      <c r="C56" s="187"/>
       <c r="D56" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="188"/>
-      <c r="D57" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="C57" s="187"/>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="188"/>
-      <c r="D58" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C58" s="187"/>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>148</v>
+      <c r="A59" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C59" s="187"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="188"/>
-      <c r="D60" s="27">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="187"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" s="185"/>
-      <c r="C61" s="187"/>
-      <c r="D61" s="186"/>
+        <v>147</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="186"/>
+      <c r="D61" s="185"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" s="188"/>
-      <c r="D62" s="27">
+        <v>150</v>
+      </c>
+      <c r="C62" s="187"/>
+      <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="184"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="185"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="187"/>
+      <c r="D64" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="187"/>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="C65" s="186"/>
+      <c r="D65" s="185"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="189"/>
-      <c r="D64" s="30">
+      <c r="C66" s="188"/>
+      <c r="D66" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f2zB4CaXZ1eO3MiUBsL42LhWsqnsHJG8yOOcR3Uc32wh/Kd5GPtyZ0JFamOimtjgoXnAV7YKwEW+nvqfdapecw==" saltValue="OmrrGRFpOtx4df7rc/rpvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10396,163 +10453,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
-      <c r="O1" s="302"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="N8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>5</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10562,10 +10619,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10575,10 +10632,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="45"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10588,10 +10645,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10601,10 +10658,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10614,10 +10671,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10631,190 +10688,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="298" t="s">
+      <c r="B19" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="300"/>
+      <c r="L19" s="300"/>
+      <c r="M19" s="300"/>
+      <c r="N19" s="301"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="47">
+      <c r="B20" s="37"/>
+      <c r="C20" s="46">
         <v>1</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>4</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>5</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>6</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>7</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="47">
         <v>8</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>9</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="47">
         <v>10</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="47">
         <v>11</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="45"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="45"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="45"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10847,122 +10904,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
-      <c r="L3" s="303" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
+      <c r="L3" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="305"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
+      <c r="R3" s="306"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="59">
+      <c r="B4" s="37"/>
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="59">
         <v>7</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>8</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="45"/>
-      <c r="L5" s="41">
+      <c r="I5" s="61"/>
+      <c r="J5" s="44"/>
+      <c r="L5" s="40">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -10970,21 +11027,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="45"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="45"/>
-      <c r="L6" s="41">
+      <c r="I6" s="61"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="40">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -10992,21 +11049,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="45"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="45"/>
-      <c r="L7" s="41">
+      <c r="I7" s="61"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="40">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11014,21 +11071,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="41">
+      <c r="I8" s="61"/>
+      <c r="J8" s="44"/>
+      <c r="L8" s="40">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11036,21 +11093,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="45"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="45"/>
-      <c r="L9" s="41">
+      <c r="I9" s="61"/>
+      <c r="J9" s="44"/>
+      <c r="L9" s="40">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11058,21 +11115,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="45"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11080,10 +11137,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="45"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11091,10 +11148,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="45"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11131,90 +11188,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="309" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="310"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="300"/>
-      <c r="J3" s="303" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="301"/>
+      <c r="J3" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="306"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="47">
+      <c r="B4" s="37"/>
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>6</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="3"/>
@@ -11222,17 +11279,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="41">
+      <c r="H5" s="44"/>
+      <c r="J5" s="40">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3"/>
@@ -11240,17 +11297,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="45"/>
-      <c r="J6" s="41">
+      <c r="H6" s="44"/>
+      <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="45"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="3"/>
@@ -11258,17 +11315,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="41">
+      <c r="H7" s="44"/>
+      <c r="J7" s="40">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="6"/>
@@ -11277,27 +11334,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="55"/>
-      <c r="J9" s="41">
+      <c r="H9" s="54"/>
+      <c r="J9" s="40">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="45"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="56"/>
-      <c r="J10" s="57">
+      <c r="H10" s="55"/>
+      <c r="J10" s="56">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11306,19 +11363,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="58"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="55"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="500">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2100,9 +2100,6 @@
     <t>transfercurve</t>
   </si>
   <si>
-    <t>transfercurve/plots</t>
-  </si>
-  <si>
     <t>Missing Output Filename in "Calibration" sheet. Defaulting to exp name.</t>
   </si>
   <si>
@@ -2456,6 +2453,9 @@
   </si>
   <si>
     <t>if true, output statistics file for batch analysis</t>
+  </si>
+  <si>
+    <t>/tmp/</t>
   </si>
 </sst>
 </file>
@@ -3978,20 +3978,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4014,102 +4110,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4188,12 +4188,21 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4204,15 +4213,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5120,86 +5120,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="239" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="218" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="245"/>
+      <c r="B3" s="219"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="243"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="259"/>
+      <c r="B5" s="235"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="245"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="219"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5210,62 +5210,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="249"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="250" t="s">
+      <c r="A12" s="224" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252" t="s">
+      <c r="B12" s="225"/>
+      <c r="C12" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="253"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="254"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
+      <c r="A13" s="228"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247" t="s">
+      <c r="A15" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="249"/>
-      <c r="E15" s="247" t="s">
+      <c r="B15" s="223"/>
+      <c r="E15" s="221" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="249"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="223"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="233"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="237" t="s">
+      <c r="E16" s="248" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="250"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5275,10 +5275,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="251" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="241"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="213" t="s">
         <v>159</v>
       </c>
@@ -5308,8 +5308,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="216" t="s">
-        <v>494</v>
+      <c r="I18" s="236" t="s">
+        <v>493</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5331,7 +5331,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="216"/>
+      <c r="I19" s="236"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="217"/>
+      <c r="I20" s="237"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,24 +5370,24 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="218" t="s">
+      <c r="E23" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="218" t="s">
+      <c r="A24" s="216" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="220"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="225"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="213" t="s">
         <v>159</v>
       </c>
@@ -5416,8 +5416,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="221" t="s">
-        <v>495</v>
+      <c r="I25" s="253" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="222"/>
+      <c r="I26" s="254"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="223"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5480,22 +5480,22 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="218" t="s">
+      <c r="E30" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="220"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="226" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="227"/>
+      <c r="E31" s="258" t="s">
+        <v>471</v>
+      </c>
+      <c r="F31" s="259"/>
       <c r="G31" s="211" t="s">
         <v>159</v>
       </c>
@@ -5507,10 +5507,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="218" t="s">
+      <c r="A32" s="216" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="220"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="216"/>
+      <c r="I32" s="236"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5540,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="216"/>
+      <c r="I33" s="236"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5555,7 +5555,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="216"/>
+      <c r="I34" s="236"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5568,7 +5568,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="216"/>
+      <c r="I35" s="236"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5581,7 +5581,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="216"/>
+      <c r="I36" s="236"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5594,7 +5594,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="217"/>
+      <c r="I37" s="237"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5607,17 +5607,17 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="218" t="s">
+      <c r="E40" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="220"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="216"/>
+      <c r="I42" s="236"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5644,7 +5644,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="216"/>
+      <c r="I43" s="236"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5653,7 +5653,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="216"/>
+      <c r="I44" s="236"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5662,7 +5662,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="216"/>
+      <c r="I45" s="236"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5671,7 +5671,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="216"/>
+      <c r="I46" s="236"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5680,11 +5680,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="217"/>
+      <c r="I47" s="237"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5700,20 +5714,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5843,7 +5843,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="199" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="J5" s="112"/>
       <c r="K5" s="212" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="212" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="J7" s="112"/>
       <c r="K7" s="212" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="J8" s="112"/>
       <c r="K8" s="212" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="212" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="J10" s="112"/>
       <c r="K10" s="212" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="J11" s="112"/>
       <c r="K11" s="212" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="J13" s="112"/>
       <c r="K13" s="212" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="212" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="212" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="J16" s="112"/>
       <c r="K16" s="212" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="J17" s="112"/>
       <c r="K17" s="212" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="J18" s="112"/>
       <c r="K18" s="212" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="212" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="212" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="212" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="212" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="212" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="K25" s="212" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6505,19 +6505,19 @@
         <v>388</v>
       </c>
       <c r="G28" s="194" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H28" s="198" t="s">
         <v>270</v>
       </c>
       <c r="I28" s="198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J28" s="198" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K28" s="198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L28" s="123" t="s">
         <v>273</v>
@@ -6559,16 +6559,16 @@
         <v>374</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J29" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="K29" s="96" t="s">
         <v>448</v>
-      </c>
-      <c r="K29" s="96" t="s">
-        <v>449</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>94</v>
@@ -6592,24 +6592,24 @@
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
       <c r="B30" s="208" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6720,7 +6720,7 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D40" s="180" t="s">
         <v>375</v>
@@ -6734,7 +6734,7 @@
         <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D41" s="193" t="s">
         <v>339</v>
@@ -6748,7 +6748,7 @@
         <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D42" s="180" t="s">
         <v>340</v>
@@ -6762,7 +6762,7 @@
         <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D43" s="180" t="s">
         <v>362</v>
@@ -6776,7 +6776,7 @@
         <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>341</v>
@@ -6784,184 +6784,184 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B45" t="s">
         <v>318</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D45" s="193" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s">
         <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" s="193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s">
         <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D47" s="193" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s">
         <v>318</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s">
         <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D49" s="193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s">
         <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D50" s="193" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" t="s">
         <v>422</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
+      <c r="D51" s="193" t="s">
         <v>423</v>
-      </c>
-      <c r="C51" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s">
         <v>384</v>
       </c>
       <c r="C52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D52" s="180" t="s">
         <v>452</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" t="s">
         <v>425</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="193" t="s">
         <v>426</v>
-      </c>
-      <c r="C53" t="s">
-        <v>452</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54" t="s">
         <v>425</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
+      <c r="D54" s="193" t="s">
         <v>426</v>
-      </c>
-      <c r="C54" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" t="s">
         <v>425</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" s="193" t="s">
         <v>426</v>
-      </c>
-      <c r="C55" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" t="s">
         <v>425</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="193" t="s">
         <v>426</v>
-      </c>
-      <c r="C56" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>424</v>
+      </c>
+      <c r="B57" t="s">
         <v>425</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" s="193" t="s">
         <v>426</v>
-      </c>
-      <c r="C57" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,10 +6972,10 @@
         <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6986,10 +6986,10 @@
         <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7000,10 +7000,10 @@
         <v>390</v>
       </c>
       <c r="C60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,10 +7014,10 @@
         <v>390</v>
       </c>
       <c r="C61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D61" s="180" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,10 +7028,10 @@
         <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D62" s="180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,10 +7042,10 @@
         <v>390</v>
       </c>
       <c r="C63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D63" s="180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -7056,10 +7056,10 @@
         <v>390</v>
       </c>
       <c r="C64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -7070,10 +7070,10 @@
         <v>390</v>
       </c>
       <c r="C65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7084,10 +7084,10 @@
         <v>390</v>
       </c>
       <c r="C66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -7098,10 +7098,10 @@
         <v>390</v>
       </c>
       <c r="C67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -7112,10 +7112,10 @@
         <v>390</v>
       </c>
       <c r="C68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -7126,10 +7126,10 @@
         <v>390</v>
       </c>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -7140,10 +7140,10 @@
         <v>390</v>
       </c>
       <c r="C70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -7154,10 +7154,10 @@
         <v>390</v>
       </c>
       <c r="C71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7235,8 +7235,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7775,12 +7775,12 @@
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
       <c r="B28" s="209" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7880,7 +7880,7 @@
         <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D38" s="180" t="s">
         <v>375</v>
@@ -7894,7 +7894,7 @@
         <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D39" s="193" t="s">
         <v>339</v>
@@ -7908,7 +7908,7 @@
         <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D40" s="180" t="s">
         <v>340</v>
@@ -7922,7 +7922,7 @@
         <v>344</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D41" s="180" t="s">
         <v>362</v>
@@ -7936,7 +7936,7 @@
         <v>345</v>
       </c>
       <c r="C42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D42" s="183" t="s">
         <v>341</v>
@@ -7950,7 +7950,7 @@
         <v>318</v>
       </c>
       <c r="C43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D43" s="193" t="s">
         <v>377</v>
@@ -7964,7 +7964,7 @@
         <v>379</v>
       </c>
       <c r="C44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D44" s="193" t="s">
         <v>380</v>
@@ -7978,10 +7978,10 @@
         <v>379</v>
       </c>
       <c r="C45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D45" s="193" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>379</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D46" s="193" t="s">
         <v>381</v>
@@ -8006,7 +8006,7 @@
         <v>379</v>
       </c>
       <c r="C47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D47" s="193" t="s">
         <v>382</v>
@@ -8017,13 +8017,13 @@
         <v>338</v>
       </c>
       <c r="B48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48" t="s">
+        <v>468</v>
+      </c>
+      <c r="D48" s="183" t="s">
         <v>470</v>
-      </c>
-      <c r="C48" t="s">
-        <v>469</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -8107,23 +8107,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
@@ -8131,26 +8131,26 @@
       <c r="A2" s="202" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293" t="s">
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="288" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
@@ -8158,21 +8158,21 @@
       <c r="A3" s="201" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="290" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="201" t="s">
         <v>304</v>
       </c>
@@ -8188,25 +8188,25 @@
       <c r="A4" s="204">
         <v>8</v>
       </c>
-      <c r="B4" s="286" t="s">
+      <c r="B4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286" t="s">
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286" t="s">
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
@@ -8219,21 +8219,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="191"/>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="200"/>
       <c r="N5" s="200" t="s">
         <v>391</v>
@@ -8244,23 +8244,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="191"/>
-      <c r="B6" s="287" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200" t="s">
         <v>392</v>
@@ -8271,57 +8271,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="191"/>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
-      <c r="J7" s="287"/>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="191"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="287" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="287"/>
-      <c r="J8" s="287"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="287"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="292" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="291"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8493,7 +8493,7 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D23" s="180" t="s">
         <v>375</v>
@@ -8507,7 +8507,7 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D24" s="193" t="s">
         <v>339</v>
@@ -8521,7 +8521,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>340</v>
@@ -8535,7 +8535,7 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D26" s="180" t="s">
         <v>362</v>
@@ -8549,7 +8549,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>341</v>
@@ -8563,10 +8563,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D28" s="193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8577,10 +8577,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D29" s="193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8591,10 +8591,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" s="193" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8605,7 +8605,7 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D31" s="193" t="s">
         <v>348</v>
@@ -8619,10 +8619,10 @@
         <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D32" s="193" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,10 +8633,10 @@
         <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D33" s="193" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8647,10 +8647,10 @@
         <v>384</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,10 +8661,10 @@
         <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,10 +8675,10 @@
         <v>390</v>
       </c>
       <c r="C36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8689,10 +8689,10 @@
         <v>390</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,10 +8703,10 @@
         <v>390</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8717,10 +8717,10 @@
         <v>390</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,10 +8731,10 @@
         <v>390</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8745,10 +8745,10 @@
         <v>390</v>
       </c>
       <c r="C41" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" s="180" t="s">
         <v>455</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8759,10 +8759,10 @@
         <v>390</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,10 +8773,10 @@
         <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8787,10 +8787,10 @@
         <v>390</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8801,10 +8801,10 @@
         <v>390</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,10 +8815,10 @@
         <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,10 +8829,10 @@
         <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,10 +8843,10 @@
         <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,10 +8857,10 @@
         <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,10 +8871,10 @@
         <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,10 +8885,10 @@
         <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,10 +8899,10 @@
         <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D52" s="193" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8913,20 +8913,23 @@
         <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8943,15 +8946,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9017,8 +9017,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9043,68 +9043,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="287" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="288" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
-      <c r="P2" s="288"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="290" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="201" t="s">
         <v>303</v>
       </c>
@@ -9120,24 +9120,24 @@
       <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="286"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286" t="s">
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>254</v>
       </c>
@@ -9152,12 +9152,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="295" t="s">
         <v>4</v>
       </c>
@@ -9169,21 +9169,23 @@
       <c r="M5" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="200"/>
+      <c r="N5" s="200" t="s">
+        <v>499</v>
+      </c>
       <c r="O5" s="200" t="s">
         <v>395</v>
       </c>
       <c r="P5" s="200" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="295"/>
       <c r="H6" s="295"/>
       <c r="I6" s="295"/>
@@ -9196,12 +9198,12 @@
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="287"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="295"/>
       <c r="H7" s="295"/>
       <c r="I7" s="295"/>
@@ -9214,12 +9216,12 @@
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="295"/>
       <c r="H8" s="295"/>
       <c r="I8" s="295"/>
@@ -9233,17 +9235,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="292" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="291"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9414,7 +9416,7 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="180" t="s">
         <v>375</v>
@@ -9428,7 +9430,7 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D24" s="193" t="s">
         <v>339</v>
@@ -9442,7 +9444,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>340</v>
@@ -9456,7 +9458,7 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" s="180" t="s">
         <v>362</v>
@@ -9470,7 +9472,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>341</v>
@@ -9484,10 +9486,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D28" s="193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9498,10 +9500,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D29" s="193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9512,10 +9514,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D30" s="193" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9526,7 +9528,7 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D31" s="193" t="s">
         <v>350</v>
@@ -9540,7 +9542,7 @@
         <v>346</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D32" s="193" t="s">
         <v>351</v>
@@ -9554,10 +9556,10 @@
         <v>384</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9568,7 +9570,7 @@
         <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D34" s="193" t="s">
         <v>354</v>
@@ -9576,6 +9578,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9592,16 +9604,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9667,7 +9669,7 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9772,10 +9774,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="214" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>496</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>497</v>
       </c>
       <c r="C7" s="215">
         <v>0</v>
@@ -9786,10 +9788,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="214" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>498</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>499</v>
       </c>
       <c r="C8" s="215">
         <v>0</v>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="498">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1743,30 +1743,6 @@
     <t xml:space="preserve">Note: Always leave an empty row between Comparisons/ Comparison Group(s) and preferences below. </t>
   </si>
   <si>
-    <t>End Row Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Required: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Input the bottom row number for "Comparison Group(s)" and "Comparisons"</t>
-    </r>
-  </si>
-  <si>
     <t>A skip is also green.</t>
   </si>
   <si>
@@ -2462,7 +2438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2702,14 +2678,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3384,7 +3352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3910,13 +3878,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3941,14 +3906,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3978,10 +3937,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4026,89 +4063,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4188,31 +4147,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4268,6 +4227,42 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5120,86 +5115,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="241"/>
+      <c r="A1" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="241" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="235"/>
+      <c r="B5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="241" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="219"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="242"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5210,62 +5205,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="244" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="247" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="249" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="227"/>
+      <c r="D12" s="250"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="228"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="244" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="E15" s="221" t="s">
+      <c r="B15" s="246"/>
+      <c r="E15" s="244" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="223"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="239" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="240"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="234" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5275,18 +5270,18 @@
         <v>281</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="251" t="s">
+      <c r="E17" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="252"/>
-      <c r="G17" s="213" t="s">
+      <c r="F17" s="238"/>
+      <c r="G17" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="213" t="s">
+      <c r="H17" s="210" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="195" t="s">
-        <v>363</v>
+      <c r="I17" s="194" t="s">
+        <v>361</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5308,8 +5303,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="236" t="s">
-        <v>493</v>
+      <c r="I18" s="213" t="s">
+        <v>491</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5331,7 +5326,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="236"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,7 +5343,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="237"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,32 +5365,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="216" t="s">
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
       <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="256" t="s">
+      <c r="E24" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="213" t="s">
+      <c r="F24" s="222"/>
+      <c r="G24" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="213" t="s">
+      <c r="H24" s="210" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="195" t="s">
-        <v>364</v>
+      <c r="I24" s="194" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,8 +5411,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="253" t="s">
-        <v>494</v>
+      <c r="I25" s="218" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5440,7 +5435,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="254"/>
+      <c r="I26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5456,7 +5451,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="255"/>
+      <c r="I27" s="220"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5480,34 +5475,34 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="216" t="s">
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="258" t="s">
-        <v>471</v>
-      </c>
-      <c r="F31" s="259"/>
-      <c r="G31" s="211" t="s">
+      <c r="E31" s="223" t="s">
+        <v>469</v>
+      </c>
+      <c r="F31" s="224"/>
+      <c r="G31" s="208" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="211" t="s">
+      <c r="H31" s="208" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="195" t="s">
-        <v>365</v>
+      <c r="I31" s="194" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
       <c r="B32" s="217"/>
@@ -5520,7 +5515,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="236"/>
+      <c r="I32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5540,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="236"/>
+      <c r="I33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5555,7 +5550,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="236"/>
+      <c r="I34" s="213"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5568,7 +5563,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="236"/>
+      <c r="I35" s="213"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5581,7 +5576,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="236"/>
+      <c r="I36" s="213"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5594,7 +5589,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="237"/>
+      <c r="I37" s="214"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5607,25 +5602,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
       <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="195" t="s">
-        <v>366</v>
+      <c r="I41" s="194" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5635,7 +5630,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="236"/>
+      <c r="I42" s="213"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5644,7 +5639,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="236"/>
+      <c r="I43" s="213"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5653,7 +5648,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="236"/>
+      <c r="I44" s="213"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5662,7 +5657,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="236"/>
+      <c r="I45" s="213"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5671,7 +5666,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="236"/>
+      <c r="I46" s="213"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5680,25 +5675,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="237"/>
+      <c r="I47" s="214"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5714,6 +5695,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5753,32 +5748,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="264"/>
+      <c r="A1" s="259" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="262" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5792,13 +5787,13 @@
       <c r="B3" s="181" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="270"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="181" t="s">
         <v>323</v>
       </c>
@@ -5842,8 +5837,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="199" t="s">
-        <v>414</v>
+      <c r="J4" s="198" t="s">
+        <v>412</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5853,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -5877,8 +5872,8 @@
         <v>203</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="212" t="s">
-        <v>472</v>
+      <c r="K5" s="209" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5911,8 +5906,8 @@
         <v>204</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="212" t="s">
-        <v>473</v>
+      <c r="K6" s="209" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5941,8 +5936,8 @@
         <v>205</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="212" t="s">
-        <v>474</v>
+      <c r="K7" s="209" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5975,8 +5970,8 @@
         <v>206</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="212" t="s">
-        <v>475</v>
+      <c r="K8" s="209" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6007,8 +6002,8 @@
         <v>207</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="212" t="s">
-        <v>476</v>
+      <c r="K9" s="209" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6037,8 +6032,8 @@
         <v>208</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="212" t="s">
-        <v>477</v>
+      <c r="K10" s="209" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6067,8 +6062,8 @@
         <v>209</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="212" t="s">
-        <v>478</v>
+      <c r="K11" s="209" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6097,8 +6092,8 @@
         <v>210</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="212" t="s">
-        <v>479</v>
+      <c r="K12" s="209" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6127,8 +6122,8 @@
         <v>211</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="212" t="s">
-        <v>480</v>
+      <c r="K13" s="209" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6159,8 +6154,8 @@
         <v>212</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="212" t="s">
-        <v>481</v>
+      <c r="K14" s="209" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6193,8 +6188,8 @@
         <v>213</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="212" t="s">
-        <v>482</v>
+      <c r="K15" s="209" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6223,8 +6218,8 @@
         <v>214</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="212" t="s">
-        <v>483</v>
+      <c r="K16" s="209" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6257,8 +6252,8 @@
         <v>215</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="212" t="s">
-        <v>484</v>
+      <c r="K17" s="209" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6291,8 +6286,8 @@
         <v>216</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="212" t="s">
-        <v>485</v>
+      <c r="K18" s="209" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6315,8 +6310,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="212" t="s">
-        <v>486</v>
+      <c r="K19" s="209" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6339,8 +6334,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="212" t="s">
-        <v>487</v>
+      <c r="K20" s="209" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6363,8 +6358,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="212" t="s">
-        <v>488</v>
+      <c r="K21" s="209" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6387,8 +6382,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="212" t="s">
-        <v>489</v>
+      <c r="K22" s="209" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6411,8 +6406,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="212" t="s">
-        <v>490</v>
+      <c r="K23" s="209" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6435,8 +6430,8 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="212" t="s">
-        <v>491</v>
+      <c r="K24" s="209" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6459,65 +6454,65 @@
       <c r="J25" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="212" t="s">
-        <v>492</v>
+      <c r="K25" s="209" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="277" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
-      <c r="E27" s="281"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
-      <c r="Q27" s="282"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="279"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="195" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="193" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="193" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="194" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="194" t="s">
+      <c r="E28" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="194" t="s">
-        <v>388</v>
-      </c>
-      <c r="G28" s="194" t="s">
-        <v>441</v>
-      </c>
-      <c r="H28" s="198" t="s">
+      <c r="F28" s="193" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="193" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" s="197" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="198" t="s">
-        <v>441</v>
-      </c>
-      <c r="J28" s="198" t="s">
-        <v>453</v>
-      </c>
-      <c r="K28" s="198" t="s">
-        <v>441</v>
+      <c r="I28" s="197" t="s">
+        <v>439</v>
+      </c>
+      <c r="J28" s="197" t="s">
+        <v>451</v>
+      </c>
+      <c r="K28" s="197" t="s">
+        <v>439</v>
       </c>
       <c r="L28" s="123" t="s">
         <v>273</v>
@@ -6528,13 +6523,13 @@
       <c r="N28" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="194" t="s">
+      <c r="O28" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="194" t="s">
+      <c r="P28" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="Q28" s="197" t="s">
+      <c r="Q28" s="196" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6547,7 +6542,7 @@
         <v>253</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>254</v>
@@ -6556,19 +6551,19 @@
         <v>154</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I29" s="96" t="s">
+        <v>443</v>
+      </c>
+      <c r="J29" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="J29" s="96" t="s">
-        <v>447</v>
-      </c>
       <c r="K29" s="96" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>94</v>
@@ -6591,25 +6586,25 @@
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="208" t="s">
-        <v>444</v>
+      <c r="B30" s="205" t="s">
+        <v>442</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6630,70 +6625,70 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="275"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="276"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="268"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="270"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
-      <c r="H35" s="273"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="270"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="274"/>
-      <c r="B36" s="275"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="276"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="273"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6705,12 +6700,12 @@
       <c r="C39" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="260" t="s">
+      <c r="D39" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="260"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="257"/>
+      <c r="G39" s="257"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6720,10 +6715,10 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6734,9 +6729,9 @@
         <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
-      </c>
-      <c r="D41" s="193" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" s="192" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6748,7 +6743,7 @@
         <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D42" s="180" t="s">
         <v>340</v>
@@ -6762,10 +6757,10 @@
         <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,7 +6771,7 @@
         <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>341</v>
@@ -6784,380 +6779,380 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s">
         <v>318</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>416</v>
+        <v>449</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s">
         <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>451</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>396</v>
+        <v>449</v>
+      </c>
+      <c r="D46" s="192" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
         <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>417</v>
+        <v>449</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s">
         <v>318</v>
       </c>
       <c r="C48" t="s">
-        <v>451</v>
-      </c>
-      <c r="D48" s="193" t="s">
-        <v>419</v>
+        <v>449</v>
+      </c>
+      <c r="D48" s="192" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s">
         <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
-      </c>
-      <c r="D49" s="193" t="s">
-        <v>418</v>
+        <v>449</v>
+      </c>
+      <c r="D49" s="192" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
         <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>451</v>
-      </c>
-      <c r="D50" s="193" t="s">
-        <v>420</v>
+        <v>449</v>
+      </c>
+      <c r="D50" s="192" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" s="192" t="s">
         <v>421</v>
-      </c>
-      <c r="B51" t="s">
-        <v>422</v>
-      </c>
-      <c r="C51" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>448</v>
+      </c>
+      <c r="B52" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" s="180" t="s">
         <v>450</v>
-      </c>
-      <c r="B52" t="s">
-        <v>384</v>
-      </c>
-      <c r="C52" t="s">
-        <v>451</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" s="192" t="s">
         <v>424</v>
-      </c>
-      <c r="B53" t="s">
-        <v>425</v>
-      </c>
-      <c r="C53" t="s">
-        <v>451</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>422</v>
+      </c>
+      <c r="B54" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="192" t="s">
         <v>424</v>
-      </c>
-      <c r="B54" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" t="s">
-        <v>451</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" s="192" t="s">
         <v>424</v>
-      </c>
-      <c r="B55" t="s">
-        <v>425</v>
-      </c>
-      <c r="C55" t="s">
-        <v>451</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" t="s">
+        <v>449</v>
+      </c>
+      <c r="D56" s="192" t="s">
         <v>424</v>
-      </c>
-      <c r="B56" t="s">
-        <v>425</v>
-      </c>
-      <c r="C56" t="s">
-        <v>451</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" s="192" t="s">
         <v>424</v>
-      </c>
-      <c r="B57" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D61" s="180" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D62" s="180" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D63" s="180" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +7230,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7255,32 +7250,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
+      <c r="A1" s="280" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="282"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="279"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
@@ -7351,7 +7346,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="210" t="s">
+      <c r="G5" s="207" t="s">
         <v>310</v>
       </c>
       <c r="H5" s="169"/>
@@ -7359,18 +7354,18 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="282"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -7421,18 +7416,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="282"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7643,18 +7638,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="282"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
@@ -7717,25 +7712,25 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="280" t="s">
+      <c r="A25" s="277" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="282"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="198" t="s">
-        <v>373</v>
+      <c r="B26" s="197" t="s">
+        <v>371</v>
       </c>
       <c r="C26" s="132" t="s">
         <v>335</v>
@@ -7743,8 +7738,8 @@
       <c r="D26" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="194" t="s">
-        <v>373</v>
+      <c r="E26" s="193" t="s">
+        <v>371</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7764,7 +7759,7 @@
         <v>154</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7774,13 +7769,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="209" t="s">
-        <v>465</v>
+      <c r="B28" s="206" t="s">
+        <v>463</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7790,70 +7785,70 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="279"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="273"/>
+      <c r="A31" s="268" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" s="269"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="270"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="273"/>
+      <c r="A32" s="268"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="270"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="274"/>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="275"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="261"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -7865,12 +7860,12 @@
       <c r="C37" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="260" t="s">
+      <c r="D37" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7880,10 +7875,10 @@
         <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7894,9 +7889,9 @@
         <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>468</v>
-      </c>
-      <c r="D39" s="193" t="s">
+        <v>466</v>
+      </c>
+      <c r="D39" s="192" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7908,7 +7903,7 @@
         <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D40" s="180" t="s">
         <v>340</v>
@@ -7922,10 +7917,10 @@
         <v>344</v>
       </c>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7936,7 +7931,7 @@
         <v>345</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D42" s="183" t="s">
         <v>341</v>
@@ -7944,72 +7939,72 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
         <v>318</v>
       </c>
       <c r="C43" t="s">
-        <v>468</v>
-      </c>
-      <c r="D43" s="193" t="s">
-        <v>377</v>
+        <v>466</v>
+      </c>
+      <c r="D43" s="192" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="192" t="s">
         <v>378</v>
-      </c>
-      <c r="B44" t="s">
-        <v>379</v>
-      </c>
-      <c r="C44" t="s">
-        <v>468</v>
-      </c>
-      <c r="D44" s="193" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>468</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
+      <c r="D46" s="192" t="s">
         <v>379</v>
-      </c>
-      <c r="C46" t="s">
-        <v>468</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>468</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>382</v>
+        <v>466</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -8017,13 +8012,13 @@
         <v>338</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C48" t="s">
+        <v>466</v>
+      </c>
+      <c r="D48" s="183" t="s">
         <v>468</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -8081,8 +8076,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8107,221 +8102,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="288" t="s">
+      <c r="A2" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="290" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="312" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="291" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="201" t="s">
-        <v>373</v>
-      </c>
-      <c r="O3" s="203" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="206"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
-        <v>8</v>
-      </c>
-      <c r="B4" s="289" t="s">
+      <c r="N3" s="200" t="s">
+        <v>371</v>
+      </c>
+      <c r="O3" s="201" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="203"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="315" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="318"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200" t="s">
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199" t="s">
+        <v>389</v>
+      </c>
+      <c r="O5" s="204" t="s">
         <v>391</v>
       </c>
-      <c r="O5" s="207" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200" t="s">
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199" t="s">
+        <v>390</v>
+      </c>
+      <c r="O6" s="204" t="s">
         <v>392</v>
       </c>
-      <c r="O6" s="207" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="B7" s="319"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="284" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8330,8 +8319,8 @@
       <c r="B11" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>373</v>
+      <c r="C11" s="193" t="s">
+        <v>371</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>273</v>
@@ -8351,8 +8340,8 @@
       <c r="I11" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
@@ -8360,7 +8349,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -8404,69 +8393,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8478,12 +8467,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8493,10 +8482,10 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8507,9 +8496,9 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8521,7 +8510,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>340</v>
@@ -8535,10 +8524,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8549,7 +8538,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>341</v>
@@ -8563,10 +8552,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>397</v>
+        <v>452</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8577,10 +8566,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>396</v>
+        <v>452</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8591,10 +8580,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>398</v>
+        <v>452</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8605,9 +8594,9 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8619,10 +8608,10 @@
         <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>399</v>
+        <v>452</v>
+      </c>
+      <c r="D32" s="192" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,262 +8622,262 @@
         <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>400</v>
+        <v>452</v>
+      </c>
+      <c r="D33" s="192" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="180" t="s">
         <v>454</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,28 +8888,46 @@
         <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>454</v>
-      </c>
-      <c r="D52" s="193" t="s">
-        <v>400</v>
+        <v>452</v>
+      </c>
+      <c r="D52" s="192" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
@@ -8929,29 +8936,11 @@
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9043,101 +9032,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="200" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="201" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="201" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q3" s="205"/>
+      <c r="O3" s="200" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="200" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q3" s="202"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>254</v>
       </c>
@@ -9145,107 +9134,107 @@
         <v>154</v>
       </c>
       <c r="O4" s="166" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="295" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="200" t="s">
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="199" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="200" t="s">
-        <v>499</v>
-      </c>
-      <c r="O5" s="200" t="s">
-        <v>395</v>
-      </c>
-      <c r="P5" s="200" t="s">
-        <v>465</v>
+      <c r="N5" s="199" t="s">
+        <v>497</v>
+      </c>
+      <c r="O5" s="199" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="199" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="295"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
       <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9254,8 +9243,8 @@
       <c r="B11" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>373</v>
+      <c r="C11" s="193" t="s">
+        <v>371</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>273</v>
@@ -9282,7 +9271,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -9327,69 +9316,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9401,12 +9390,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9416,10 +9405,10 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9430,9 +9419,9 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9444,7 +9433,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>340</v>
@@ -9458,10 +9447,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9472,7 +9461,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>341</v>
@@ -9486,10 +9475,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>410</v>
+        <v>462</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9500,10 +9489,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>464</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>396</v>
+        <v>462</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9514,10 +9503,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>411</v>
+        <v>462</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9528,9 +9517,9 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>464</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9542,24 +9531,24 @@
         <v>346</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
-      </c>
-      <c r="D32" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D32" s="192" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9570,24 +9559,14 @@
         <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
-      </c>
-      <c r="D34" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D34" s="192" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9604,6 +9583,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9685,12 +9674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="298"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="295"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9773,13 +9762,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>495</v>
+      <c r="A7" s="211" t="s">
+        <v>493</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C7" s="215">
+        <v>494</v>
+      </c>
+      <c r="C7" s="212">
         <v>0</v>
       </c>
       <c r="D7" s="24">
@@ -9787,13 +9776,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
-        <v>497</v>
+      <c r="A8" s="211" t="s">
+        <v>495</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="215">
+        <v>496</v>
+      </c>
+      <c r="C8" s="212">
         <v>0</v>
       </c>
       <c r="D8" s="24">
@@ -10455,23 +10444,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="299" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10489,17 +10478,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10690,21 +10679,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="301"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="297"/>
+      <c r="J19" s="297"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10906,27 +10895,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="304" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="308"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10940,26 +10929,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
-      <c r="L3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
+      <c r="L3" s="301" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="305"/>
-      <c r="P3" s="305"/>
-      <c r="Q3" s="305"/>
-      <c r="R3" s="306"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11190,23 +11179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="306" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="308"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11219,22 +11208,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="301"/>
-      <c r="J3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="298"/>
+      <c r="J3" s="301" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="306"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="303"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -3937,20 +3937,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3973,102 +4069,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4147,12 +4147,30 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4165,14 +4183,32 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4227,42 +4263,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5115,86 +5115,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="236" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="227"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="238"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="215" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="242"/>
+      <c r="B3" s="216"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="230"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="232"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="215" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="242"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="216"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="239" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="241"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="244"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5205,62 +5205,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
+      <c r="A11" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="246"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="250"/>
+      <c r="D12" s="224"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
+      <c r="A13" s="225"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="244" t="s">
+      <c r="A15" s="218" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="246"/>
-      <c r="E15" s="244" t="s">
+      <c r="B15" s="220"/>
+      <c r="E15" s="218" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="246"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="240"/>
+      <c r="B16" s="230"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="234" t="s">
+      <c r="E16" s="245" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="236"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="247"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5270,10 +5270,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="237" t="s">
+      <c r="E17" s="248" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="238"/>
+      <c r="F17" s="249"/>
       <c r="G17" s="210" t="s">
         <v>159</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="213" t="s">
+      <c r="I18" s="233" t="s">
         <v>491</v>
       </c>
       <c r="J18" s="81"/>
@@ -5326,7 +5326,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="213"/>
+      <c r="I19" s="233"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="214"/>
+      <c r="I20" s="234"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5365,24 +5365,24 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="222"/>
+      <c r="F24" s="254"/>
       <c r="G24" s="210" t="s">
         <v>159</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="218" t="s">
+      <c r="I25" s="250" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="219"/>
+      <c r="I26" s="251"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="220"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5475,22 +5475,22 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="214"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="223" t="s">
+      <c r="E31" s="255" t="s">
         <v>469</v>
       </c>
-      <c r="F31" s="224"/>
+      <c r="F31" s="256"/>
       <c r="G31" s="208" t="s">
         <v>159</v>
       </c>
@@ -5502,10 +5502,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="213" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="213"/>
+      <c r="I32" s="233"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5535,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="213"/>
+      <c r="I33" s="233"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5550,7 +5550,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="213"/>
+      <c r="I34" s="233"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5563,7 +5563,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="213"/>
+      <c r="I35" s="233"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5576,7 +5576,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="213"/>
+      <c r="I36" s="233"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5589,7 +5589,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="214"/>
+      <c r="I37" s="234"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5602,17 +5602,17 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="217"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="214"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="221"/>
-      <c r="F41" s="222"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="254"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="213"/>
+      <c r="I42" s="233"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5639,7 +5639,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="213"/>
+      <c r="I43" s="233"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5648,7 +5648,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="213"/>
+      <c r="I44" s="233"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5657,7 +5657,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="213"/>
+      <c r="I45" s="233"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5666,7 +5666,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="213"/>
+      <c r="I46" s="233"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5675,11 +5675,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="214"/>
+      <c r="I47" s="234"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5695,20 +5709,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8076,7 +8076,7 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -8102,68 +8102,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="295" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="290" t="s">
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="298" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="291" t="s">
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="290" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="200" t="s">
         <v>304</v>
       </c>
@@ -8176,26 +8176,26 @@
       <c r="P3" s="203"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="283" t="s">
+      <c r="B4" s="302"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283" t="s">
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
@@ -8207,22 +8207,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
       <c r="M5" s="199"/>
       <c r="N5" s="199" t="s">
         <v>389</v>
@@ -8232,24 +8232,24 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="320"/>
-      <c r="D6" s="284" t="s">
+      <c r="B6" s="285"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="283" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
       <c r="M6" s="199"/>
       <c r="N6" s="199" t="s">
         <v>390</v>
@@ -8259,58 +8259,58 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="320"/>
-      <c r="D7" s="284" t="s">
+      <c r="B7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="283" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="283"/>
+      <c r="L7" s="283"/>
       <c r="M7" s="199"/>
       <c r="N7" s="199"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="284" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="283" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
       <c r="M8" s="199"/>
       <c r="N8" s="199"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="292" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8910,13 +8910,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -8929,18 +8934,13 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9032,68 +9032,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
-      <c r="P1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="290" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="200" t="s">
         <v>303</v>
       </c>
@@ -9109,24 +9109,24 @@
       <c r="Q3" s="202"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>254</v>
       </c>
@@ -9141,20 +9141,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="292" t="s">
+      <c r="A5" s="283"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
       <c r="M5" s="199" t="s">
         <v>294</v>
       </c>
@@ -9169,54 +9169,54 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="304"/>
+      <c r="L6" s="304"/>
       <c r="M6" s="199"/>
       <c r="N6" s="199"/>
       <c r="O6" s="199"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
+      <c r="J7" s="304"/>
+      <c r="K7" s="304"/>
+      <c r="L7" s="304"/>
       <c r="M7" s="199"/>
       <c r="N7" s="199"/>
       <c r="O7" s="199"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="304"/>
       <c r="M8" s="199"/>
       <c r="N8" s="199"/>
       <c r="O8" s="199"/>
@@ -9224,17 +9224,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="292" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9567,6 +9567,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9583,16 +9593,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9658,8 +9658,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9674,12 +9674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="295"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9754,9 +9754,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="187">
-        <v>1</v>
-      </c>
+      <c r="C6" s="187"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -10444,23 +10442,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="311" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10478,17 +10476,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="310"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10679,21 +10677,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="297"/>
-      <c r="K19" s="297"/>
-      <c r="L19" s="297"/>
-      <c r="M19" s="297"/>
-      <c r="N19" s="298"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="309"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="310"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10895,27 +10893,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="316" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="317"/>
+      <c r="P1" s="317"/>
+      <c r="Q1" s="317"/>
+      <c r="R1" s="317"/>
+      <c r="S1" s="317"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10929,26 +10927,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
-      <c r="L3" s="301" t="s">
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="310"/>
+      <c r="L3" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="303"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="315"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11179,23 +11177,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="318" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="308"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11208,22 +11206,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="J3" s="301" t="s">
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="310"/>
+      <c r="J3" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="315"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="498">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -773,12 +773,6 @@
   </si>
   <si>
     <t>Preferences for Transfer Curve Analysis</t>
-  </si>
-  <si>
-    <t>Sample Column Name</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comparisons</t>
@@ -889,9 +883,6 @@
   </si>
   <si>
     <t>Shortened Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t>Optional</t>
@@ -1099,9 +1090,6 @@
   </si>
   <si>
     <t>Preferences potentially unique to each transfer curve analysis</t>
-  </si>
-  <si>
-    <t>Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons.</t>
   </si>
   <si>
     <t>Preferences potentially unique to each plusminus analysis</t>
@@ -1151,30 +1139,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. Each group corresponds to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2433,35 +2397,90 @@
   <si>
     <t>/tmp/</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Column Name=Value</t>
+  </si>
+  <si>
+    <t>DOSE=Low</t>
+  </si>
+  <si>
+    <t>DOSE = High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. Each group corresponds to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3352,25 +3371,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3386,7 +3405,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3397,28 +3416,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3439,62 +3458,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3505,54 +3524,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3570,19 +3589,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3591,46 +3610,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3648,83 +3667,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3739,37 +3758,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3778,53 +3797,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3839,20 +3846,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3875,45 +3882,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3923,11 +3918,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3937,10 +3932,91 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3961,145 +4037,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4120,149 +4118,171 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5115,86 +5135,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="236" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="238"/>
+      <c r="A1" s="218" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="220"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="215" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="216"/>
+      <c r="A3" s="234" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="235"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="248" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="232"/>
+      <c r="B5" s="249"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="217"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="216"/>
+      <c r="A7" s="234" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="235"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="221" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="241"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="244"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="225"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="226"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5205,89 +5225,89 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="220"/>
+      <c r="A11" s="237" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="239"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="240" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223" t="s">
+      <c r="B12" s="241"/>
+      <c r="C12" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="224"/>
+      <c r="D12" s="243"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="247"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="218" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="220"/>
-      <c r="E15" s="218" t="s">
-        <v>320</v>
-      </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="220"/>
+      <c r="A15" s="237" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="239"/>
+      <c r="E15" s="237" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="239"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="229" t="s">
+      <c r="A16" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="230"/>
+      <c r="B16" s="233"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="245" t="s">
+      <c r="E16" s="227" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="247"/>
+      <c r="F16" s="228"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="229"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="248" t="s">
+      <c r="E17" s="230" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="249"/>
-      <c r="G17" s="210" t="s">
+      <c r="F17" s="231"/>
+      <c r="G17" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="210" t="s">
+      <c r="H17" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="194" t="s">
-        <v>361</v>
+      <c r="I17" s="190" t="s">
+        <v>356</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="90" t="s">
         <v>238</v>
@@ -5303,14 +5323,14 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="233" t="s">
-        <v>491</v>
+      <c r="I18" s="206" t="s">
+        <v>486</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="89"/>
@@ -5326,12 +5346,12 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="233"/>
+      <c r="I19" s="206"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="91"/>
@@ -5343,12 +5363,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="234"/>
+      <c r="I20" s="207"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21" s="116"/>
       <c r="C21" s="32"/>
@@ -5365,32 +5385,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="214"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="208" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="214"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="253" t="s">
+      <c r="E24" s="214" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="254"/>
-      <c r="G24" s="210" t="s">
+      <c r="F24" s="215"/>
+      <c r="G24" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="210" t="s">
+      <c r="H24" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="194" t="s">
-        <v>362</v>
+      <c r="I24" s="190" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5398,7 +5418,7 @@
         <v>237</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="83">
@@ -5411,13 +5431,13 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="250" t="s">
-        <v>492</v>
+      <c r="I25" s="211" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" s="90" t="s">
         <v>238</v>
@@ -5435,11 +5455,11 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="251"/>
+      <c r="I26" s="212"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="91"/>
@@ -5451,11 +5471,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="252"/>
+      <c r="I27" s="213"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="32"/>
@@ -5475,37 +5495,37 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="213" t="s">
+      <c r="E30" s="208" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="214"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="210"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="255" t="s">
-        <v>469</v>
-      </c>
-      <c r="F31" s="256"/>
-      <c r="G31" s="208" t="s">
+      <c r="E31" s="216" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31" s="217"/>
+      <c r="G31" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="208" t="s">
+      <c r="H31" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="194" t="s">
-        <v>363</v>
+      <c r="I31" s="190" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="208" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="214"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5515,14 +5535,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="233"/>
+      <c r="I32" s="206"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C33" s="89"/>
       <c r="E33" s="83">
@@ -5535,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="233"/>
+      <c r="I33" s="206"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5550,7 +5570,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="233"/>
+      <c r="I34" s="206"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5563,7 +5583,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="233"/>
+      <c r="I35" s="206"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5576,7 +5596,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="233"/>
+      <c r="I36" s="206"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5589,7 +5609,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="234"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5602,25 +5622,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="213" t="s">
+      <c r="E40" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="235"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
-      <c r="I40" s="214"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="210"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="253"/>
-      <c r="F41" s="254"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="215"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="194" t="s">
-        <v>364</v>
+      <c r="I41" s="190" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5630,7 +5650,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="233"/>
+      <c r="I42" s="206"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5639,7 +5659,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="233"/>
+      <c r="I43" s="206"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5648,7 +5668,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="233"/>
+      <c r="I44" s="206"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5657,7 +5677,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="233"/>
+      <c r="I45" s="206"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5666,7 +5686,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="233"/>
+      <c r="I46" s="206"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5675,25 +5695,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="234"/>
+      <c r="I47" s="207"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5709,6 +5715,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5748,32 +5768,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="261"/>
+      <c r="A1" s="252" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="254"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="255" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="264"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5781,27 +5801,27 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="181" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="181" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="181" t="s">
-        <v>324</v>
-      </c>
-      <c r="J3" s="182" t="s">
-        <v>325</v>
+      <c r="A3" s="174" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="258" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="177" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="178" t="s">
+        <v>320</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5820,16 +5840,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H4" s="139" t="s">
         <v>202</v>
@@ -5837,8 +5857,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="198" t="s">
-        <v>412</v>
+      <c r="J4" s="194" t="s">
+        <v>407</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5848,19 +5868,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E5" s="109" t="s">
         <v>224</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" s="109">
         <v>0.1</v>
@@ -5872,8 +5892,8 @@
         <v>203</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="209" t="s">
-        <v>470</v>
+      <c r="K5" s="201" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5888,13 +5908,13 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>225</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G6" s="109">
         <v>0.2</v>
@@ -5906,8 +5926,8 @@
         <v>204</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="209" t="s">
-        <v>471</v>
+      <c r="K6" s="201" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5942,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E7" s="109" t="s">
         <v>226</v>
@@ -5936,8 +5956,8 @@
         <v>205</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="209" t="s">
-        <v>472</v>
+      <c r="K7" s="201" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5952,13 +5972,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E8" s="109" t="s">
         <v>227</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G8" s="109">
         <v>0.1</v>
@@ -5970,8 +5990,8 @@
         <v>206</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="209" t="s">
-        <v>473</v>
+      <c r="K8" s="201" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5986,11 +6006,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" s="109">
         <v>0.2</v>
@@ -6002,8 +6022,8 @@
         <v>207</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="209" t="s">
-        <v>474</v>
+      <c r="K9" s="201" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6018,7 +6038,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="109" t="s">
         <v>224</v>
@@ -6032,8 +6052,8 @@
         <v>208</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="209" t="s">
-        <v>475</v>
+      <c r="K10" s="201" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E11" s="109" t="s">
         <v>225</v>
@@ -6062,8 +6082,8 @@
         <v>209</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="209" t="s">
-        <v>476</v>
+      <c r="K11" s="201" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6078,7 +6098,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E12" s="109" t="s">
         <v>226</v>
@@ -6092,8 +6112,8 @@
         <v>210</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="209" t="s">
-        <v>477</v>
+      <c r="K12" s="201" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6128,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E13" s="109" t="s">
         <v>227</v>
@@ -6122,8 +6142,8 @@
         <v>211</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="209" t="s">
-        <v>478</v>
+      <c r="K13" s="201" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6138,11 +6158,11 @@
         <v>100</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G14" s="109">
         <v>100</v>
@@ -6154,8 +6174,8 @@
         <v>212</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="209" t="s">
-        <v>479</v>
+      <c r="K14" s="201" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6170,13 +6190,13 @@
         <v>200</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E15" s="109" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G15" s="109">
         <v>200</v>
@@ -6188,8 +6208,8 @@
         <v>213</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="209" t="s">
-        <v>480</v>
+      <c r="K15" s="201" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6204,7 +6224,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E16" s="109" t="s">
         <v>225</v>
@@ -6218,8 +6238,8 @@
         <v>214</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="209" t="s">
-        <v>481</v>
+      <c r="K16" s="201" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6234,13 +6254,13 @@
         <v>1000</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E17" s="109" t="s">
         <v>226</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G17" s="109">
         <v>100</v>
@@ -6252,8 +6272,8 @@
         <v>215</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="209" t="s">
-        <v>482</v>
+      <c r="K17" s="201" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6268,13 +6288,13 @@
         <v>2000</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E18" s="109" t="s">
         <v>227</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G18" s="109">
         <v>200</v>
@@ -6286,8 +6306,8 @@
         <v>216</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="209" t="s">
-        <v>483</v>
+      <c r="K18" s="201" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6310,8 +6330,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="209" t="s">
-        <v>484</v>
+      <c r="K19" s="201" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6334,8 +6354,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="209" t="s">
-        <v>485</v>
+      <c r="K20" s="201" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6358,8 +6378,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="209" t="s">
-        <v>486</v>
+      <c r="K21" s="201" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6382,8 +6402,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="209" t="s">
-        <v>487</v>
+      <c r="K22" s="201" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6406,8 +6426,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="209" t="s">
-        <v>488</v>
+      <c r="K23" s="201" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6430,107 +6450,107 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="209" t="s">
-        <v>489</v>
+      <c r="K24" s="201" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172">
+      <c r="A25" s="168">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="173" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="175">
+      <c r="B25" s="169" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171">
         <v>2</v>
       </c>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177" t="s">
+      <c r="I25" s="172"/>
+      <c r="J25" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="209" t="s">
-        <v>490</v>
+      <c r="K25" s="201" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="270" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="278"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="279"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="271"/>
+      <c r="I27" s="271"/>
+      <c r="J27" s="271"/>
+      <c r="K27" s="271"/>
+      <c r="L27" s="271"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="271"/>
+      <c r="O27" s="271"/>
+      <c r="P27" s="271"/>
+      <c r="Q27" s="272"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="195" t="s">
-        <v>369</v>
-      </c>
-      <c r="C28" s="193" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>371</v>
-      </c>
-      <c r="E28" s="193" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="191" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="189" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="189" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="189" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="189" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="189" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="193" t="s">
+        <v>268</v>
+      </c>
+      <c r="I28" s="193" t="s">
+        <v>434</v>
+      </c>
+      <c r="J28" s="193" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="193" t="s">
+        <v>434</v>
+      </c>
+      <c r="L28" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="G28" s="193" t="s">
-        <v>439</v>
-      </c>
-      <c r="H28" s="197" t="s">
+      <c r="M28" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="197" t="s">
-        <v>439</v>
-      </c>
-      <c r="J28" s="197" t="s">
-        <v>451</v>
-      </c>
-      <c r="K28" s="197" t="s">
-        <v>439</v>
-      </c>
-      <c r="L28" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="M28" s="123" t="s">
-        <v>273</v>
-      </c>
       <c r="N28" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="O28" s="193" t="s">
-        <v>279</v>
-      </c>
-      <c r="P28" s="193" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q28" s="196" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="O28" s="189" t="s">
+        <v>276</v>
+      </c>
+      <c r="P28" s="189" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q28" s="192" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6539,31 +6559,31 @@
         <v>20</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E29" s="96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F29" s="96" t="s">
         <v>154</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H29" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="I29" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="J29" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="I29" s="96" t="s">
-        <v>443</v>
-      </c>
-      <c r="J29" s="96" t="s">
-        <v>445</v>
-      </c>
       <c r="K29" s="96" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>94</v>
@@ -6575,36 +6595,36 @@
         <v>96</v>
       </c>
       <c r="O29" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q29" s="118" t="s">
         <v>255</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q29" s="118" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="205" t="s">
-        <v>442</v>
+      <c r="B30" s="197" t="s">
+        <v>437</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6625,534 +6645,534 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="275"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="276"/>
+      <c r="A32" s="267" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="268"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="268"/>
+      <c r="G32" s="268"/>
+      <c r="H32" s="269"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268" t="s">
-        <v>366</v>
-      </c>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="261" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="262"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="263"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269"/>
-      <c r="H34" s="270"/>
+      <c r="A34" s="261"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="262"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="262"/>
+      <c r="H34" s="263"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268"/>
-      <c r="B35" s="269"/>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="269"/>
-      <c r="H35" s="270"/>
+      <c r="A35" s="261"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="262"/>
+      <c r="H35" s="263"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="273"/>
+      <c r="A36" s="264"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="265"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="266"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+      <c r="A38" s="251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="251"/>
+      <c r="C38" s="251"/>
+      <c r="D38" s="251"/>
+      <c r="E38" s="251"/>
+      <c r="F38" s="251"/>
+      <c r="G38" s="251"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D39" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="257"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D39" s="250" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="250"/>
+      <c r="F39" s="250"/>
+      <c r="G39" s="250"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>449</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>373</v>
+        <v>444</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>449</v>
-      </c>
-      <c r="D41" s="192" t="s">
-        <v>339</v>
+        <v>444</v>
+      </c>
+      <c r="D41" s="188" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s">
         <v>338</v>
       </c>
-      <c r="B42" t="s">
-        <v>343</v>
-      </c>
       <c r="C42" t="s">
-        <v>449</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>340</v>
+        <v>444</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>360</v>
+        <v>444</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>341</v>
+        <v>444</v>
+      </c>
+      <c r="D44" s="179" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>414</v>
+        <v>444</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>449</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>394</v>
+        <v>444</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>449</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>415</v>
+        <v>444</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
-        <v>449</v>
-      </c>
-      <c r="D48" s="192" t="s">
-        <v>417</v>
+        <v>444</v>
+      </c>
+      <c r="D48" s="188" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
-      </c>
-      <c r="D49" s="192" t="s">
-        <v>416</v>
+        <v>444</v>
+      </c>
+      <c r="D49" s="188" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="188" t="s">
         <v>413</v>
-      </c>
-      <c r="B50" t="s">
-        <v>346</v>
-      </c>
-      <c r="C50" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" s="192" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="192" t="s">
-        <v>421</v>
+        <v>444</v>
+      </c>
+      <c r="D51" s="188" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>450</v>
+        <v>444</v>
+      </c>
+      <c r="D52" s="176" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" s="192" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D53" s="188" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>449</v>
-      </c>
-      <c r="D54" s="192" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D54" s="188" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
-      </c>
-      <c r="D55" s="192" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D55" s="188" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>449</v>
-      </c>
-      <c r="D56" s="192" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D56" s="188" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C57" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="192" t="s">
-        <v>424</v>
+        <v>444</v>
+      </c>
+      <c r="D57" s="188" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
-      </c>
-      <c r="D58" s="180" t="s">
-        <v>425</v>
+        <v>444</v>
+      </c>
+      <c r="D58" s="176" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>426</v>
+        <v>444</v>
+      </c>
+      <c r="D59" s="176" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
-      </c>
-      <c r="D60" s="180" t="s">
-        <v>427</v>
+        <v>444</v>
+      </c>
+      <c r="D60" s="176" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C61" t="s">
-        <v>449</v>
-      </c>
-      <c r="D61" s="180" t="s">
-        <v>428</v>
+        <v>444</v>
+      </c>
+      <c r="D61" s="176" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C62" t="s">
-        <v>449</v>
-      </c>
-      <c r="D62" s="180" t="s">
-        <v>429</v>
+        <v>444</v>
+      </c>
+      <c r="D62" s="176" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s">
-        <v>449</v>
-      </c>
-      <c r="D63" s="180" t="s">
-        <v>430</v>
+        <v>444</v>
+      </c>
+      <c r="D63" s="176" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="180" t="s">
-        <v>431</v>
+        <v>444</v>
+      </c>
+      <c r="D64" s="176" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s">
-        <v>449</v>
-      </c>
-      <c r="D65" s="180" t="s">
-        <v>432</v>
+        <v>444</v>
+      </c>
+      <c r="D65" s="176" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" s="180" t="s">
-        <v>433</v>
+        <v>444</v>
+      </c>
+      <c r="D66" s="176" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
-      </c>
-      <c r="D67" s="180" t="s">
-        <v>434</v>
+        <v>444</v>
+      </c>
+      <c r="D67" s="176" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
-        <v>449</v>
-      </c>
-      <c r="D68" s="180" t="s">
-        <v>435</v>
+        <v>444</v>
+      </c>
+      <c r="D68" s="176" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C69" t="s">
-        <v>449</v>
-      </c>
-      <c r="D69" s="180" t="s">
-        <v>436</v>
+        <v>444</v>
+      </c>
+      <c r="D69" s="176" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>449</v>
-      </c>
-      <c r="D70" s="180" t="s">
-        <v>437</v>
+        <v>444</v>
+      </c>
+      <c r="D70" s="176" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
-      </c>
-      <c r="D71" s="180" t="s">
-        <v>438</v>
+        <v>444</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7250,57 +7270,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="282"/>
+      <c r="A1" s="273" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="275"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="279"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="272"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" s="170" t="s">
-        <v>308</v>
+        <v>322</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>303</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="130"/>
@@ -7313,10 +7333,10 @@
         <v>97</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="100" t="s">
         <v>17</v>
@@ -7327,8 +7347,8 @@
       <c r="G4" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="171" t="s">
-        <v>309</v>
+      <c r="H4" s="167" t="s">
+        <v>304</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
@@ -7346,33 +7366,33 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="207" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="G5" s="199" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="272"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -7416,41 +7436,41 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="270" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="175" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="179" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>262</v>
-      </c>
       <c r="F11" s="133" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I11" s="128"/>
       <c r="J11" s="130"/>
@@ -7463,19 +7483,19 @@
         <v>15</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="134" t="s">
         <v>263</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="134" t="s">
-        <v>265</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>234</v>
@@ -7494,7 +7514,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4">
         <v>488</v>
@@ -7522,7 +7542,7 @@
         <v>178</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E14" s="4">
         <v>561</v>
@@ -7550,7 +7570,7 @@
         <v>180</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E15" s="4">
         <v>405</v>
@@ -7638,31 +7658,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="271"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="272"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C22" s="132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D22" s="132" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
@@ -7676,10 +7696,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>266</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>234</v>
@@ -7712,34 +7732,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="270" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="271"/>
+      <c r="H25" s="271"/>
+      <c r="I25" s="271"/>
+      <c r="J25" s="272"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="197" t="s">
-        <v>371</v>
+        <v>281</v>
+      </c>
+      <c r="B26" s="193" t="s">
+        <v>366</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D26" s="132" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="193" t="s">
-        <v>371</v>
+        <v>267</v>
+      </c>
+      <c r="E26" s="189" t="s">
+        <v>366</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7753,13 +7773,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="147" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7769,13 +7789,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="206" t="s">
-        <v>463</v>
-      </c>
-      <c r="C28" s="190"/>
+      <c r="B28" s="198" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28" s="186"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7785,240 +7805,240 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
+      <c r="A30" s="267" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="268"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="269"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="268" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="A31" s="261" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="262"/>
+      <c r="C31" s="262"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="262"/>
+      <c r="H31" s="263"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="268"/>
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="270"/>
+      <c r="A32" s="261"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="263"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="261"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="263"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="264"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="265"/>
+      <c r="H34" s="266"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
+      <c r="A36" s="251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="251"/>
+      <c r="C36" s="251"/>
+      <c r="D36" s="251"/>
+      <c r="E36" s="251"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="251"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D37" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37" s="257"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D37" s="250" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="250"/>
+      <c r="F37" s="250"/>
+      <c r="G37" s="250"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>373</v>
+        <v>461</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>466</v>
-      </c>
-      <c r="D39" s="192" t="s">
-        <v>339</v>
+        <v>461</v>
+      </c>
+      <c r="D39" s="188" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" t="s">
         <v>338</v>
       </c>
-      <c r="B40" t="s">
-        <v>343</v>
-      </c>
       <c r="C40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>340</v>
+        <v>461</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>360</v>
+        <v>461</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>466</v>
-      </c>
-      <c r="D42" s="183" t="s">
-        <v>341</v>
+        <v>461</v>
+      </c>
+      <c r="D42" s="179" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
-      </c>
-      <c r="D43" s="192" t="s">
-        <v>375</v>
+        <v>461</v>
+      </c>
+      <c r="D43" s="188" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
-      </c>
-      <c r="D44" s="192" t="s">
-        <v>378</v>
+        <v>461</v>
+      </c>
+      <c r="D44" s="188" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>466</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>466</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>379</v>
+        <v>461</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>380</v>
+        <v>461</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>468</v>
+        <v>461</v>
+      </c>
+      <c r="D48" s="179" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8077,7 +8097,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8102,254 +8122,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="296" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="288" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
-        <v>299</v>
-      </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="A2" s="297" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="300" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="301" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="298" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="290" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="200" t="s">
-        <v>304</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>371</v>
-      </c>
-      <c r="O3" s="201" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="203"/>
+      <c r="A3" s="302" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="305" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="306" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="306" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="306" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="302"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="289" t="s">
+      <c r="A4" s="307" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="310" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
-        <v>307</v>
-      </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="166" t="s">
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="311" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="166" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" s="166" t="s">
+      <c r="N4" s="311" t="s">
+        <v>367</v>
+      </c>
+      <c r="O4" s="311" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199" t="s">
-        <v>389</v>
-      </c>
-      <c r="O5" s="204" t="s">
-        <v>391</v>
+      <c r="A5" s="312"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="315" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316" t="s">
+        <v>384</v>
+      </c>
+      <c r="O5" s="317" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="283" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="283"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="283"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199" t="s">
-        <v>390</v>
-      </c>
-      <c r="O6" s="204" t="s">
-        <v>392</v>
+      <c r="A6" s="312" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="315" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="316"/>
+      <c r="N6" s="316" t="s">
+        <v>385</v>
+      </c>
+      <c r="O6" s="317" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="283" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="164"/>
+      <c r="A7" s="312" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="313"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="317"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="283" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="164"/>
+      <c r="A8" s="312"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="313"/>
+      <c r="D8" s="313"/>
+      <c r="E8" s="313"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="315"/>
+      <c r="H8" s="315"/>
+      <c r="I8" s="315"/>
+      <c r="J8" s="315"/>
+      <c r="K8" s="315"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="316"/>
+      <c r="N8" s="316"/>
+      <c r="O8" s="317"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
-        <v>359</v>
-      </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="A10" s="276" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="277"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>371</v>
+        <v>332</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
+        <v>276</v>
+      </c>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -8361,13 +8373,13 @@
         <v>96</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>255</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8393,554 +8405,549 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="267" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="269"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="261" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="262"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="263"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="263"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="263"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="264"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="266"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="251"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D22" s="250" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>373</v>
+        <v>447</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>339</v>
+        <v>447</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
       </c>
-      <c r="B25" t="s">
-        <v>343</v>
-      </c>
       <c r="C25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>340</v>
+        <v>447</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>360</v>
+        <v>447</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>341</v>
+        <v>447</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>395</v>
+        <v>447</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>394</v>
+        <v>447</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>396</v>
+        <v>447</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>348</v>
+        <v>447</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>397</v>
+        <v>447</v>
+      </c>
+      <c r="D32" s="188" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="192" t="s">
-        <v>398</v>
+        <v>447</v>
+      </c>
+      <c r="D33" s="188" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="180" t="s">
-        <v>399</v>
+        <v>447</v>
+      </c>
+      <c r="D34" s="176" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="180" t="s">
-        <v>400</v>
+        <v>447</v>
+      </c>
+      <c r="D35" s="176" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="180" t="s">
-        <v>401</v>
+        <v>447</v>
+      </c>
+      <c r="D36" s="176" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
-      </c>
-      <c r="D37" s="180" t="s">
-        <v>402</v>
+        <v>447</v>
+      </c>
+      <c r="D37" s="176" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>403</v>
+        <v>447</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>404</v>
+        <v>447</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>405</v>
+        <v>447</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>406</v>
+        <v>447</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
-        <v>452</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>452</v>
-      </c>
-      <c r="D44" s="180" t="s">
-        <v>406</v>
+        <v>447</v>
+      </c>
+      <c r="D44" s="176" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="180" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="D45" s="176" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="180" t="s">
-        <v>456</v>
+        <v>447</v>
+      </c>
+      <c r="D46" s="176" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D47" s="176" t="s">
         <v>452</v>
-      </c>
-      <c r="D47" s="180" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="180" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="D48" s="176" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C49" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="180" t="s">
-        <v>459</v>
+        <v>447</v>
+      </c>
+      <c r="D49" s="176" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
-      </c>
-      <c r="D50" s="180" t="s">
-        <v>460</v>
+        <v>447</v>
+      </c>
+      <c r="D50" s="176" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C51" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="180" t="s">
-        <v>461</v>
+        <v>447</v>
+      </c>
+      <c r="D51" s="176" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="192" t="s">
-        <v>398</v>
+        <v>447</v>
+      </c>
+      <c r="D52" s="188" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
-      </c>
-      <c r="D53" s="180" t="s">
-        <v>407</v>
+        <v>447</v>
+      </c>
+      <c r="D53" s="176" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9006,8 +9013,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9032,246 +9039,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="296" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="A2" s="300" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="301" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="88"/>
+    </row>
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="305" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="306" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="306" t="s">
+        <v>297</v>
+      </c>
+      <c r="O3" s="306" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="306" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="195"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="307" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="310" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
-        <v>297</v>
-      </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="200" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>302</v>
-      </c>
-      <c r="O3" s="200" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="200" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q3" s="202"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="166" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" s="166" t="s">
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="311" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="311" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="166" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="166" t="s">
+      <c r="O4" s="311" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="311" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="304" t="s">
+      <c r="A5" s="312"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="199" t="s">
-        <v>294</v>
-      </c>
-      <c r="N5" s="199" t="s">
-        <v>497</v>
-      </c>
-      <c r="O5" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="P5" s="199" t="s">
-        <v>463</v>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="205" t="s">
+        <v>291</v>
+      </c>
+      <c r="N5" s="205" t="s">
+        <v>492</v>
+      </c>
+      <c r="O5" s="205" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="205" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="304"/>
-      <c r="J6" s="304"/>
-      <c r="K6" s="304"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="167"/>
+      <c r="A6" s="312"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="318"/>
+      <c r="L6" s="318"/>
+      <c r="M6" s="316"/>
+      <c r="N6" s="316"/>
+      <c r="O6" s="316"/>
+      <c r="P6" s="316"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="304"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="165"/>
+      <c r="A7" s="312"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="318"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="318"/>
+      <c r="K7" s="318"/>
+      <c r="L7" s="318"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="316"/>
+      <c r="P7" s="317"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="304"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="165"/>
+      <c r="A8" s="312"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="313"/>
+      <c r="D8" s="313"/>
+      <c r="E8" s="313"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="318"/>
+      <c r="H8" s="318"/>
+      <c r="I8" s="318"/>
+      <c r="J8" s="318"/>
+      <c r="K8" s="318"/>
+      <c r="L8" s="318"/>
+      <c r="M8" s="316"/>
+      <c r="N8" s="316"/>
+      <c r="O8" s="316"/>
+      <c r="P8" s="317"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="A10" s="276" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="277"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>371</v>
+        <v>332</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -9283,15 +9288,15 @@
         <v>96</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="147" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
@@ -9316,283 +9321,278 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="267" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="269"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="261" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="262"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="263"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="263"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="261"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="263"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="264"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="266"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="251"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D22" s="250" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="250"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>373</v>
+        <v>457</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>339</v>
+        <v>457</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
       </c>
-      <c r="B25" t="s">
-        <v>343</v>
-      </c>
       <c r="C25" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>340</v>
+        <v>457</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>360</v>
+        <v>457</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>462</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>341</v>
+        <v>457</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>462</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>408</v>
+        <v>457</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>462</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>394</v>
+        <v>457</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>409</v>
+        <v>457</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>462</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>350</v>
+        <v>457</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="188" t="s">
         <v>346</v>
-      </c>
-      <c r="C32" t="s">
-        <v>462</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>462</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>410</v>
+        <v>457</v>
+      </c>
+      <c r="D33" s="176" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C34" t="s">
-        <v>462</v>
-      </c>
-      <c r="D34" s="192" t="s">
-        <v>354</v>
+        <v>457</v>
+      </c>
+      <c r="D34" s="188" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
+  <mergeCells count="21">
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9658,7 +9658,7 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -9666,7 +9666,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="189" customWidth="1"/>
+    <col min="3" max="3" width="16" style="185" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9674,12 +9674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="305" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
+      <c r="A1" s="280" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="282"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9714,7 +9714,7 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="23"/>
       <c r="F3" s="136" t="s">
         <v>79</v>
@@ -9727,7 +9727,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="187"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9754,19 +9754,19 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="187"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>493</v>
+      <c r="A7" s="203" t="s">
+        <v>488</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C7" s="212">
+        <v>489</v>
+      </c>
+      <c r="C7" s="204">
         <v>0</v>
       </c>
       <c r="D7" s="24">
@@ -9774,13 +9774,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="211" t="s">
-        <v>495</v>
+      <c r="A8" s="203" t="s">
+        <v>490</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C8" s="212">
+        <v>491</v>
+      </c>
+      <c r="C8" s="204">
         <v>0</v>
       </c>
       <c r="D8" s="24">
@@ -9794,7 +9794,7 @@
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="187"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9804,7 +9804,7 @@
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="186"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,7 +9814,7 @@
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9862,7 +9862,7 @@
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="187"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
@@ -9874,7 +9874,7 @@
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="186"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="187"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,7 +9894,7 @@
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="187"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
       <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="187"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9914,7 +9914,7 @@
       <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9924,7 +9924,7 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="187"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="187"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
       <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="187"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
       <c r="B24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="187"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
       <c r="B25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="186"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="187"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9988,7 +9988,7 @@
       <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="187"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="187"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="187"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -10024,7 +10024,7 @@
       <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="187"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10034,7 +10034,7 @@
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="187"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10044,7 +10044,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="187"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
       <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
       <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="187"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10074,7 +10074,7 @@
       <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="187"/>
+      <c r="C35" s="183"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="187"/>
+      <c r="C36" s="183"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
       <c r="B37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="187"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="187"/>
+      <c r="C38" s="183"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10116,7 +10116,7 @@
       <c r="B39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="187"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="25" t="s">
         <v>72</v>
       </c>
@@ -10128,7 +10128,7 @@
       <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="187"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="186"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10148,7 +10148,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="187"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
       <c r="B43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="187"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10168,7 +10168,7 @@
       <c r="B44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="187"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10178,7 +10178,7 @@
       <c r="B45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="187"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10188,7 +10188,7 @@
       <c r="B46" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="187"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10198,7 +10198,7 @@
       <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="187"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       <c r="B48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="187"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10218,7 +10218,7 @@
       <c r="B49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="187"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10228,7 +10228,7 @@
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="187"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10238,7 +10238,7 @@
       <c r="B51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="187"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10248,7 +10248,7 @@
       <c r="B52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="187"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10258,7 +10258,7 @@
       <c r="B53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="187"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="187"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10282,7 +10282,7 @@
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="187"/>
+      <c r="C55" s="183"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="187"/>
+      <c r="C56" s="183"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="187"/>
+      <c r="C57" s="183"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="B58" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="187"/>
+      <c r="C58" s="183"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="B59" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="187"/>
+      <c r="C59" s="183"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10340,7 +10340,7 @@
       <c r="B60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="187"/>
+      <c r="C60" s="183"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10350,8 +10350,8 @@
       <c r="B61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="185"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="181"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10360,27 +10360,27 @@
       <c r="B62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="187"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="184"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="185"/>
+        <v>350</v>
+      </c>
+      <c r="B63" s="180"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="181"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C64" s="187"/>
+        <v>352</v>
+      </c>
+      <c r="C64" s="183"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10392,8 +10392,8 @@
       <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="186"/>
-      <c r="D65" s="185"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="181"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10402,7 +10402,7 @@
       <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="188"/>
+      <c r="C66" s="184"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10442,23 +10442,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="286" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10476,17 +10476,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="310"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10677,21 +10677,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="308" t="s">
+      <c r="B19" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="309"/>
-      <c r="N19" s="310"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="285"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10893,27 +10893,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="291" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="317"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10927,26 +10927,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="310"/>
-      <c r="L3" s="313" t="s">
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="L3" s="288" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="314"/>
-      <c r="R3" s="315"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11177,23 +11177,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="293" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="295"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11206,22 +11206,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="283" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="310"/>
-      <c r="J3" s="313" t="s">
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="285"/>
+      <c r="J3" s="288" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="315"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="290"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="I3010I">0</definedName>
+    <definedName name="I3535I">1</definedName>
+    <definedName name="I3903I">0</definedName>
+    <definedName name="I4018I">0</definedName>
+    <definedName name="I4619I">0</definedName>
+    <definedName name="I4922I">0</definedName>
+    <definedName name="I7577I">1</definedName>
+    <definedName name="I896I">0</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="501">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2473,14 +2483,30 @@
       <t>: ColName1 = Value1, ColName2 = Value2</t>
     </r>
   </si>
+  <si>
+    <t>flow.onThreshold</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in on group.</t>
+  </si>
+  <si>
+    <t>10^4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3371,25 +3397,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3405,7 +3431,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3416,28 +3442,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3458,62 +3481,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3524,20 +3547,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3546,32 +3569,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3589,19 +3612,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3610,46 +3633,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3667,83 +3690,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3758,37 +3781,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3797,41 +3820,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3846,20 +3869,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3882,47 +3905,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3932,8 +3955,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3941,13 +3986,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3959,34 +4004,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3998,25 +4043,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4037,28 +4082,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4067,37 +4112,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4118,22 +4163,38 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4145,144 +4206,114 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5119,583 +5150,583 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6" style="85" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="85"/>
+    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="20" style="84" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="6" style="84" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="223" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="239" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="240"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="238"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="253" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="249"/>
+      <c r="B5" s="254"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="239" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="235"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="240"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223"/>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="224"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="225"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="225"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="226"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="142"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="242" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="238"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="142"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242" t="s">
+      <c r="B12" s="246"/>
+      <c r="C12" s="247" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="243"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="244"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="142"/>
+      <c r="A13" s="249"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="242" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="E15" s="237" t="s">
+      <c r="B15" s="244"/>
+      <c r="E15" s="242" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="239"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="244"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="237" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="227" t="s">
+      <c r="B16" s="238"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="232" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="228"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="229"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="234"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="E17" s="230" t="s">
+      <c r="C17" s="88"/>
+      <c r="E17" s="235" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="231"/>
-      <c r="G17" s="202" t="s">
+      <c r="F17" s="236"/>
+      <c r="G17" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="E18" s="83">
+      <c r="C18" s="88"/>
+      <c r="E18" s="82">
         <v>1</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="206" t="s">
+      <c r="I18" s="211" t="s">
         <v>486</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="89"/>
-      <c r="E19" s="83">
+      <c r="B19" s="115"/>
+      <c r="C19" s="88"/>
+      <c r="E19" s="82">
         <v>2</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="206"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="91"/>
-      <c r="E20" s="84">
+      <c r="B20" s="115"/>
+      <c r="C20" s="90"/>
+      <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="81"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="32"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="31"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="89"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="88"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="E23" s="208" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90"/>
+      <c r="E23" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="210"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="210"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="214" t="s">
+      <c r="B24" s="215"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="219" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="215"/>
-      <c r="G24" s="202" t="s">
+      <c r="F24" s="220"/>
+      <c r="G24" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="189" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="E25" s="83">
+      <c r="C25" s="31"/>
+      <c r="E25" s="82">
         <v>1</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="211" t="s">
+      <c r="I25" s="216" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="83">
+      <c r="C26" s="88"/>
+      <c r="E26" s="82">
         <v>2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="212"/>
+      <c r="I26" s="217"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="91"/>
-      <c r="E27" s="84">
+      <c r="B27" s="115"/>
+      <c r="C27" s="90"/>
+      <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="213"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="218"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="32"/>
-      <c r="I29" s="81"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="31"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="160"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="89"/>
-      <c r="E30" s="208" t="s">
+      <c r="A30" s="159"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="88"/>
+      <c r="E30" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="210"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="215"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="E31" s="216" t="s">
+      <c r="A31" s="160"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="E31" s="221" t="s">
         <v>464</v>
       </c>
-      <c r="F31" s="217"/>
-      <c r="G31" s="200" t="s">
+      <c r="F31" s="222"/>
+      <c r="G31" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="200" t="s">
+      <c r="H31" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="190" t="s">
+      <c r="I31" s="189" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="213" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="210"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="83">
+      <c r="B32" s="215"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="82">
         <v>1</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="206"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="211"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="E33" s="83">
+      <c r="C33" s="88"/>
+      <c r="E33" s="82">
         <v>2</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="206"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="211"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>3</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="206"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="211"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="E35" s="83">
+      <c r="B35" s="115"/>
+      <c r="E35" s="82">
         <v>4</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="206"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="211"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="E36" s="83">
+      <c r="B36" s="115"/>
+      <c r="E36" s="82">
         <v>5</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="206"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="211"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="E37" s="84">
+      <c r="B37" s="115"/>
+      <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="207"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="212"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="208" t="s">
+      <c r="E40" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="210"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="215"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="214"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="82" t="s">
+      <c r="E41" s="219"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="189" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="83">
+      <c r="E42" s="82">
         <v>1</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="206"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="211"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="83">
+      <c r="E43" s="82">
         <v>2</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="206"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="211"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="83">
+      <c r="E44" s="82">
         <v>3</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="206"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="211"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="83">
+      <c r="E45" s="82">
         <v>4</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="206"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="211"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="83">
+      <c r="E46" s="82">
         <v>5</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="206"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="211"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="84">
+      <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="140"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="207"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="212"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5768,964 +5799,964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="257" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="254"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="259"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="260" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="263" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="177" t="s">
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="176" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="176" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="177" t="s">
         <v>320</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="193" t="s">
         <v>407</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="108">
         <v>0.1</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="201" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="200" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="108">
         <v>0.2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="109">
         <v>1</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="201" t="s">
+      <c r="J6" s="111"/>
+      <c r="K6" s="200" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="108">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109">
         <v>1</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="201" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="200" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="108">
         <v>1</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="108">
         <v>0.1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="109">
         <v>1</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="201" t="s">
+      <c r="J8" s="111"/>
+      <c r="K8" s="200" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="108">
         <v>2</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="108">
         <v>0.2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="109">
         <v>1</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="201" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="200" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="108">
         <v>5</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110">
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109">
         <v>1</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="201" t="s">
+      <c r="J10" s="111"/>
+      <c r="K10" s="200" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="108">
         <v>10</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109">
         <v>1</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="201" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="200" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="108">
         <v>20</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="201" t="s">
+      <c r="J12" s="111"/>
+      <c r="K12" s="200" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="108">
         <v>50</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109">
         <v>1</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="201" t="s">
+      <c r="J13" s="111"/>
+      <c r="K13" s="200" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="108">
         <v>100</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="108">
         <v>100</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>1</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="201" t="s">
+      <c r="J14" s="111"/>
+      <c r="K14" s="200" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="108">
         <v>200</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="108">
         <v>200</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>1</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="201" t="s">
+      <c r="J15" s="111"/>
+      <c r="K15" s="200" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="108">
         <v>500</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109">
         <v>1</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="201" t="s">
+      <c r="J16" s="111"/>
+      <c r="K16" s="200" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="107">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="108">
         <v>1000</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="108">
         <v>100</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="201" t="s">
+      <c r="J17" s="111"/>
+      <c r="K17" s="200" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="108">
         <v>2000</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="108">
         <v>200</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>1</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="201" t="s">
+      <c r="J18" s="111"/>
+      <c r="K18" s="200" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="C19" s="76"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109">
         <v>2</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="201" t="s">
+      <c r="K19" s="200" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="C20" s="76"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109">
         <v>2</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="201" t="s">
+      <c r="K20" s="200" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="107">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="C21" s="76"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109">
         <v>2</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="201" t="s">
+      <c r="K21" s="200" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="C22" s="76"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109">
         <v>2</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="201" t="s">
+      <c r="K22" s="200" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="107">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109">
         <v>2</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="201" t="s">
+      <c r="K23" s="200" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109">
         <v>2</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="201" t="s">
+      <c r="K24" s="200" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168">
+      <c r="A25" s="167">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171">
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170">
         <v>2</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173" t="s">
+      <c r="I25" s="171"/>
+      <c r="J25" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="201" t="s">
+      <c r="K25" s="200" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="270" t="s">
+      <c r="A27" s="275" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="271"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="272"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="276"/>
+      <c r="F27" s="276"/>
+      <c r="G27" s="276"/>
+      <c r="H27" s="276"/>
+      <c r="I27" s="276"/>
+      <c r="J27" s="276"/>
+      <c r="K27" s="276"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="276"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="276"/>
+      <c r="Q27" s="277"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="190" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="188" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="189" t="s">
+      <c r="E28" s="188" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="189" t="s">
+      <c r="F28" s="188" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="189" t="s">
+      <c r="G28" s="188" t="s">
         <v>434</v>
       </c>
-      <c r="H28" s="193" t="s">
+      <c r="H28" s="192" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="193" t="s">
+      <c r="I28" s="192" t="s">
         <v>434</v>
       </c>
-      <c r="J28" s="193" t="s">
+      <c r="J28" s="192" t="s">
         <v>446</v>
       </c>
-      <c r="K28" s="193" t="s">
+      <c r="K28" s="192" t="s">
         <v>434</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="123" t="s">
+      <c r="M28" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="123" t="s">
+      <c r="N28" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="189" t="s">
+      <c r="O28" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="189" t="s">
+      <c r="P28" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="192" t="s">
+      <c r="Q28" s="191" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="144"/>
+      <c r="B29" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="96" t="s">
+      <c r="G29" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="L29" s="96" t="s">
+      <c r="L29" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="M29" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="N29" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="96" t="s">
+      <c r="O29" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="96" t="s">
+      <c r="P29" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="118" t="s">
+      <c r="Q29" s="117" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="197" t="s">
+      <c r="A30" s="145"/>
+      <c r="B30" s="196" t="s">
         <v>437</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152" t="s">
         <v>436</v>
       </c>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153" t="s">
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
         <v>439</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="152">
         <v>3</v>
       </c>
-      <c r="K30" s="153" t="s">
+      <c r="K30" s="152" t="s">
         <v>442</v>
       </c>
-      <c r="L30" s="153">
+      <c r="L30" s="152">
         <v>100</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M30" s="152">
         <v>0</v>
       </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153">
+      <c r="N30" s="152"/>
+      <c r="O30" s="152">
         <v>4</v>
       </c>
-      <c r="P30" s="153">
+      <c r="P30" s="152">
         <v>10</v>
       </c>
-      <c r="Q30" s="154">
+      <c r="Q30" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="267" t="s">
+      <c r="A32" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="268"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="269"/>
+      <c r="B32" s="273"/>
+      <c r="C32" s="273"/>
+      <c r="D32" s="273"/>
+      <c r="E32" s="273"/>
+      <c r="F32" s="273"/>
+      <c r="G32" s="273"/>
+      <c r="H32" s="274"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="261" t="s">
+      <c r="A33" s="266" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="262"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="263"/>
+      <c r="B33" s="267"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="267"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="268"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="261"/>
-      <c r="B34" s="262"/>
-      <c r="C34" s="262"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="262"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="262"/>
-      <c r="H34" s="263"/>
+      <c r="A34" s="266"/>
+      <c r="B34" s="267"/>
+      <c r="C34" s="267"/>
+      <c r="D34" s="267"/>
+      <c r="E34" s="267"/>
+      <c r="F34" s="267"/>
+      <c r="G34" s="267"/>
+      <c r="H34" s="268"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="261"/>
-      <c r="B35" s="262"/>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="262"/>
-      <c r="H35" s="263"/>
+      <c r="A35" s="266"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="268"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="264"/>
-      <c r="B36" s="265"/>
-      <c r="C36" s="265"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="266"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="270"/>
+      <c r="C36" s="270"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="270"/>
+      <c r="F36" s="270"/>
+      <c r="G36" s="270"/>
+      <c r="H36" s="271"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="251" t="s">
+      <c r="A38" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="251"/>
-      <c r="C38" s="251"/>
-      <c r="D38" s="251"/>
-      <c r="E38" s="251"/>
-      <c r="F38" s="251"/>
-      <c r="G38" s="251"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="256"/>
+      <c r="D38" s="256"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="250" t="s">
+      <c r="D39" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="250"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="250"/>
+      <c r="E39" s="255"/>
+      <c r="F39" s="255"/>
+      <c r="G39" s="255"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6737,7 +6768,7 @@
       <c r="C40" t="s">
         <v>444</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6751,7 +6782,7 @@
       <c r="C41" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D41" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6765,7 +6796,7 @@
       <c r="C42" t="s">
         <v>444</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6779,7 +6810,7 @@
       <c r="C43" t="s">
         <v>444</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6793,7 +6824,7 @@
       <c r="C44" t="s">
         <v>444</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6807,7 +6838,7 @@
       <c r="C45" t="s">
         <v>444</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6821,7 +6852,7 @@
       <c r="C46" t="s">
         <v>444</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6835,7 +6866,7 @@
       <c r="C47" t="s">
         <v>444</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="187" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6849,7 +6880,7 @@
       <c r="C48" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="187" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6863,7 +6894,7 @@
       <c r="C49" t="s">
         <v>444</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="187" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6877,7 +6908,7 @@
       <c r="C50" t="s">
         <v>444</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="187" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6891,7 +6922,7 @@
       <c r="C51" t="s">
         <v>444</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="187" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6905,7 +6936,7 @@
       <c r="C52" t="s">
         <v>444</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="175" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6919,7 +6950,7 @@
       <c r="C53" t="s">
         <v>444</v>
       </c>
-      <c r="D53" s="188" t="s">
+      <c r="D53" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6933,7 +6964,7 @@
       <c r="C54" t="s">
         <v>444</v>
       </c>
-      <c r="D54" s="188" t="s">
+      <c r="D54" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6947,7 +6978,7 @@
       <c r="C55" t="s">
         <v>444</v>
       </c>
-      <c r="D55" s="188" t="s">
+      <c r="D55" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6961,7 +6992,7 @@
       <c r="C56" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="188" t="s">
+      <c r="D56" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6975,7 +7006,7 @@
       <c r="C57" t="s">
         <v>444</v>
       </c>
-      <c r="D57" s="188" t="s">
+      <c r="D57" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6989,7 +7020,7 @@
       <c r="C58" t="s">
         <v>444</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="175" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7003,7 +7034,7 @@
       <c r="C59" t="s">
         <v>444</v>
       </c>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="175" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7017,7 +7048,7 @@
       <c r="C60" t="s">
         <v>444</v>
       </c>
-      <c r="D60" s="176" t="s">
+      <c r="D60" s="175" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7031,7 +7062,7 @@
       <c r="C61" t="s">
         <v>444</v>
       </c>
-      <c r="D61" s="176" t="s">
+      <c r="D61" s="175" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7045,7 +7076,7 @@
       <c r="C62" t="s">
         <v>444</v>
       </c>
-      <c r="D62" s="176" t="s">
+      <c r="D62" s="175" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7059,7 +7090,7 @@
       <c r="C63" t="s">
         <v>444</v>
       </c>
-      <c r="D63" s="176" t="s">
+      <c r="D63" s="175" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7073,7 +7104,7 @@
       <c r="C64" t="s">
         <v>444</v>
       </c>
-      <c r="D64" s="176" t="s">
+      <c r="D64" s="175" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7087,7 +7118,7 @@
       <c r="C65" t="s">
         <v>444</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="175" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7101,7 +7132,7 @@
       <c r="C66" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="176" t="s">
+      <c r="D66" s="175" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7115,7 +7146,7 @@
       <c r="C67" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="175" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7129,7 +7160,7 @@
       <c r="C68" t="s">
         <v>444</v>
       </c>
-      <c r="D68" s="176" t="s">
+      <c r="D68" s="175" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7143,7 +7174,7 @@
       <c r="C69" t="s">
         <v>444</v>
       </c>
-      <c r="D69" s="176" t="s">
+      <c r="D69" s="175" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7157,7 +7188,7 @@
       <c r="C70" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="175" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7171,7 +7202,7 @@
       <c r="C71" t="s">
         <v>444</v>
       </c>
-      <c r="D71" s="176" t="s">
+      <c r="D71" s="175" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7269,92 +7300,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="273" t="s">
+    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="278" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="275"/>
-    </row>
-    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="270" t="s">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="280"/>
+    </row>
+    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="275" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="272"/>
-    </row>
-    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="277"/>
+    </row>
+    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130"/>
-    </row>
-    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7366,145 +7397,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="198" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="270" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="272"/>
-    </row>
-    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="B6" s="276"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="277"/>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="270" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="271"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="272"/>
-    </row>
-    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128" t="s">
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="277"/>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="I11" s="127"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="133" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7531,8 +7562,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7559,8 +7590,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7587,8 +7618,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106">
+    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7601,8 +7632,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
+    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7615,8 +7646,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
+    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7629,8 +7660,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7643,8 +7674,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107">
+    <row r="20" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="106">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7657,62 +7688,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="270" t="s">
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="271"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="271"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="271"/>
-      <c r="J21" s="272"/>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="276"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="276"/>
+      <c r="I21" s="276"/>
+      <c r="J21" s="277"/>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D22" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E23" s="113"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7721,7 +7752,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="152" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="8"/>
@@ -7731,70 +7762,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="270" t="s">
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="271"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="271"/>
-      <c r="E25" s="271"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="271"/>
-      <c r="H25" s="271"/>
-      <c r="I25" s="271"/>
-      <c r="J25" s="272"/>
-    </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="B25" s="276"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="276"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="276"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="277"/>
+    </row>
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="192" t="s">
         <v>366</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="131" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D26" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="189" t="s">
+      <c r="E26" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="147" t="s">
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="150"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="147"/>
+      <c r="B27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="146" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="152"/>
-    </row>
-    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="198" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="28" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="145"/>
+      <c r="B28" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="153" t="s">
+      <c r="C28" s="185"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="152" t="s">
         <v>459</v>
       </c>
       <c r="F28" s="8"/>
@@ -7803,89 +7834,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="267" t="s">
+    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="269"/>
-    </row>
-    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="261" t="s">
+      <c r="B30" s="273"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="274"/>
+    </row>
+    <row r="31" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="266" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="262"/>
-      <c r="C31" s="262"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="262"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="263"/>
-    </row>
-    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="261"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="262"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="263"/>
-    </row>
-    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="261"/>
-      <c r="B33" s="262"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="263"/>
-    </row>
-    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="264"/>
-      <c r="B34" s="265"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="265"/>
-      <c r="E34" s="265"/>
-      <c r="F34" s="265"/>
-      <c r="G34" s="265"/>
-      <c r="H34" s="266"/>
-    </row>
-    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="251" t="s">
+      <c r="B31" s="267"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="268"/>
+    </row>
+    <row r="32" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="266"/>
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
+    </row>
+    <row r="33" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="266"/>
+      <c r="B33" s="267"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="267"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="268"/>
+    </row>
+    <row r="34" spans="1:8" s="112" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="269"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="270"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="270"/>
+      <c r="F34" s="270"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="271"/>
+    </row>
+    <row r="35" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="112" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="251"/>
-      <c r="C36" s="251"/>
-      <c r="D36" s="251"/>
-      <c r="E36" s="251"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="251"/>
-    </row>
-    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
+    </row>
+    <row r="37" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="250" t="s">
+      <c r="D37" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="250"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
+      <c r="E37" s="255"/>
+      <c r="F37" s="255"/>
+      <c r="G37" s="255"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7897,7 +7928,7 @@
       <c r="C38" t="s">
         <v>461</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7911,7 +7942,7 @@
       <c r="C39" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="188" t="s">
+      <c r="D39" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7925,7 +7956,7 @@
       <c r="C40" t="s">
         <v>461</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7939,7 +7970,7 @@
       <c r="C41" t="s">
         <v>461</v>
       </c>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7953,7 +7984,7 @@
       <c r="C42" t="s">
         <v>461</v>
       </c>
-      <c r="D42" s="179" t="s">
+      <c r="D42" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7967,7 +7998,7 @@
       <c r="C43" t="s">
         <v>461</v>
       </c>
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="187" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7981,7 +8012,7 @@
       <c r="C44" t="s">
         <v>461</v>
       </c>
-      <c r="D44" s="188" t="s">
+      <c r="D44" s="187" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7995,7 +8026,7 @@
       <c r="C45" t="s">
         <v>461</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8009,7 +8040,7 @@
       <c r="C46" t="s">
         <v>461</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8023,7 +8054,7 @@
       <c r="C47" t="s">
         <v>461</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="187" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8037,7 +8068,7 @@
       <c r="C48" t="s">
         <v>461</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="178" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8122,369 +8153,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="292" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="286" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="300" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="301" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="282" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="289" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="305" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="295" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="306" t="s">
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="205" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="306" t="s">
+      <c r="N3" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="306" t="s">
+      <c r="O3" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="196"/>
+      <c r="P3" s="195"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="296" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="310" t="s">
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="294" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="311" t="s">
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="311" t="s">
+      <c r="N4" s="206" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="206" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="312"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="315" t="s">
+      <c r="A5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="281" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315" t="s">
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316" t="s">
+      <c r="K5" s="281"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="317" t="s">
+      <c r="O5" s="208" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="312" t="s">
+      <c r="A6" s="299" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="313"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="313"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="315" t="s">
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="281" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="316"/>
-      <c r="N6" s="316" t="s">
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="317" t="s">
+      <c r="O6" s="208" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="299" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="317"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="208"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="313"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="315"/>
-      <c r="I8" s="315"/>
-      <c r="J8" s="315"/>
-      <c r="K8" s="315"/>
-      <c r="L8" s="315"/>
-      <c r="M8" s="316"/>
-      <c r="N8" s="316"/>
-      <c r="O8" s="317"/>
+      <c r="A8" s="299"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="281"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="208"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="283" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="278"/>
+      <c r="B10" s="284"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="284"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="285"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="267" t="s">
+      <c r="A15" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="269"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="274"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="261" t="s">
+      <c r="A16" s="266" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="262"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="263"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="268"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="261"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="263"/>
+      <c r="A17" s="266"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
+      <c r="H17" s="268"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="261"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="263"/>
+      <c r="A18" s="266"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="264"/>
-      <c r="B19" s="265"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="266"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="271"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="251" t="s">
+      <c r="A21" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="251"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8496,7 +8527,7 @@
       <c r="C23" t="s">
         <v>447</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8510,7 +8541,7 @@
       <c r="C24" t="s">
         <v>447</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8524,7 +8555,7 @@
       <c r="C25" t="s">
         <v>447</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8538,7 +8569,7 @@
       <c r="C26" t="s">
         <v>447</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8552,7 +8583,7 @@
       <c r="C27" t="s">
         <v>447</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8566,7 +8597,7 @@
       <c r="C28" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8580,7 +8611,7 @@
       <c r="C29" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8594,7 +8625,7 @@
       <c r="C30" t="s">
         <v>447</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8608,7 +8639,7 @@
       <c r="C31" t="s">
         <v>447</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8622,7 +8653,7 @@
       <c r="C32" t="s">
         <v>447</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8636,7 +8667,7 @@
       <c r="C33" t="s">
         <v>447</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="187" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8650,7 +8681,7 @@
       <c r="C34" t="s">
         <v>447</v>
       </c>
-      <c r="D34" s="176" t="s">
+      <c r="D34" s="175" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8664,7 +8695,7 @@
       <c r="C35" t="s">
         <v>447</v>
       </c>
-      <c r="D35" s="176" t="s">
+      <c r="D35" s="175" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8678,7 +8709,7 @@
       <c r="C36" t="s">
         <v>447</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="D36" s="175" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8692,7 +8723,7 @@
       <c r="C37" t="s">
         <v>447</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="175" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8706,7 +8737,7 @@
       <c r="C38" t="s">
         <v>447</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="175" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8720,7 +8751,7 @@
       <c r="C39" t="s">
         <v>447</v>
       </c>
-      <c r="D39" s="176" t="s">
+      <c r="D39" s="175" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8734,7 +8765,7 @@
       <c r="C40" t="s">
         <v>447</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8748,7 +8779,7 @@
       <c r="C41" t="s">
         <v>447</v>
       </c>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="175" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8762,7 +8793,7 @@
       <c r="C42" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8776,7 +8807,7 @@
       <c r="C43" t="s">
         <v>447</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8790,7 +8821,7 @@
       <c r="C44" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="175" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8804,7 +8835,7 @@
       <c r="C45" t="s">
         <v>447</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="175" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8818,7 +8849,7 @@
       <c r="C46" t="s">
         <v>447</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="175" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8832,7 +8863,7 @@
       <c r="C47" t="s">
         <v>447</v>
       </c>
-      <c r="D47" s="176" t="s">
+      <c r="D47" s="175" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8846,7 +8877,7 @@
       <c r="C48" t="s">
         <v>447</v>
       </c>
-      <c r="D48" s="176" t="s">
+      <c r="D48" s="175" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8860,7 +8891,7 @@
       <c r="C49" t="s">
         <v>447</v>
       </c>
-      <c r="D49" s="176" t="s">
+      <c r="D49" s="175" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8874,7 +8905,7 @@
       <c r="C50" t="s">
         <v>447</v>
       </c>
-      <c r="D50" s="176" t="s">
+      <c r="D50" s="175" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8888,7 +8919,7 @@
       <c r="C51" t="s">
         <v>447</v>
       </c>
-      <c r="D51" s="176" t="s">
+      <c r="D51" s="175" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8902,7 +8933,7 @@
       <c r="C52" t="s">
         <v>447</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="187" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8916,7 +8947,7 @@
       <c r="C53" t="s">
         <v>447</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="175" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9013,7 +9044,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -9039,368 +9070,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="293" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300" t="s">
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="301" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="282" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="295" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="306" t="s">
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="205" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="306" t="s">
+      <c r="N3" s="205" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="306" t="s">
+      <c r="O3" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="195"/>
+      <c r="Q3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="296" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="310" t="s">
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="294" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="311" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="206" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="311" t="s">
+      <c r="N4" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="206" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="206" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="312"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="279" t="s">
+      <c r="A5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="279"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="205" t="s">
+      <c r="H5" s="303"/>
+      <c r="I5" s="303"/>
+      <c r="J5" s="303"/>
+      <c r="K5" s="303"/>
+      <c r="L5" s="303"/>
+      <c r="M5" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="205" t="s">
+      <c r="N5" s="204" t="s">
         <v>492</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="O5" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="P5" s="205" t="s">
+      <c r="P5" s="204" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="312"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="313"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="316"/>
-      <c r="N6" s="316"/>
-      <c r="O6" s="316"/>
-      <c r="P6" s="316"/>
+      <c r="A6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="312"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="318"/>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="318"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="317"/>
+      <c r="A7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="208"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="313"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="318"/>
-      <c r="H8" s="318"/>
-      <c r="I8" s="318"/>
-      <c r="J8" s="318"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="318"/>
-      <c r="M8" s="316"/>
-      <c r="N8" s="316"/>
-      <c r="O8" s="316"/>
-      <c r="P8" s="317"/>
+      <c r="A8" s="299"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="208"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="283" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="278"/>
+      <c r="B10" s="284"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="284"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="285"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="164"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="267" t="s">
+      <c r="A15" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="268"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="269"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="274"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="261" t="s">
+      <c r="A16" s="266" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="262"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="263"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="268"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="261"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="263"/>
+      <c r="A17" s="266"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
+      <c r="H17" s="268"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="261"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="263"/>
+      <c r="A18" s="266"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="264"/>
-      <c r="B19" s="265"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
-      <c r="F19" s="265"/>
-      <c r="G19" s="265"/>
-      <c r="H19" s="266"/>
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="271"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="251" t="s">
+      <c r="A21" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="251"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9412,7 +9443,7 @@
       <c r="C23" t="s">
         <v>457</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9426,7 +9457,7 @@
       <c r="C24" t="s">
         <v>457</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9440,7 +9471,7 @@
       <c r="C25" t="s">
         <v>457</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9454,7 +9485,7 @@
       <c r="C26" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9468,7 +9499,7 @@
       <c r="C27" t="s">
         <v>457</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9482,7 +9513,7 @@
       <c r="C28" t="s">
         <v>457</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9496,7 +9527,7 @@
       <c r="C29" t="s">
         <v>457</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9510,7 +9541,7 @@
       <c r="C30" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9524,7 +9555,7 @@
       <c r="C31" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9538,7 +9569,7 @@
       <c r="C32" t="s">
         <v>457</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9552,7 +9583,7 @@
       <c r="C33" t="s">
         <v>457</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="175" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9566,17 +9597,12 @@
       <c r="C34" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="187" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
@@ -9587,12 +9613,17 @@
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9656,39 +9687,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="185" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="91" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="184" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="304" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9700,23 +9731,23 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="136" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="135" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9727,8 +9758,8 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="24">
+      <c r="C4" s="182"/>
+      <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -9742,673 +9773,687 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="24">
+      <c r="C5" s="182"/>
+      <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="202" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="210" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="24">
+      <c r="C7" s="182"/>
+      <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="202" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="204">
+      <c r="C8" s="203">
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="202" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C9" s="203">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="182"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
+      <c r="A11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="181"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="25" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="182"/>
+      <c r="D12" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="182"/>
+      <c r="D13" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="24">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C14" s="182"/>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="182"/>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="24" t="s">
+      <c r="C16" s="182"/>
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="182"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="182"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="182"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C21" s="182"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C22" s="182"/>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C23" s="182"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="182"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C25" s="182"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="24">
-        <v>100</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="181"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="24">
-        <v>65535</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="182"/>
+      <c r="D27" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="24">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="182"/>
+      <c r="D28" s="23">
+        <v>65535</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="24">
-        <v>0.1</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="182"/>
+      <c r="D29" s="23">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="182"/>
+      <c r="D30" s="23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="C31" s="182"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="182"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="C33" s="182"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="181"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="24">
-        <v>0.02</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C35" s="182"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C36" s="182"/>
+      <c r="D36" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="182"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="182"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="25" t="s">
+      <c r="C40" s="182"/>
+      <c r="D40" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="25">
+      <c r="C41" s="182"/>
+      <c r="D41" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="182"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="C44" s="182"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="183"/>
-      <c r="D45" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="C45" s="182"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="183"/>
-      <c r="D46" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="C46" s="182"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="183"/>
-      <c r="D47" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="C47" s="182"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="183"/>
-      <c r="D48" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="C48" s="182"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="183"/>
-      <c r="D49" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="C49" s="182"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="183"/>
-      <c r="D50" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="C50" s="182"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="183"/>
-      <c r="D51" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="C51" s="182"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="183"/>
-      <c r="D52" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="C52" s="182"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="183"/>
-      <c r="D53" s="24">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C53" s="182"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="24">
+        <v>59</v>
+      </c>
+      <c r="C54" s="182"/>
+      <c r="D54" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="183"/>
-      <c r="D55" s="24">
+        <v>60</v>
+      </c>
+      <c r="C55" s="182"/>
+      <c r="D55" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="183"/>
-      <c r="D56" s="24">
+        <v>61</v>
+      </c>
+      <c r="C56" s="182"/>
+      <c r="D56" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="183"/>
-      <c r="D57" s="24">
+        <v>62</v>
+      </c>
+      <c r="C57" s="182"/>
+      <c r="D57" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="183"/>
-      <c r="D58" s="24">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="182"/>
+      <c r="D58" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C59" s="182"/>
+      <c r="D59" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="182"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="183"/>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="C61" s="182"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B62" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="181"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="C62" s="181"/>
+      <c r="D62" s="180"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="183"/>
-      <c r="D62" s="26">
+      <c r="C63" s="182"/>
+      <c r="D63" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="181"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="B64" s="179"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="180"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C64" s="183"/>
-      <c r="D64" s="26">
+      <c r="C65" s="182"/>
+      <c r="D65" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B66" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="182"/>
-      <c r="D65" s="181"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="C66" s="181"/>
+      <c r="D66" s="180"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="184"/>
-      <c r="D66" s="29">
+      <c r="C67" s="183"/>
+      <c r="D67" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="74eWta5L8Yhz4iS1rxGcXlqXG5gv6gJoc981GJMOpDHJ2q/ExJwcIywQ8KgOseRnN/S5mk6FKMWD/Xjg9+rh8A==" saltValue="mCsttIcsEE5oAm7QfPcuKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10442,163 +10487,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="310" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="307" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="285"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="309"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10608,10 +10653,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10621,10 +10666,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10634,10 +10679,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10647,10 +10692,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10660,10 +10705,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10677,190 +10722,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="307" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="284"/>
-      <c r="N19" s="285"/>
+      <c r="C19" s="308"/>
+      <c r="D19" s="308"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="308"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="308"/>
+      <c r="J19" s="308"/>
+      <c r="K19" s="308"/>
+      <c r="L19" s="308"/>
+      <c r="M19" s="308"/>
+      <c r="N19" s="309"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>2</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <v>9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>10</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10893,122 +10938,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="315" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="292"/>
-      <c r="S1" s="292"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="316"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="307" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="285"/>
-      <c r="L3" s="288" t="s">
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="309"/>
+      <c r="L3" s="312" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="289"/>
-      <c r="N3" s="289"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="289"/>
-      <c r="Q3" s="289"/>
-      <c r="R3" s="290"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="58">
+      <c r="B4" s="36"/>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>6</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="44"/>
-      <c r="L5" s="40">
+      <c r="I5" s="60"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="39">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11016,21 +11061,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="40">
+      <c r="I6" s="60"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="39">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11038,21 +11083,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="40">
+      <c r="I7" s="60"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="39">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11060,21 +11105,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="40">
+      <c r="I8" s="60"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="39">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11082,21 +11127,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="40">
+      <c r="I9" s="60"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11104,21 +11149,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11126,10 +11171,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11137,10 +11182,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11177,90 +11222,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="317" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="295"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="319"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="307" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="285"/>
-      <c r="J3" s="288" t="s">
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="J3" s="312" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="289"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="46">
+      <c r="B4" s="36"/>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="3"/>
@@ -11268,17 +11313,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="J5" s="40">
+      <c r="H5" s="43"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3"/>
@@ -11286,17 +11331,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="44"/>
-      <c r="J6" s="40">
+      <c r="H6" s="43"/>
+      <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="3"/>
@@ -11304,17 +11349,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
-      <c r="J7" s="40">
+      <c r="H7" s="43"/>
+      <c r="J7" s="39">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="6"/>
@@ -11323,27 +11368,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="54"/>
-      <c r="J9" s="40">
+      <c r="H9" s="53"/>
+      <c r="J9" s="39">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="55"/>
-      <c r="J10" s="56">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11352,19 +11397,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="57"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="515">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2491,6 +2491,78 @@
   </si>
   <si>
     <t>10^4</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels (unprocessed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel
+</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excitation wavelength </t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>FSC-A</t>
+  </si>
+  <si>
+    <t>488/10</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Size Beads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Options can be found in BeadCatalog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Defaults to FSC</t>
+    </r>
+  </si>
+  <si>
+    <t>SpheroTech PPS-6K</t>
+  </si>
+  <si>
+    <t>SizeBeads</t>
+  </si>
+  <si>
+    <t>180614_PPS6K_A02.fcs</t>
   </si>
 </sst>
 </file>
@@ -3397,7 +3469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3669,9 +3741,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3980,20 +4049,119 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4015,102 +4183,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4194,57 +4266,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4257,6 +4278,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4314,6 +4386,120 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4368,13 +4554,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4505,13 +4691,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5150,12 +5336,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
     <col min="9" max="9" width="20" style="84" customWidth="1"/>
@@ -5166,178 +5352,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="234" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="236"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="213" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="214"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="238"/>
+      <c r="B4" s="228"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="229" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="254"/>
+      <c r="B5" s="230"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="213" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="240"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="214"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="228"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="242"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
       <c r="D10" s="86"/>
       <c r="E10" s="86"/>
-      <c r="F10" s="141"/>
+      <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242" t="s">
+      <c r="A11" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="244"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="86"/>
-      <c r="F11" s="141"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="245" t="s">
+      <c r="A12" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="247" t="s">
+      <c r="B12" s="220"/>
+      <c r="C12" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="248"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="86"/>
-      <c r="F12" s="141"/>
+      <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="249"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="141"/>
+      <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="242" t="s">
+      <c r="A15" s="216" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="244"/>
-      <c r="E15" s="242" t="s">
+      <c r="B15" s="218"/>
+      <c r="E15" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="244"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="227" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="238"/>
+      <c r="B16" s="228"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="232" t="s">
+      <c r="E16" s="243" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="234"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="245"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>278</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="235" t="s">
+      <c r="E17" s="246" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="236"/>
-      <c r="G17" s="201" t="s">
+      <c r="F17" s="247"/>
+      <c r="G17" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="188" t="s">
         <v>356</v>
       </c>
       <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="156" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="89" t="s">
@@ -5354,16 +5540,16 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="211" t="s">
+      <c r="I18" s="231" t="s">
         <v>486</v>
       </c>
       <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="88"/>
       <c r="E19" s="82">
         <v>2</v>
@@ -5377,78 +5563,78 @@
       <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="211"/>
+      <c r="I19" s="231"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="90"/>
       <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="138" t="s">
         <v>172</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="212"/>
+      <c r="I20" s="232"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="157" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="31"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="88"/>
       <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="211" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="212"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="211" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="219" t="s">
+      <c r="E24" s="251" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="220"/>
-      <c r="G24" s="201" t="s">
+      <c r="F24" s="252"/>
+      <c r="G24" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="201" t="s">
+      <c r="H24" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="189" t="s">
+      <c r="I24" s="188" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>285</v>
       </c>
       <c r="C25" s="31"/>
@@ -5462,12 +5648,12 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="216" t="s">
+      <c r="I25" s="248" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>269</v>
       </c>
       <c r="B26" s="89" t="s">
@@ -5486,77 +5672,77 @@
       <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="217"/>
+      <c r="I26" s="249"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="115"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="90"/>
       <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="138" t="s">
         <v>172</v>
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="218"/>
+      <c r="I27" s="250"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="31"/>
       <c r="E28" s="93"/>
-      <c r="F28" s="142"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="31"/>
       <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="213" t="s">
+      <c r="E30" s="211" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="215"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="221" t="s">
+      <c r="E31" s="253" t="s">
         <v>464</v>
       </c>
-      <c r="F31" s="222"/>
-      <c r="G31" s="199" t="s">
+      <c r="F31" s="254"/>
+      <c r="G31" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="189" t="s">
+      <c r="I31" s="188" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="215"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5566,13 +5752,13 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="211"/>
+      <c r="I32" s="231"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>292</v>
       </c>
       <c r="C33" s="88"/>
@@ -5586,10 +5772,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="211"/>
+      <c r="I33" s="231"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>239</v>
       </c>
       <c r="B34" s="89" t="s">
@@ -5601,76 +5787,76 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="211"/>
+      <c r="I34" s="231"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="115"/>
+      <c r="B35" s="114"/>
       <c r="E35" s="82">
         <v>4</v>
       </c>
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="211"/>
+      <c r="I35" s="231"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="115"/>
+      <c r="B36" s="114"/>
       <c r="E36" s="82">
         <v>5</v>
       </c>
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="211"/>
+      <c r="I36" s="231"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="157" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="115"/>
+      <c r="B37" s="114"/>
       <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="139"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="212"/>
+      <c r="I37" s="232"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="158" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="115"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="213" t="s">
+      <c r="E40" s="211" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="215"/>
+      <c r="F40" s="233"/>
+      <c r="G40" s="233"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="219"/>
-      <c r="F41" s="220"/>
+      <c r="E41" s="251"/>
+      <c r="F41" s="252"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="189" t="s">
+      <c r="I41" s="188" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5681,7 +5867,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="211"/>
+      <c r="I42" s="231"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -5690,7 +5876,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="211"/>
+      <c r="I43" s="231"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -5699,7 +5885,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="211"/>
+      <c r="I44" s="231"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -5708,7 +5894,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="211"/>
+      <c r="I45" s="231"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -5717,20 +5903,34 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="211"/>
+      <c r="I46" s="231"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="139"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="212"/>
+      <c r="I47" s="232"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5746,20 +5946,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5771,10 +5957,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5832,10 +6018,10 @@
       <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="175" t="s">
         <v>317</v>
       </c>
       <c r="C3" s="263" t="s">
@@ -5845,13 +6031,13 @@
       <c r="E3" s="264"/>
       <c r="F3" s="264"/>
       <c r="G3" s="265"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="175" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="176" t="s">
         <v>320</v>
       </c>
       <c r="K3" s="78"/>
@@ -5861,488 +6047,488 @@
       <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="192" t="s">
         <v>407</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="107">
         <v>0.1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="107">
         <v>0.1</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="108">
         <v>1</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="200" t="s">
+      <c r="J5" s="110"/>
+      <c r="K5" s="199" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="106">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>0.2</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="107">
         <v>0.2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="108">
         <v>1</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="200" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="199" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="106">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="107">
         <v>0.5</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109">
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="200" t="s">
+      <c r="J7" s="110"/>
+      <c r="K7" s="199" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="106">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="107">
         <v>1</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="107">
         <v>0.1</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="108">
         <v>1</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="200" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="199" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="107">
         <v>2</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="107">
         <v>0.2</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="200" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="199" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="106">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="107">
         <v>5</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108">
         <v>1</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="200" t="s">
+      <c r="J10" s="110"/>
+      <c r="K10" s="199" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="106">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="107">
         <v>10</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109">
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108">
         <v>1</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="200" t="s">
+      <c r="J11" s="110"/>
+      <c r="K11" s="199" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="106">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="107">
         <v>20</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109">
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="111"/>
-      <c r="K12" s="200" t="s">
+      <c r="J12" s="110"/>
+      <c r="K12" s="199" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="106">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="107">
         <v>50</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109">
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108">
         <v>1</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="200" t="s">
+      <c r="J13" s="110"/>
+      <c r="K13" s="199" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="106">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="107">
         <v>100</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="107">
         <v>100</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="108">
         <v>1</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="200" t="s">
+      <c r="J14" s="110"/>
+      <c r="K14" s="199" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="106">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="107">
         <v>200</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="107">
         <v>200</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="108">
         <v>1</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="200" t="s">
+      <c r="J15" s="110"/>
+      <c r="K15" s="199" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="106">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="107">
         <v>500</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="109">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108">
         <v>1</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="200" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="199" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="106">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="107">
         <v>1000</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="107">
         <v>100</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="108">
         <v>1</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="200" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="199" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="106">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="107">
         <v>2000</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="107">
         <v>200</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="108">
         <v>1</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="200" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="199" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+      <c r="A19" s="106">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6350,23 +6536,23 @@
         <v>217</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="D19" s="107"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108">
         <v>2</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111" t="s">
+      <c r="I19" s="109"/>
+      <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="200" t="s">
+      <c r="K19" s="199" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="A20" s="106">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6374,23 +6560,23 @@
         <v>175</v>
       </c>
       <c r="C20" s="76"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109">
+      <c r="D20" s="107"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108">
         <v>2</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="200" t="s">
+      <c r="K20" s="199" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+      <c r="A21" s="106">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6398,23 +6584,23 @@
         <v>218</v>
       </c>
       <c r="C21" s="76"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109">
+      <c r="D21" s="107"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108">
         <v>2</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="200" t="s">
+      <c r="K21" s="199" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+      <c r="A22" s="106">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6422,285 +6608,299 @@
         <v>219</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109">
+      <c r="D22" s="107"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108">
         <v>2</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111" t="s">
+      <c r="I22" s="109"/>
+      <c r="J22" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="200" t="s">
+      <c r="K22" s="199" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107">
+      <c r="A23" s="106">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109">
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108">
         <v>2</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111" t="s">
+      <c r="I23" s="109"/>
+      <c r="J23" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="200" t="s">
+      <c r="K23" s="199" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+      <c r="A24" s="106">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109">
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108">
         <v>2</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111" t="s">
+      <c r="I24" s="109"/>
+      <c r="J24" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="200" t="s">
+      <c r="K24" s="199" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167">
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="106">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="210" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="108">
+        <v>2</v>
+      </c>
+      <c r="I25" s="108"/>
+      <c r="J25" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="199" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="166">
+        <f>A25+1</f>
+        <v>22</v>
+      </c>
+      <c r="B26" s="167" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="170">
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169">
         <v>2</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172" t="s">
+      <c r="I26" s="170"/>
+      <c r="J26" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="200" t="s">
+      <c r="K26" s="199" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="275" t="s">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="275" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="276"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="276"/>
-      <c r="G27" s="276"/>
-      <c r="H27" s="276"/>
-      <c r="I27" s="276"/>
-      <c r="J27" s="276"/>
-      <c r="K27" s="276"/>
-      <c r="L27" s="276"/>
-      <c r="M27" s="276"/>
-      <c r="N27" s="276"/>
-      <c r="O27" s="276"/>
-      <c r="P27" s="276"/>
-      <c r="Q27" s="277"/>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="136" t="s">
+      <c r="B28" s="276"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276"/>
+      <c r="E28" s="276"/>
+      <c r="F28" s="276"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="276"/>
+      <c r="J28" s="276"/>
+      <c r="K28" s="276"/>
+      <c r="L28" s="276"/>
+      <c r="M28" s="276"/>
+      <c r="N28" s="276"/>
+      <c r="O28" s="276"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="277"/>
+    </row>
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B29" s="189" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C29" s="187" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="188" t="s">
+      <c r="E29" s="187" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="188" t="s">
+      <c r="F29" s="187" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="188" t="s">
+      <c r="G29" s="187" t="s">
         <v>434</v>
       </c>
-      <c r="H28" s="192" t="s">
+      <c r="H29" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="192" t="s">
+      <c r="I29" s="191" t="s">
         <v>434</v>
       </c>
-      <c r="J28" s="192" t="s">
+      <c r="J29" s="191" t="s">
         <v>446</v>
       </c>
-      <c r="K28" s="192" t="s">
+      <c r="K29" s="191" t="s">
         <v>434</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="122" t="s">
+      <c r="M29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="122" t="s">
+      <c r="N29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="188" t="s">
+      <c r="O29" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="188" t="s">
+      <c r="P29" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="191" t="s">
+      <c r="Q29" s="190" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="95" t="s">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="143"/>
+      <c r="B30" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C30" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D30" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E30" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="95" t="s">
+      <c r="F30" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G30" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="95" t="s">
+      <c r="H30" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I30" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="J29" s="95" t="s">
+      <c r="J30" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="K29" s="95" t="s">
+      <c r="K30" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="L29" s="95" t="s">
+      <c r="L30" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="95" t="s">
+      <c r="M30" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="95" t="s">
+      <c r="N30" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="95" t="s">
+      <c r="O30" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="95" t="s">
+      <c r="P30" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="117" t="s">
+      <c r="Q30" s="116" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="196" t="s">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="144"/>
+      <c r="B31" s="195" t="s">
         <v>437</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152" t="s">
+      <c r="H31" s="151"/>
+      <c r="I31" s="151" t="s">
         <v>439</v>
       </c>
-      <c r="J30" s="152">
+      <c r="J31" s="151">
         <v>3</v>
       </c>
-      <c r="K30" s="152" t="s">
+      <c r="K31" s="151" t="s">
         <v>442</v>
       </c>
-      <c r="L30" s="152">
+      <c r="L31" s="151">
         <v>100</v>
       </c>
-      <c r="M30" s="152">
+      <c r="M31" s="151">
         <v>0</v>
       </c>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152">
+      <c r="N31" s="151"/>
+      <c r="O31" s="151">
         <v>4</v>
       </c>
-      <c r="P30" s="152">
+      <c r="P31" s="151">
         <v>10</v>
       </c>
-      <c r="Q30" s="153">
+      <c r="Q31" s="152">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="272" t="s">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="273"/>
-      <c r="C32" s="273"/>
-      <c r="D32" s="273"/>
-      <c r="E32" s="273"/>
-      <c r="F32" s="273"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="274"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="266" t="s">
+      <c r="B33" s="273"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="273"/>
+      <c r="G33" s="273"/>
+      <c r="H33" s="274"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="266" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="267"/>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="267"/>
-      <c r="H33" s="268"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="266"/>
       <c r="B34" s="267"/>
       <c r="C34" s="267"/>
       <c r="D34" s="267"/>
@@ -6719,99 +6919,95 @@
       <c r="G35" s="267"/>
       <c r="H35" s="268"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="269"/>
-      <c r="B36" s="270"/>
-      <c r="C36" s="270"/>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="270"/>
-      <c r="G36" s="270"/>
-      <c r="H36" s="271"/>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="256" t="s">
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="266"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="268"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="269"/>
+      <c r="B37" s="270"/>
+      <c r="C37" s="270"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
+      <c r="F37" s="270"/>
+      <c r="G37" s="270"/>
+      <c r="H37" s="271"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="256"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="B39" s="256"/>
+      <c r="C39" s="256"/>
+      <c r="D39" s="256"/>
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="256"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B40" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C40" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="255" t="s">
+      <c r="D40" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="255"/>
-      <c r="F39" s="255"/>
-      <c r="G39" s="255"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E40" s="255"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="255"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>311</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>312</v>
-      </c>
-      <c r="C40" t="s">
-        <v>444</v>
-      </c>
-      <c r="D40" s="175" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s">
-        <v>337</v>
       </c>
       <c r="C41" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="187" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
         <v>444</v>
       </c>
-      <c r="D42" s="175" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="186" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
         <v>444</v>
       </c>
-      <c r="D43" s="175" t="s">
-        <v>355</v>
+      <c r="D43" s="174" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6819,27 +7015,27 @@
         <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
       </c>
-      <c r="D44" s="178" t="s">
-        <v>336</v>
+      <c r="D44" s="174" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
         <v>444</v>
       </c>
-      <c r="D45" s="187" t="s">
-        <v>409</v>
+      <c r="D45" s="177" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6852,8 +7048,8 @@
       <c r="C46" t="s">
         <v>444</v>
       </c>
-      <c r="D46" s="187" t="s">
-        <v>389</v>
+      <c r="D46" s="186" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6866,8 +7062,8 @@
       <c r="C47" t="s">
         <v>444</v>
       </c>
-      <c r="D47" s="187" t="s">
-        <v>410</v>
+      <c r="D47" s="186" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6880,8 +7076,8 @@
       <c r="C48" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="187" t="s">
-        <v>412</v>
+      <c r="D48" s="186" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,8 +7090,8 @@
       <c r="C49" t="s">
         <v>444</v>
       </c>
-      <c r="D49" s="187" t="s">
-        <v>411</v>
+      <c r="D49" s="186" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6903,55 +7099,55 @@
         <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C50" t="s">
         <v>444</v>
       </c>
-      <c r="D50" s="187" t="s">
-        <v>413</v>
+      <c r="D50" s="186" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="C51" t="s">
         <v>444</v>
       </c>
-      <c r="D51" s="187" t="s">
-        <v>416</v>
+      <c r="D51" s="186" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
         <v>444</v>
       </c>
-      <c r="D52" s="175" t="s">
-        <v>445</v>
+      <c r="D52" s="186" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
         <v>444</v>
       </c>
-      <c r="D53" s="187" t="s">
-        <v>419</v>
+      <c r="D53" s="174" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6964,7 +7160,7 @@
       <c r="C54" t="s">
         <v>444</v>
       </c>
-      <c r="D54" s="187" t="s">
+      <c r="D54" s="186" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6978,7 +7174,7 @@
       <c r="C55" t="s">
         <v>444</v>
       </c>
-      <c r="D55" s="187" t="s">
+      <c r="D55" s="186" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6992,7 +7188,7 @@
       <c r="C56" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="187" t="s">
+      <c r="D56" s="186" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7006,22 +7202,22 @@
       <c r="C57" t="s">
         <v>444</v>
       </c>
-      <c r="D57" s="187" t="s">
+      <c r="D57" s="186" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C58" t="s">
         <v>444</v>
       </c>
-      <c r="D58" s="175" t="s">
-        <v>420</v>
+      <c r="D58" s="186" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7034,8 +7230,8 @@
       <c r="C59" t="s">
         <v>444</v>
       </c>
-      <c r="D59" s="175" t="s">
-        <v>421</v>
+      <c r="D59" s="174" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7048,8 +7244,8 @@
       <c r="C60" t="s">
         <v>444</v>
       </c>
-      <c r="D60" s="175" t="s">
-        <v>422</v>
+      <c r="D60" s="174" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -7062,8 +7258,8 @@
       <c r="C61" t="s">
         <v>444</v>
       </c>
-      <c r="D61" s="175" t="s">
-        <v>423</v>
+      <c r="D61" s="174" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -7076,8 +7272,8 @@
       <c r="C62" t="s">
         <v>444</v>
       </c>
-      <c r="D62" s="175" t="s">
-        <v>424</v>
+      <c r="D62" s="174" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,8 +7286,8 @@
       <c r="C63" t="s">
         <v>444</v>
       </c>
-      <c r="D63" s="175" t="s">
-        <v>425</v>
+      <c r="D63" s="174" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,8 +7300,8 @@
       <c r="C64" t="s">
         <v>444</v>
       </c>
-      <c r="D64" s="175" t="s">
-        <v>426</v>
+      <c r="D64" s="174" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -7118,8 +7314,8 @@
       <c r="C65" t="s">
         <v>444</v>
       </c>
-      <c r="D65" s="175" t="s">
-        <v>427</v>
+      <c r="D65" s="174" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -7132,8 +7328,8 @@
       <c r="C66" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="175" t="s">
-        <v>428</v>
+      <c r="D66" s="174" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -7146,8 +7342,8 @@
       <c r="C67" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="175" t="s">
-        <v>429</v>
+      <c r="D67" s="174" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -7160,8 +7356,8 @@
       <c r="C68" t="s">
         <v>444</v>
       </c>
-      <c r="D68" s="175" t="s">
-        <v>430</v>
+      <c r="D68" s="174" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -7174,8 +7370,8 @@
       <c r="C69" t="s">
         <v>444</v>
       </c>
-      <c r="D69" s="175" t="s">
-        <v>431</v>
+      <c r="D69" s="174" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -7188,8 +7384,8 @@
       <c r="C70" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="175" t="s">
-        <v>432</v>
+      <c r="D70" s="174" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -7202,20 +7398,34 @@
       <c r="C71" t="s">
         <v>444</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="174" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="174" t="s">
         <v>433</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A33:H36"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A34:H37"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7232,13 +7442,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7279,10 +7489,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7300,7 +7510,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="278" t="s">
         <v>380</v>
       </c>
@@ -7314,7 +7524,7 @@
       <c r="I1" s="279"/>
       <c r="J1" s="280"/>
     </row>
-    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="275" t="s">
         <v>13</v>
       </c>
@@ -7328,35 +7538,35 @@
       <c r="I2" s="276"/>
       <c r="J2" s="277"/>
     </row>
-    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+    <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="126"/>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>98</v>
       </c>
@@ -7378,13 +7588,13 @@
       <c r="G4" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="165" t="s">
         <v>304</v>
       </c>
       <c r="I4" s="100"/>
       <c r="J4" s="101"/>
     </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="111" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
@@ -7397,14 +7607,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+    </row>
+    <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="275" t="s">
         <v>14</v>
       </c>
@@ -7418,23 +7628,23 @@
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
     </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+    <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
         <v>151</v>
       </c>
@@ -7450,7 +7660,7 @@
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
@@ -7466,7 +7676,7 @@
       <c r="I9" s="70"/>
       <c r="J9" s="71"/>
     </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="275" t="s">
         <v>15</v>
       </c>
@@ -7480,33 +7690,33 @@
       <c r="I10" s="276"/>
       <c r="J10" s="277"/>
     </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127" t="s">
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="173" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="131" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="126"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
@@ -7525,16 +7735,16 @@
       <c r="F12" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="132" t="s">
         <v>263</v>
       </c>
       <c r="H12" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>16</v>
       </c>
@@ -7562,7 +7772,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105">
         <v>2</v>
       </c>
@@ -7590,7 +7800,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>3</v>
       </c>
@@ -7618,7 +7828,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="105">
         <v>4</v>
       </c>
@@ -7632,458 +7842,605 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="275" t="s">
+    <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="320" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="321"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="321"/>
+      <c r="J17" s="322"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="323"/>
+      <c r="B18" s="324" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="324" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="324" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="325" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="326" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="326"/>
+      <c r="H18" s="327"/>
+      <c r="I18" s="327"/>
+      <c r="J18" s="328"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="329" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="330" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="331" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="331" t="s">
+        <v>504</v>
+      </c>
+      <c r="E19" s="331" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="332" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="330"/>
+      <c r="H19" s="333"/>
+      <c r="I19" s="333"/>
+      <c r="J19" s="334"/>
+    </row>
+    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="335">
+        <v>1</v>
+      </c>
+      <c r="B20" s="336" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="336" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20" s="336">
+        <v>488</v>
+      </c>
+      <c r="E20" s="336" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" s="336" t="s">
+        <v>508</v>
+      </c>
+      <c r="G20" s="336"/>
+      <c r="H20" s="336"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="337"/>
+    </row>
+    <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="335"/>
+      <c r="B21" s="336"/>
+      <c r="C21" s="336"/>
+      <c r="D21" s="336"/>
+      <c r="E21" s="336"/>
+      <c r="F21" s="336"/>
+      <c r="G21" s="336"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="337"/>
+    </row>
+    <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="276"/>
-      <c r="C21" s="276"/>
-      <c r="D21" s="276"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="276"/>
-      <c r="G21" s="276"/>
-      <c r="H21" s="276"/>
-      <c r="I21" s="276"/>
-      <c r="J21" s="277"/>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="130" t="s">
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="276"/>
+      <c r="I22" s="276"/>
+      <c r="J22" s="277"/>
+    </row>
+    <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="131" t="s">
+      <c r="B23" s="130" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D23" s="130" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="129"/>
-    </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B24" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C24" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D24" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
-        <v>3</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="E24" s="112"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="152" t="s">
+      <c r="D25" s="151" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="275" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="320" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="321"/>
+      <c r="C26" s="321"/>
+      <c r="D26" s="321"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="321"/>
+      <c r="G26" s="321"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="321"/>
+      <c r="J26" s="322"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="338" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" s="339" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="340" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="340" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="341" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="342" t="s">
+        <v>511</v>
+      </c>
+      <c r="G27" s="341" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" s="343"/>
+      <c r="I27" s="343"/>
+      <c r="J27" s="344"/>
+    </row>
+    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="345" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="330" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="346" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="346" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="346" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="346" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="330" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="347"/>
+      <c r="I28" s="347"/>
+      <c r="J28" s="348"/>
+    </row>
+    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="349"/>
+      <c r="B29" s="350" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" s="351">
+        <v>2</v>
+      </c>
+      <c r="D29" s="351"/>
+      <c r="E29" s="351">
+        <v>500</v>
+      </c>
+      <c r="F29" s="351"/>
+      <c r="G29" s="351" t="s">
+        <v>513</v>
+      </c>
+      <c r="H29" s="351"/>
+      <c r="I29" s="351"/>
+      <c r="J29" s="352"/>
+    </row>
+    <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="275" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="276"/>
-      <c r="C25" s="276"/>
-      <c r="D25" s="276"/>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="276"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="277"/>
-    </row>
-    <row r="26" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="130" t="s">
+      <c r="B30" s="276"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="277"/>
+    </row>
+    <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="192" t="s">
+      <c r="B31" s="191" t="s">
         <v>366</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C31" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="188" t="s">
+      <c r="E31" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="150"/>
-    </row>
-    <row r="27" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="146" t="s">
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="149"/>
+    </row>
+    <row r="32" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C32" s="145" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D32" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E32" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="151"/>
-    </row>
-    <row r="28" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
-      <c r="B28" s="197" t="s">
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="144"/>
+      <c r="B33" s="196" t="s">
         <v>458</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="152" t="s">
+      <c r="C33" s="184"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="272" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="272" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="274"/>
-    </row>
-    <row r="31" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="266" t="s">
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="273"/>
+      <c r="H35" s="274"/>
+    </row>
+    <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="266" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="267"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="268"/>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="266"/>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="268"/>
-    </row>
-    <row r="33" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="266"/>
-      <c r="B33" s="267"/>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="267"/>
-      <c r="H33" s="268"/>
-    </row>
-    <row r="34" spans="1:8" s="112" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="269"/>
-      <c r="B34" s="270"/>
-      <c r="C34" s="270"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="270"/>
-      <c r="F34" s="270"/>
-      <c r="G34" s="270"/>
-      <c r="H34" s="271"/>
-    </row>
-    <row r="35" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="112" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="256" t="s">
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="268"/>
+    </row>
+    <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="266"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="267"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="267"/>
+      <c r="H37" s="268"/>
+    </row>
+    <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="266"/>
+      <c r="B38" s="267"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="268"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="269"/>
+      <c r="B39" s="270"/>
+      <c r="C39" s="270"/>
+      <c r="D39" s="270"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="270"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="271"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
-    </row>
-    <row r="37" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="B41" s="256"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="255" t="s">
+      <c r="D42" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="255"/>
-      <c r="F37" s="255"/>
-      <c r="G37" s="255"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E42" s="255"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>311</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>312</v>
-      </c>
-      <c r="C38" t="s">
-        <v>461</v>
-      </c>
-      <c r="D38" s="175" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C39" t="s">
-        <v>461</v>
-      </c>
-      <c r="D39" s="187" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" t="s">
-        <v>461</v>
-      </c>
-      <c r="D40" s="175" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41" t="s">
-        <v>461</v>
-      </c>
-      <c r="D41" s="175" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" t="s">
-        <v>340</v>
-      </c>
-      <c r="C42" t="s">
-        <v>461</v>
-      </c>
-      <c r="D42" s="178" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>369</v>
-      </c>
-      <c r="B43" t="s">
-        <v>313</v>
       </c>
       <c r="C43" t="s">
         <v>461</v>
       </c>
-      <c r="D43" s="187" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C44" t="s">
         <v>461</v>
       </c>
-      <c r="D44" s="187" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="186" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C45" t="s">
         <v>461</v>
       </c>
-      <c r="D45" s="187" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="174" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
         <v>461</v>
       </c>
-      <c r="D46" s="187" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="174" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
         <v>461</v>
       </c>
-      <c r="D47" s="187" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="177" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="D48" s="186" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
+      <c r="D49" s="186" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D50" s="186" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D51" s="186" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s">
+        <v>462</v>
+      </c>
+      <c r="C53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" s="177" t="s">
         <v>463</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H34"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H39"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8100,13 +8457,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8153,115 +8510,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="285" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="296" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="293" t="s">
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="282" t="s">
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="299" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="295" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="288" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="205" t="s">
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="204" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="205" t="s">
+      <c r="N3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="195"/>
+      <c r="P3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="289" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="294" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="287" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294" t="s">
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="206" t="s">
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="206" t="s">
+      <c r="N4" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="206" t="s">
+      <c r="O4" s="205" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="299"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="301"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="284"/>
       <c r="G5" s="281" t="s">
         <v>278</v>
       </c>
@@ -8272,23 +8629,23 @@
       </c>
       <c r="K5" s="281"/>
       <c r="L5" s="281"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207" t="s">
+      <c r="M5" s="206"/>
+      <c r="N5" s="206" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="208" t="s">
+      <c r="O5" s="207" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="282" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="284"/>
       <c r="G6" s="281" t="s">
         <v>285</v>
       </c>
@@ -8297,140 +8654,140 @@
       <c r="J6" s="281"/>
       <c r="K6" s="281"/>
       <c r="L6" s="281"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207" t="s">
+      <c r="M6" s="206"/>
+      <c r="N6" s="206" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="208" t="s">
+      <c r="O6" s="207" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="282" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="301"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="284"/>
       <c r="G7" s="281"/>
       <c r="H7" s="281"/>
       <c r="I7" s="281"/>
       <c r="J7" s="281"/>
       <c r="K7" s="281"/>
       <c r="L7" s="281"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="208"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="207"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="301"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="281"/>
       <c r="H8" s="281"/>
       <c r="I8" s="281"/>
       <c r="J8" s="281"/>
       <c r="K8" s="281"/>
       <c r="L8" s="281"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="208"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="293" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="284"/>
-      <c r="G10" s="284"/>
-      <c r="H10" s="284"/>
-      <c r="I10" s="285"/>
+      <c r="B10" s="294"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="295"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="142" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="147" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="152">
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="F13" s="151"/>
+      <c r="G13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
     </row>
@@ -8527,7 +8884,7 @@
       <c r="C23" t="s">
         <v>447</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8541,7 +8898,7 @@
       <c r="C24" t="s">
         <v>447</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8555,7 +8912,7 @@
       <c r="C25" t="s">
         <v>447</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8569,7 +8926,7 @@
       <c r="C26" t="s">
         <v>447</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8583,7 +8940,7 @@
       <c r="C27" t="s">
         <v>447</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8597,7 +8954,7 @@
       <c r="C28" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="186" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8611,7 +8968,7 @@
       <c r="C29" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="186" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8625,7 +8982,7 @@
       <c r="C30" t="s">
         <v>447</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="186" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8639,7 +8996,7 @@
       <c r="C31" t="s">
         <v>447</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="186" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8653,7 +9010,7 @@
       <c r="C32" t="s">
         <v>447</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="186" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8667,7 +9024,7 @@
       <c r="C33" t="s">
         <v>447</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="186" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8681,7 +9038,7 @@
       <c r="C34" t="s">
         <v>447</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="174" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8695,7 +9052,7 @@
       <c r="C35" t="s">
         <v>447</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="174" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8709,7 +9066,7 @@
       <c r="C36" t="s">
         <v>447</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="174" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8723,7 +9080,7 @@
       <c r="C37" t="s">
         <v>447</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="174" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8737,7 +9094,7 @@
       <c r="C38" t="s">
         <v>447</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="174" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8751,7 +9108,7 @@
       <c r="C39" t="s">
         <v>447</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="174" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8765,7 +9122,7 @@
       <c r="C40" t="s">
         <v>447</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8779,7 +9136,7 @@
       <c r="C41" t="s">
         <v>447</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8793,7 +9150,7 @@
       <c r="C42" t="s">
         <v>447</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8807,7 +9164,7 @@
       <c r="C43" t="s">
         <v>447</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8821,7 +9178,7 @@
       <c r="C44" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="174" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8835,7 +9192,7 @@
       <c r="C45" t="s">
         <v>447</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8849,7 +9206,7 @@
       <c r="C46" t="s">
         <v>447</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8863,7 +9220,7 @@
       <c r="C47" t="s">
         <v>447</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="174" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8877,7 +9234,7 @@
       <c r="C48" t="s">
         <v>447</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="174" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8891,7 +9248,7 @@
       <c r="C49" t="s">
         <v>447</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="174" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8905,7 +9262,7 @@
       <c r="C50" t="s">
         <v>447</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="174" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8919,7 +9276,7 @@
       <c r="C51" t="s">
         <v>447</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="174" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8933,7 +9290,7 @@
       <c r="C52" t="s">
         <v>447</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="186" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8947,18 +9304,20 @@
       <c r="C53" t="s">
         <v>447</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="174" t="s">
         <v>402</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -8971,14 +9330,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9070,119 +9427,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="285" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="286" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="282" t="s">
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="292" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="288" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295" t="s">
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="205" t="s">
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="204" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="205" t="s">
+      <c r="N3" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="205" t="s">
+      <c r="P3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="194"/>
+      <c r="Q3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="289" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="294" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="206" t="s">
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="205" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="206" t="s">
+      <c r="N4" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="206" t="s">
+      <c r="O4" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="206" t="s">
+      <c r="P4" s="205" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="299"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="301"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="284"/>
       <c r="G5" s="303" t="s">
         <v>4</v>
       </c>
@@ -9191,162 +9548,162 @@
       <c r="J5" s="303"/>
       <c r="K5" s="303"/>
       <c r="L5" s="303"/>
-      <c r="M5" s="204" t="s">
+      <c r="M5" s="203" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="204" t="s">
+      <c r="N5" s="203" t="s">
         <v>492</v>
       </c>
-      <c r="O5" s="204" t="s">
+      <c r="O5" s="203" t="s">
         <v>388</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="P5" s="203" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="299"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301"/>
+      <c r="A6" s="282"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="284"/>
       <c r="G6" s="302"/>
       <c r="H6" s="302"/>
       <c r="I6" s="302"/>
       <c r="J6" s="302"/>
       <c r="K6" s="302"/>
       <c r="L6" s="302"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="299"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="301"/>
+      <c r="A7" s="282"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="284"/>
       <c r="G7" s="302"/>
       <c r="H7" s="302"/>
       <c r="I7" s="302"/>
       <c r="J7" s="302"/>
       <c r="K7" s="302"/>
       <c r="L7" s="302"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="208"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="301"/>
+      <c r="A8" s="282"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="284"/>
       <c r="G8" s="302"/>
       <c r="H8" s="302"/>
       <c r="I8" s="302"/>
       <c r="J8" s="302"/>
       <c r="K8" s="302"/>
       <c r="L8" s="302"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="208"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="293" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="284"/>
-      <c r="G10" s="284"/>
-      <c r="H10" s="284"/>
-      <c r="I10" s="285"/>
+      <c r="B10" s="294"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="295"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="142" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="163"/>
+      <c r="K12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="152">
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="F13" s="151"/>
+      <c r="G13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
     </row>
@@ -9443,7 +9800,7 @@
       <c r="C23" t="s">
         <v>457</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9457,7 +9814,7 @@
       <c r="C24" t="s">
         <v>457</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9471,7 +9828,7 @@
       <c r="C25" t="s">
         <v>457</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9485,7 +9842,7 @@
       <c r="C26" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9499,7 +9856,7 @@
       <c r="C27" t="s">
         <v>457</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9513,7 +9870,7 @@
       <c r="C28" t="s">
         <v>457</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="186" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9527,7 +9884,7 @@
       <c r="C29" t="s">
         <v>457</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="186" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9541,7 +9898,7 @@
       <c r="C30" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="186" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9555,7 +9912,7 @@
       <c r="C31" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="186" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9569,7 +9926,7 @@
       <c r="C32" t="s">
         <v>457</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="186" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9583,7 +9940,7 @@
       <c r="C33" t="s">
         <v>457</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="174" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9597,12 +9954,18 @@
       <c r="C34" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="186" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
@@ -9618,12 +9981,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9689,7 +10046,7 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -9697,7 +10054,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="91" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="184" customWidth="1"/>
+    <col min="3" max="3" width="16" style="183" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9731,10 +10088,10 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9745,9 +10102,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="180"/>
       <c r="D3" s="22"/>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="134" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9758,7 +10115,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="23">
         <v>0</v>
       </c>
@@ -9773,19 +10130,19 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="201" t="s">
         <v>498</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="209" t="s">
         <v>500</v>
       </c>
       <c r="D6" s="23">
@@ -9799,19 +10156,19 @@
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="182"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="201" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C8" s="203">
+      <c r="C8" s="202">
         <v>0</v>
       </c>
       <c r="D8" s="23">
@@ -9819,13 +10176,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="201" t="s">
         <v>490</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C9" s="203">
+      <c r="C9" s="202">
         <v>0</v>
       </c>
       <c r="D9" s="23">
@@ -9839,7 +10196,7 @@
       <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="182"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9849,7 +10206,7 @@
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="181"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9859,7 +10216,7 @@
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="182"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="23">
         <v>0</v>
       </c>
@@ -9871,7 +10228,7 @@
       <c r="B13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="182"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="24" t="s">
         <v>68</v>
       </c>
@@ -9883,7 +10240,7 @@
       <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="182"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="24" t="s">
         <v>69</v>
       </c>
@@ -9895,7 +10252,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="23">
         <v>0</v>
       </c>
@@ -9907,7 +10264,7 @@
       <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
@@ -9919,7 +10276,7 @@
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="181"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9929,7 +10286,7 @@
       <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="182"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9939,7 +10296,7 @@
       <c r="B19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="182"/>
+      <c r="C19" s="181"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9949,7 +10306,7 @@
       <c r="B20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="182"/>
+      <c r="C20" s="181"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9959,7 +10316,7 @@
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="182"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,7 +10326,7 @@
       <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="182"/>
+      <c r="C22" s="181"/>
       <c r="D22" s="23">
         <v>1</v>
       </c>
@@ -9981,7 +10338,7 @@
       <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="182"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9991,7 +10348,7 @@
       <c r="B24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="182"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10001,7 +10358,7 @@
       <c r="B25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="182"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10011,7 +10368,7 @@
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="181"/>
+      <c r="C26" s="180"/>
       <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10021,7 +10378,7 @@
       <c r="B27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="182"/>
+      <c r="C27" s="181"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -10033,7 +10390,7 @@
       <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="182"/>
+      <c r="C28" s="181"/>
       <c r="D28" s="23">
         <v>65535</v>
       </c>
@@ -10045,7 +10402,7 @@
       <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="182"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="23">
         <v>10</v>
       </c>
@@ -10057,7 +10414,7 @@
       <c r="B30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="182"/>
+      <c r="C30" s="181"/>
       <c r="D30" s="23">
         <v>0.1</v>
       </c>
@@ -10069,7 +10426,7 @@
       <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="182"/>
+      <c r="C31" s="181"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10079,7 +10436,7 @@
       <c r="B32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="182"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10089,7 +10446,7 @@
       <c r="B33" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10099,7 +10456,7 @@
       <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="181"/>
+      <c r="C34" s="180"/>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10109,7 +10466,7 @@
       <c r="B35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="182"/>
+      <c r="C35" s="181"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -10119,7 +10476,7 @@
       <c r="B36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="182"/>
+      <c r="C36" s="181"/>
       <c r="D36" s="23">
         <v>0.02</v>
       </c>
@@ -10131,7 +10488,7 @@
       <c r="B37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="182"/>
+      <c r="C37" s="181"/>
       <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -10141,7 +10498,7 @@
       <c r="B38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="182"/>
+      <c r="C38" s="181"/>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10151,7 +10508,7 @@
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="182"/>
+      <c r="C39" s="181"/>
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10161,7 +10518,7 @@
       <c r="B40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="182"/>
+      <c r="C40" s="181"/>
       <c r="D40" s="24" t="s">
         <v>72</v>
       </c>
@@ -10173,7 +10530,7 @@
       <c r="B41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="182"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="24">
         <v>0</v>
       </c>
@@ -10185,7 +10542,7 @@
       <c r="B42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="181"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10193,7 +10550,7 @@
         <v>129</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="182"/>
+      <c r="C43" s="181"/>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10203,7 +10560,7 @@
       <c r="B44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="182"/>
+      <c r="C44" s="181"/>
       <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10213,7 +10570,7 @@
       <c r="B45" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="182"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10223,7 +10580,7 @@
       <c r="B46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="182"/>
+      <c r="C46" s="181"/>
       <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10233,7 +10590,7 @@
       <c r="B47" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="182"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10243,7 +10600,7 @@
       <c r="B48" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="182"/>
+      <c r="C48" s="181"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10253,7 +10610,7 @@
       <c r="B49" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="182"/>
+      <c r="C49" s="181"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10263,7 +10620,7 @@
       <c r="B50" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="182"/>
+      <c r="C50" s="181"/>
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10273,7 +10630,7 @@
       <c r="B51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="182"/>
+      <c r="C51" s="181"/>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10283,7 +10640,7 @@
       <c r="B52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="182"/>
+      <c r="C52" s="181"/>
       <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10293,7 +10650,7 @@
       <c r="B53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="182"/>
+      <c r="C53" s="181"/>
       <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -10303,7 +10660,7 @@
       <c r="B54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="182"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="23">
         <v>1</v>
       </c>
@@ -10315,7 +10672,7 @@
       <c r="B55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="182"/>
+      <c r="C55" s="181"/>
       <c r="D55" s="23">
         <v>1</v>
       </c>
@@ -10327,7 +10684,7 @@
       <c r="B56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="182"/>
+      <c r="C56" s="181"/>
       <c r="D56" s="23">
         <v>1</v>
       </c>
@@ -10339,7 +10696,7 @@
       <c r="B57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="182"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="23">
         <v>1</v>
       </c>
@@ -10351,7 +10708,7 @@
       <c r="B58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="182"/>
+      <c r="C58" s="181"/>
       <c r="D58" s="23">
         <v>1</v>
       </c>
@@ -10363,7 +10720,7 @@
       <c r="B59" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="182"/>
+      <c r="C59" s="181"/>
       <c r="D59" s="23">
         <v>0</v>
       </c>
@@ -10375,7 +10732,7 @@
       <c r="B60" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="182"/>
+      <c r="C60" s="181"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10385,7 +10742,7 @@
       <c r="B61" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="182"/>
+      <c r="C61" s="181"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10395,8 +10752,8 @@
       <c r="B62" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="181"/>
-      <c r="D62" s="180"/>
+      <c r="C62" s="180"/>
+      <c r="D62" s="179"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -10405,7 +10762,7 @@
       <c r="B63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="182"/>
+      <c r="C63" s="181"/>
       <c r="D63" s="25">
         <v>0</v>
       </c>
@@ -10414,9 +10771,9 @@
       <c r="A64" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="179"/>
-      <c r="C64" s="181"/>
-      <c r="D64" s="180"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="179"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -10425,7 +10782,7 @@
       <c r="B65" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="182"/>
+      <c r="C65" s="181"/>
       <c r="D65" s="25">
         <v>0</v>
       </c>
@@ -10437,8 +10794,8 @@
       <c r="B66" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="181"/>
-      <c r="D66" s="180"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="179"/>
     </row>
     <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
@@ -10447,7 +10804,7 @@
       <c r="B67" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="183"/>
+      <c r="C67" s="182"/>
       <c r="D67" s="28">
         <v>0</v>
       </c>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="16" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="552">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2487,12 +2487,6 @@
     <t>flow.onThreshold</t>
   </si>
   <si>
-    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in on group.</t>
-  </si>
-  <si>
-    <t>10^4</t>
-  </si>
-  <si>
     <t>Non-fluorescence Channels (unprocessed)</t>
   </si>
   <si>
@@ -2564,14 +2558,138 @@
   <si>
     <t>180614_PPS6K_A02.fcs</t>
   </si>
+  <si>
+    <t>Min Valid a.u.</t>
+  </si>
+  <si>
+    <t>flow.maxEvents</t>
+  </si>
+  <si>
+    <t>Drop events above this count to avoid memory issues</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in the on group.</t>
+  </si>
+  <si>
+    <t>flow.pointCloudFileType</t>
+  </si>
+  <si>
+    <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
+  </si>
+  <si>
+    <t>flow.defaultCSVReadHeader</t>
+  </si>
+  <si>
+    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
+  </si>
+  <si>
+    <t>flow.smallFileWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning that event count is unusually low</t>
+  </si>
+  <si>
+    <t>flow.gateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.preGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning pre-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.postGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning post-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.eventRatioWarning</t>
+  </si>
+  <si>
+    <t>Generic threshold for warning about different event counts.</t>
+  </si>
+  <si>
+    <t>flow.replicateEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in replicate event counts.</t>
+  </si>
+  <si>
+    <t>flow.conditionEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in condition event counts.</t>
+  </si>
+  <si>
+    <t>sizebeads</t>
+  </si>
+  <si>
+    <t>Settings controlling the interpretation of size calibration beads</t>
+  </si>
+  <si>
+    <t>sizebeads.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for finding size bead peaks</t>
+  </si>
+  <si>
+    <t>sizebeads.forceFirstPeak</t>
+  </si>
+  <si>
+    <t>If set to N, lowest observed size bead peak is forced to be interpreted as Nth peak</t>
+  </si>
+  <si>
+    <t>sizebeads.plot</t>
+  </si>
+  <si>
+    <t>When true, make diagnostic plots while computing size bead unit calibration</t>
+  </si>
+  <si>
+    <t>sizebeads.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, size bead unit calibration plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>sizebeads.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for size bead unit calibration figures</t>
+  </si>
+  <si>
+    <t>Settings controlling excel wrapper preferences</t>
+  </si>
+  <si>
+    <t>gating</t>
+  </si>
+  <si>
+    <t>General settings for GMM Gating</t>
+  </si>
+  <si>
+    <t>gating.fixedSeed</t>
+  </si>
+  <si>
+    <t>When true, controls the random seed for GMM Gating</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2869,7 +2987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3465,29 +3583,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3503,7 +3639,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3514,25 +3650,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3553,62 +3689,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3619,20 +3755,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3641,32 +3777,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3684,19 +3820,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3705,43 +3841,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3759,83 +3895,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3850,37 +3986,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3889,41 +4025,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3938,23 +4074,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3974,47 +4107,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -4024,38 +4157,217 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4076,145 +4388,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4235,22 +4469,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4262,243 +4521,150 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4590,7 +4756,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4656,7 +4822,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4727,7 +4893,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4798,7 +4964,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4864,7 +5030,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4935,7 +5101,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5001,7 +5167,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5352,86 +5518,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="251" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="236"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="253"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="267" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="214"/>
+      <c r="B3" s="268"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="228"/>
+      <c r="B4" s="266"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="230"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="267" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="214"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="268"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="237" t="s">
+      <c r="A8" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="255"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="256"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
+      <c r="A9" s="257"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="258"/>
+      <c r="H9" s="258"/>
+      <c r="I9" s="258"/>
+      <c r="J9" s="258"/>
+      <c r="K9" s="259"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5442,62 +5608,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="270" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="217"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="271"/>
+      <c r="D11" s="272"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="273" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="221" t="s">
+      <c r="B12" s="274"/>
+      <c r="C12" s="275" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="276"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="223"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="226"/>
+      <c r="A13" s="277"/>
+      <c r="B13" s="278"/>
+      <c r="C13" s="279"/>
+      <c r="D13" s="280"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="216" t="s">
+      <c r="A15" s="270" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="218"/>
-      <c r="E15" s="216" t="s">
+      <c r="B15" s="272"/>
+      <c r="E15" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="F15" s="271"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="272"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="227" t="s">
+      <c r="A16" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="228"/>
+      <c r="B16" s="266"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="243" t="s">
+      <c r="E16" s="260" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="245"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="262"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5507,17 +5673,17 @@
         <v>278</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="246" t="s">
+      <c r="E17" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="247"/>
-      <c r="G17" s="200" t="s">
+      <c r="F17" s="264"/>
+      <c r="G17" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="188" t="s">
+      <c r="I17" s="187" t="s">
         <v>356</v>
       </c>
       <c r="J17" s="80"/>
@@ -5540,7 +5706,7 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="231" t="s">
+      <c r="I18" s="239" t="s">
         <v>486</v>
       </c>
       <c r="J18" s="80"/>
@@ -5563,7 +5729,7 @@
       <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="231"/>
+      <c r="I19" s="239"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5580,7 +5746,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="232"/>
+      <c r="I20" s="240"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5602,31 +5768,31 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="211" t="s">
+      <c r="E23" s="241" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="212"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="243"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="241" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="212"/>
+      <c r="B24" s="243"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="251" t="s">
+      <c r="E24" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="252"/>
-      <c r="G24" s="200" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="200" t="s">
+      <c r="H24" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="188" t="s">
+      <c r="I24" s="187" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5648,7 +5814,7 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="248" t="s">
+      <c r="I25" s="244" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5672,7 +5838,7 @@
       <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="249"/>
+      <c r="I26" s="245"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -5688,7 +5854,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="250"/>
+      <c r="I27" s="246"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -5712,37 +5878,37 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="211" t="s">
+      <c r="E30" s="241" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="212"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="243"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="253" t="s">
+      <c r="E31" s="249" t="s">
         <v>464</v>
       </c>
-      <c r="F31" s="254"/>
-      <c r="G31" s="198" t="s">
+      <c r="F31" s="250"/>
+      <c r="G31" s="197" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="198" t="s">
+      <c r="H31" s="197" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="188" t="s">
+      <c r="I31" s="187" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="241" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="212"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5752,7 +5918,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="231"/>
+      <c r="I32" s="239"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -5772,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="231"/>
+      <c r="I33" s="239"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -5787,7 +5953,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="231"/>
+      <c r="I34" s="239"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -5800,7 +5966,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="231"/>
+      <c r="I35" s="239"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -5813,7 +5979,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="231"/>
+      <c r="I36" s="239"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -5826,7 +5992,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="232"/>
+      <c r="I37" s="240"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -5839,24 +6005,24 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="211" t="s">
+      <c r="E40" s="241" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="233"/>
-      <c r="G40" s="233"/>
-      <c r="H40" s="233"/>
-      <c r="I40" s="212"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="242"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="243"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="251"/>
-      <c r="F41" s="252"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="248"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="188" t="s">
+      <c r="I41" s="187" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5867,7 +6033,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="231"/>
+      <c r="I42" s="239"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -5876,7 +6042,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="231"/>
+      <c r="I43" s="239"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -5885,7 +6051,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="231"/>
+      <c r="I44" s="239"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -5894,7 +6060,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="231"/>
+      <c r="I45" s="239"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -5903,7 +6069,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="231"/>
+      <c r="I46" s="239"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -5912,25 +6078,11 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="232"/>
+      <c r="I47" s="240"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5946,6 +6098,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5957,10 +6123,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5985,32 +6151,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="285" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="259"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="287"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="288" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="262"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="290"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6024,13 +6190,13 @@
       <c r="B3" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="263" t="s">
+      <c r="C3" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="265"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="293"/>
       <c r="H3" s="175" t="s">
         <v>318</v>
       </c>
@@ -6074,7 +6240,7 @@
       <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="191" t="s">
         <v>407</v>
       </c>
       <c r="K4" s="3"/>
@@ -6109,7 +6275,7 @@
         <v>203</v>
       </c>
       <c r="J5" s="110"/>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="198" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6143,7 +6309,7 @@
         <v>204</v>
       </c>
       <c r="J6" s="110"/>
-      <c r="K6" s="199" t="s">
+      <c r="K6" s="198" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6173,7 +6339,7 @@
         <v>205</v>
       </c>
       <c r="J7" s="110"/>
-      <c r="K7" s="199" t="s">
+      <c r="K7" s="198" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6207,7 +6373,7 @@
         <v>206</v>
       </c>
       <c r="J8" s="110"/>
-      <c r="K8" s="199" t="s">
+      <c r="K8" s="198" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6239,7 +6405,7 @@
         <v>207</v>
       </c>
       <c r="J9" s="110"/>
-      <c r="K9" s="199" t="s">
+      <c r="K9" s="198" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6269,7 +6435,7 @@
         <v>208</v>
       </c>
       <c r="J10" s="110"/>
-      <c r="K10" s="199" t="s">
+      <c r="K10" s="198" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6299,7 +6465,7 @@
         <v>209</v>
       </c>
       <c r="J11" s="110"/>
-      <c r="K11" s="199" t="s">
+      <c r="K11" s="198" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6329,7 +6495,7 @@
         <v>210</v>
       </c>
       <c r="J12" s="110"/>
-      <c r="K12" s="199" t="s">
+      <c r="K12" s="198" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6359,7 +6525,7 @@
         <v>211</v>
       </c>
       <c r="J13" s="110"/>
-      <c r="K13" s="199" t="s">
+      <c r="K13" s="198" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6391,7 +6557,7 @@
         <v>212</v>
       </c>
       <c r="J14" s="110"/>
-      <c r="K14" s="199" t="s">
+      <c r="K14" s="198" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6425,7 +6591,7 @@
         <v>213</v>
       </c>
       <c r="J15" s="110"/>
-      <c r="K15" s="199" t="s">
+      <c r="K15" s="198" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6455,11 +6621,11 @@
         <v>214</v>
       </c>
       <c r="J16" s="110"/>
-      <c r="K16" s="199" t="s">
+      <c r="K16" s="198" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="106">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6489,11 +6655,11 @@
         <v>215</v>
       </c>
       <c r="J17" s="110"/>
-      <c r="K17" s="199" t="s">
+      <c r="K17" s="198" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="106">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6523,11 +6689,11 @@
         <v>216</v>
       </c>
       <c r="J18" s="110"/>
-      <c r="K18" s="199" t="s">
+      <c r="K18" s="198" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="106">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6547,11 +6713,11 @@
       <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="199" t="s">
+      <c r="K19" s="198" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="106">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6571,11 +6737,11 @@
       <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="199" t="s">
+      <c r="K20" s="198" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="106">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6595,11 +6761,11 @@
       <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="199" t="s">
+      <c r="K21" s="198" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="106">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6619,11 +6785,11 @@
       <c r="J22" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="199" t="s">
+      <c r="K22" s="198" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="106">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6643,11 +6809,11 @@
       <c r="J23" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="199" t="s">
+      <c r="K23" s="198" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="106">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6667,17 +6833,17 @@
       <c r="J24" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="199" t="s">
+      <c r="K24" s="198" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="106">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="210" t="s">
-        <v>513</v>
+      <c r="B25" s="208" t="s">
+        <v>511</v>
       </c>
       <c r="C25" s="107"/>
       <c r="D25" s="107"/>
@@ -6691,11 +6857,11 @@
       <c r="J25" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="199" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="198" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="166">
         <f>A25+1</f>
         <v>22</v>
@@ -6715,86 +6881,90 @@
       <c r="J26" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="199" t="s">
+      <c r="K26" s="198" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="275" t="s">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="353" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="276"/>
-      <c r="C28" s="276"/>
-      <c r="D28" s="276"/>
-      <c r="E28" s="276"/>
-      <c r="F28" s="276"/>
-      <c r="G28" s="276"/>
-      <c r="H28" s="276"/>
-      <c r="I28" s="276"/>
-      <c r="J28" s="276"/>
-      <c r="K28" s="276"/>
-      <c r="L28" s="276"/>
-      <c r="M28" s="276"/>
-      <c r="N28" s="276"/>
-      <c r="O28" s="276"/>
-      <c r="P28" s="276"/>
-      <c r="Q28" s="277"/>
-    </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="354"/>
+      <c r="C28" s="354"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="354"/>
+      <c r="F28" s="354"/>
+      <c r="G28" s="354"/>
+      <c r="H28" s="354"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="354"/>
+      <c r="L28" s="354"/>
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="354"/>
+      <c r="R28" s="354"/>
+    </row>
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="186" t="s">
         <v>366</v>
       </c>
-      <c r="E29" s="187" t="s">
+      <c r="E29" s="186" t="s">
         <v>268</v>
       </c>
-      <c r="F29" s="187" t="s">
+      <c r="F29" s="186" t="s">
         <v>381</v>
       </c>
-      <c r="G29" s="187" t="s">
+      <c r="G29" s="186" t="s">
         <v>434</v>
       </c>
-      <c r="H29" s="191" t="s">
+      <c r="H29" s="190" t="s">
         <v>268</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="190" t="s">
         <v>434</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="190" t="s">
         <v>446</v>
       </c>
-      <c r="K29" s="191" t="s">
+      <c r="K29" s="190" t="s">
         <v>434</v>
       </c>
       <c r="L29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="M29" s="121" t="s">
+      <c r="M29" s="351" t="s">
         <v>270</v>
       </c>
       <c r="N29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="O29" s="187" t="s">
+      <c r="O29" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="P29" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="P29" s="187" t="s">
+      <c r="Q29" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="Q29" s="190" t="s">
+      <c r="R29" s="189" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="143"/>
       <c r="B30" s="95" t="s">
         <v>20</v>
@@ -6829,25 +6999,28 @@
       <c r="L30" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="95" t="s">
+      <c r="M30" s="352" t="s">
+        <v>513</v>
+      </c>
+      <c r="N30" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N30" s="95" t="s">
+      <c r="O30" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O30" s="95" t="s">
+      <c r="P30" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="P30" s="95" t="s">
+      <c r="Q30" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="Q30" s="116" t="s">
+      <c r="R30" s="116" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="144"/>
-      <c r="B31" s="195" t="s">
+      <c r="B31" s="194" t="s">
         <v>437</v>
       </c>
       <c r="C31" s="96"/>
@@ -6870,86 +7043,87 @@
       <c r="L31" s="151">
         <v>100</v>
       </c>
-      <c r="M31" s="151">
+      <c r="M31" s="236"/>
+      <c r="N31" s="151">
         <v>0</v>
       </c>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151">
+      <c r="O31" s="151"/>
+      <c r="P31" s="151">
         <v>4</v>
       </c>
-      <c r="P31" s="151">
+      <c r="Q31" s="151">
         <v>10</v>
       </c>
-      <c r="Q31" s="152">
+      <c r="R31" s="152">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="272" t="s">
+      <c r="A33" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B33" s="273"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="274"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="301"/>
+      <c r="H33" s="302"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="266" t="s">
+      <c r="A34" s="294" t="s">
         <v>361</v>
       </c>
-      <c r="B34" s="267"/>
-      <c r="C34" s="267"/>
-      <c r="D34" s="267"/>
-      <c r="E34" s="267"/>
-      <c r="F34" s="267"/>
-      <c r="G34" s="267"/>
-      <c r="H34" s="268"/>
+      <c r="B34" s="295"/>
+      <c r="C34" s="295"/>
+      <c r="D34" s="295"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+      <c r="G34" s="295"/>
+      <c r="H34" s="296"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="266"/>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="268"/>
+      <c r="A35" s="294"/>
+      <c r="B35" s="295"/>
+      <c r="C35" s="295"/>
+      <c r="D35" s="295"/>
+      <c r="E35" s="295"/>
+      <c r="F35" s="295"/>
+      <c r="G35" s="295"/>
+      <c r="H35" s="296"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="266"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="268"/>
+      <c r="A36" s="294"/>
+      <c r="B36" s="295"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="295"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="295"/>
+      <c r="H36" s="296"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="269"/>
-      <c r="B37" s="270"/>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
-      <c r="G37" s="270"/>
-      <c r="H37" s="271"/>
+      <c r="A37" s="297"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="298"/>
+      <c r="H37" s="299"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="256" t="s">
+      <c r="A39" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="256"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="256"/>
+      <c r="B39" s="284"/>
+      <c r="C39" s="284"/>
+      <c r="D39" s="284"/>
+      <c r="E39" s="284"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
@@ -6961,12 +7135,12 @@
       <c r="C40" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="255" t="s">
+      <c r="D40" s="283" t="s">
         <v>310</v>
       </c>
-      <c r="E40" s="255"/>
-      <c r="F40" s="255"/>
-      <c r="G40" s="255"/>
+      <c r="E40" s="283"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="283"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6992,7 +7166,7 @@
       <c r="C42" t="s">
         <v>444</v>
       </c>
-      <c r="D42" s="186" t="s">
+      <c r="D42" s="185" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7048,7 +7222,7 @@
       <c r="C46" t="s">
         <v>444</v>
       </c>
-      <c r="D46" s="186" t="s">
+      <c r="D46" s="185" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7062,7 +7236,7 @@
       <c r="C47" t="s">
         <v>444</v>
       </c>
-      <c r="D47" s="186" t="s">
+      <c r="D47" s="185" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7076,7 +7250,7 @@
       <c r="C48" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="186" t="s">
+      <c r="D48" s="185" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7090,7 +7264,7 @@
       <c r="C49" t="s">
         <v>444</v>
       </c>
-      <c r="D49" s="186" t="s">
+      <c r="D49" s="185" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7104,7 +7278,7 @@
       <c r="C50" t="s">
         <v>444</v>
       </c>
-      <c r="D50" s="186" t="s">
+      <c r="D50" s="185" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7118,7 +7292,7 @@
       <c r="C51" t="s">
         <v>444</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="185" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7132,7 +7306,7 @@
       <c r="C52" t="s">
         <v>444</v>
       </c>
-      <c r="D52" s="186" t="s">
+      <c r="D52" s="185" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7160,7 +7334,7 @@
       <c r="C54" t="s">
         <v>444</v>
       </c>
-      <c r="D54" s="186" t="s">
+      <c r="D54" s="185" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7174,7 +7348,7 @@
       <c r="C55" t="s">
         <v>444</v>
       </c>
-      <c r="D55" s="186" t="s">
+      <c r="D55" s="185" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7188,7 +7362,7 @@
       <c r="C56" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="186" t="s">
+      <c r="D56" s="185" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7202,7 +7376,7 @@
       <c r="C57" t="s">
         <v>444</v>
       </c>
-      <c r="D57" s="186" t="s">
+      <c r="D57" s="185" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7216,7 +7390,7 @@
       <c r="C58" t="s">
         <v>444</v>
       </c>
-      <c r="D58" s="186" t="s">
+      <c r="D58" s="185" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7425,7 +7599,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A34:H37"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A28:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7491,7 +7665,7 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7511,32 +7685,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="306" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="280"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="308"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="277"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="305"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7607,7 +7781,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="196" t="s">
         <v>305</v>
       </c>
       <c r="H5" s="163"/>
@@ -7615,18 +7789,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="275" t="s">
+      <c r="A6" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="276"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="276"/>
-      <c r="G6" s="276"/>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="277"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="305"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7677,18 +7851,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="303" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="277"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="305"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -7843,114 +8017,114 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="320" t="s">
+      <c r="A17" s="309" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="310"/>
+      <c r="C17" s="310"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="310"/>
+      <c r="F17" s="310"/>
+      <c r="G17" s="310"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="311"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="209"/>
+      <c r="B18" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="210" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="211" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="212"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="214"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="215" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="216" t="s">
         <v>501</v>
       </c>
-      <c r="B17" s="321"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="321"/>
-      <c r="G17" s="321"/>
-      <c r="H17" s="321"/>
-      <c r="I17" s="321"/>
-      <c r="J17" s="322"/>
-    </row>
-    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="323"/>
-      <c r="B18" s="324" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="324" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="324" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="325" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="326" t="s">
-        <v>324</v>
-      </c>
-      <c r="G18" s="326"/>
-      <c r="H18" s="327"/>
-      <c r="I18" s="327"/>
-      <c r="J18" s="328"/>
-    </row>
-    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="329" t="s">
+      <c r="C19" s="217" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="E19" s="217" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="218" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="216"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
+    </row>
+    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="221">
+        <v>1</v>
+      </c>
+      <c r="B20" s="222" t="s">
         <v>503</v>
       </c>
-      <c r="C19" s="331" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="331" t="s">
+      <c r="C20" s="222" t="s">
         <v>504</v>
       </c>
-      <c r="E19" s="331" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19" s="332" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="330"/>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="334"/>
-    </row>
-    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="335">
-        <v>1</v>
-      </c>
-      <c r="B20" s="336" t="s">
+      <c r="D20" s="222">
+        <v>488</v>
+      </c>
+      <c r="E20" s="222" t="s">
         <v>505</v>
       </c>
-      <c r="C20" s="336" t="s">
+      <c r="F20" s="222" t="s">
         <v>506</v>
       </c>
-      <c r="D20" s="336">
-        <v>488</v>
-      </c>
-      <c r="E20" s="336" t="s">
-        <v>507</v>
-      </c>
-      <c r="F20" s="336" t="s">
-        <v>508</v>
-      </c>
-      <c r="G20" s="336"/>
-      <c r="H20" s="336"/>
-      <c r="I20" s="336"/>
-      <c r="J20" s="337"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="223"/>
     </row>
     <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="335"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="336"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="336"/>
-      <c r="F21" s="336"/>
-      <c r="G21" s="336"/>
-      <c r="H21" s="336"/>
-      <c r="I21" s="336"/>
-      <c r="J21" s="337"/>
+      <c r="A21" s="221"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="223"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="275" t="s">
+      <c r="A22" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="276"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="276"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="277"/>
+      <c r="B22" s="304"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="305"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8013,110 +8187,110 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="320" t="s">
+      <c r="A26" s="309" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="310"/>
+      <c r="C26" s="310"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="310"/>
+      <c r="F26" s="310"/>
+      <c r="G26" s="310"/>
+      <c r="H26" s="310"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="311"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="224" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="225" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="226" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="226" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="227" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="228" t="s">
         <v>509</v>
       </c>
-      <c r="B26" s="321"/>
-      <c r="C26" s="321"/>
-      <c r="D26" s="321"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="321"/>
-      <c r="H26" s="321"/>
-      <c r="I26" s="321"/>
-      <c r="J26" s="322"/>
-    </row>
-    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="338" t="s">
+      <c r="G27" s="227" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="230"/>
+    </row>
+    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="231" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="216" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="232" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="232" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="232" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="232" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="216" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="234"/>
+    </row>
+    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="235"/>
+      <c r="B29" s="236" t="s">
         <v>510</v>
       </c>
-      <c r="B27" s="339" t="s">
-        <v>510</v>
-      </c>
-      <c r="C27" s="340" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="340" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="341" t="s">
-        <v>270</v>
-      </c>
-      <c r="F27" s="342" t="s">
+      <c r="C29" s="237">
+        <v>2</v>
+      </c>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237">
+        <v>500</v>
+      </c>
+      <c r="F29" s="237"/>
+      <c r="G29" s="237" t="s">
         <v>511</v>
       </c>
-      <c r="G27" s="341" t="s">
-        <v>270</v>
-      </c>
-      <c r="H27" s="343"/>
-      <c r="I27" s="343"/>
-      <c r="J27" s="344"/>
-    </row>
-    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="330" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="346" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="346" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="346" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="346" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="330" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="347"/>
-      <c r="I28" s="347"/>
-      <c r="J28" s="348"/>
-    </row>
-    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="349"/>
-      <c r="B29" s="350" t="s">
-        <v>512</v>
-      </c>
-      <c r="C29" s="351">
-        <v>2</v>
-      </c>
-      <c r="D29" s="351"/>
-      <c r="E29" s="351">
-        <v>500</v>
-      </c>
-      <c r="F29" s="351"/>
-      <c r="G29" s="351" t="s">
-        <v>513</v>
-      </c>
-      <c r="H29" s="351"/>
-      <c r="I29" s="351"/>
-      <c r="J29" s="352"/>
+      <c r="H29" s="237"/>
+      <c r="I29" s="237"/>
+      <c r="J29" s="238"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="275" t="s">
+      <c r="A30" s="303" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="276"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="276"/>
-      <c r="G30" s="276"/>
-      <c r="H30" s="276"/>
-      <c r="I30" s="276"/>
-      <c r="J30" s="277"/>
+      <c r="B30" s="304"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="304"/>
+      <c r="E30" s="304"/>
+      <c r="F30" s="304"/>
+      <c r="G30" s="304"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="304"/>
+      <c r="J30" s="305"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="190" t="s">
         <v>366</v>
       </c>
       <c r="C31" s="130" t="s">
@@ -8125,7 +8299,7 @@
       <c r="D31" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="187" t="s">
+      <c r="E31" s="186" t="s">
         <v>366</v>
       </c>
       <c r="F31" s="126"/>
@@ -8156,10 +8330,10 @@
     </row>
     <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="144"/>
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="195" t="s">
         <v>458</v>
       </c>
-      <c r="C33" s="184"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="120"/>
       <c r="E33" s="151" t="s">
         <v>459</v>
@@ -8172,58 +8346,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="274"/>
+      <c r="B35" s="301"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="301"/>
+      <c r="E35" s="301"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="301"/>
+      <c r="H35" s="302"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="266" t="s">
+      <c r="A36" s="294" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="268"/>
+      <c r="B36" s="295"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="295"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="295"/>
+      <c r="H36" s="296"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="266"/>
-      <c r="B37" s="267"/>
-      <c r="C37" s="267"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="267"/>
-      <c r="G37" s="267"/>
-      <c r="H37" s="268"/>
+      <c r="A37" s="294"/>
+      <c r="B37" s="295"/>
+      <c r="C37" s="295"/>
+      <c r="D37" s="295"/>
+      <c r="E37" s="295"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="295"/>
+      <c r="H37" s="296"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="266"/>
-      <c r="B38" s="267"/>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="268"/>
+      <c r="A38" s="294"/>
+      <c r="B38" s="295"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="295"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="295"/>
+      <c r="H38" s="296"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="269"/>
-      <c r="B39" s="270"/>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="270"/>
-      <c r="H39" s="271"/>
+      <c r="A39" s="297"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="298"/>
+      <c r="H39" s="299"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8240,15 +8414,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="256" t="s">
+      <c r="A41" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="256"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
+      <c r="B41" s="284"/>
+      <c r="C41" s="284"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8263,12 +8437,12 @@
       <c r="C42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D42" s="255" t="s">
+      <c r="D42" s="283" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="255"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="255"/>
+      <c r="E42" s="283"/>
+      <c r="F42" s="283"/>
+      <c r="G42" s="283"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8297,7 +8471,7 @@
       <c r="C44" t="s">
         <v>461</v>
       </c>
-      <c r="D44" s="186" t="s">
+      <c r="D44" s="185" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8353,7 +8527,7 @@
       <c r="C48" t="s">
         <v>461</v>
       </c>
-      <c r="D48" s="186" t="s">
+      <c r="D48" s="185" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8367,7 +8541,7 @@
       <c r="C49" t="s">
         <v>461</v>
       </c>
-      <c r="D49" s="186" t="s">
+      <c r="D49" s="185" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8381,7 +8555,7 @@
       <c r="C50" t="s">
         <v>461</v>
       </c>
-      <c r="D50" s="186" t="s">
+      <c r="D50" s="185" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8395,7 +8569,7 @@
       <c r="C51" t="s">
         <v>461</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="185" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8409,7 +8583,7 @@
       <c r="C52" t="s">
         <v>461</v>
       </c>
-      <c r="D52" s="186" t="s">
+      <c r="D52" s="185" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8484,8 +8658,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8510,207 +8684,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="323" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="317" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="286" t="s">
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="324" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="292" t="s">
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="313" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="320" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="288" t="s">
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="326" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="288"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="203" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="194"/>
+      <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="287" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="325" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287" t="s">
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="205" t="s">
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="204" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="204" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="204" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="281" t="s">
+      <c r="A5" s="330"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="312" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281" t="s">
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206" t="s">
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="207" t="s">
+      <c r="O5" s="206" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="s">
+      <c r="A6" s="330" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="281" t="s">
+      <c r="B6" s="331"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="312" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206" t="s">
+      <c r="H6" s="312"/>
+      <c r="I6" s="312"/>
+      <c r="J6" s="312"/>
+      <c r="K6" s="312"/>
+      <c r="L6" s="312"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="207" t="s">
+      <c r="O6" s="206" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="282" t="s">
+      <c r="A7" s="330" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
+      <c r="I7" s="312"/>
+      <c r="J7" s="312"/>
+      <c r="K7" s="312"/>
+      <c r="L7" s="312"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="206"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="281"/>
-      <c r="L8" s="281"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="207"/>
+      <c r="A8" s="330"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="312"/>
+      <c r="I8" s="312"/>
+      <c r="J8" s="312"/>
+      <c r="K8" s="312"/>
+      <c r="L8" s="312"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="206"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="293" t="s">
+      <c r="A10" s="314" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="294"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="295"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -8719,29 +8893,32 @@
       <c r="B11" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>366</v>
       </c>
       <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="351" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="130" t="s">
-        <v>276</v>
+      <c r="G11" s="123" t="s">
+        <v>270</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
+      <c r="J11" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="146"/>
@@ -8754,19 +8931,22 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="352" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="H12" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="I12" s="145" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8777,85 +8957,86 @@
       <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="236"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="151">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="152">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="272" t="s">
+      <c r="A15" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="273"/>
-      <c r="C15" s="273"/>
-      <c r="D15" s="273"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="274"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="302"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="294" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="267"/>
-      <c r="C16" s="267"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="267"/>
-      <c r="F16" s="267"/>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="295"/>
+      <c r="F16" s="295"/>
+      <c r="G16" s="295"/>
+      <c r="H16" s="296"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="266"/>
-      <c r="B17" s="267"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="267"/>
-      <c r="H17" s="268"/>
+      <c r="A17" s="294"/>
+      <c r="B17" s="295"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="295"/>
+      <c r="E17" s="295"/>
+      <c r="F17" s="295"/>
+      <c r="G17" s="295"/>
+      <c r="H17" s="296"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="266"/>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="268"/>
+      <c r="A18" s="294"/>
+      <c r="B18" s="295"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="296"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="271"/>
+      <c r="A19" s="297"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="299"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="256" t="s">
+      <c r="A21" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="256"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8867,12 +9048,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="255" t="s">
+      <c r="D22" s="283" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8898,7 +9079,7 @@
       <c r="C24" t="s">
         <v>447</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="185" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8954,7 +9135,7 @@
       <c r="C28" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="D28" s="185" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8968,7 +9149,7 @@
       <c r="C29" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="185" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8982,7 +9163,7 @@
       <c r="C30" t="s">
         <v>447</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="D30" s="185" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8996,7 +9177,7 @@
       <c r="C31" t="s">
         <v>447</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="185" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9010,7 +9191,7 @@
       <c r="C32" t="s">
         <v>447</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="185" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9024,7 +9205,7 @@
       <c r="C33" t="s">
         <v>447</v>
       </c>
-      <c r="D33" s="186" t="s">
+      <c r="D33" s="185" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9290,7 +9471,7 @@
       <c r="C52" t="s">
         <v>447</v>
       </c>
-      <c r="D52" s="186" t="s">
+      <c r="D52" s="185" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9310,14 +9491,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9330,12 +9509,14 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9402,7 +9583,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9427,234 +9608,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="323" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="324" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286" t="s">
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="292" t="s">
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="313" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="326" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="288"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="203" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="204" t="s">
+      <c r="P3" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="193"/>
+      <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="287" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="325" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="205" t="s">
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="325"/>
+      <c r="M4" s="204" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="204" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="204" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="205" t="s">
+      <c r="P4" s="204" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="303" t="s">
+      <c r="A5" s="330"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="203" t="s">
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="334"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="203" t="s">
+      <c r="N5" s="202" t="s">
         <v>492</v>
       </c>
-      <c r="O5" s="203" t="s">
+      <c r="O5" s="202" t="s">
         <v>388</v>
       </c>
-      <c r="P5" s="203" t="s">
+      <c r="P5" s="202" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
+      <c r="A6" s="330"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="207"/>
+      <c r="A7" s="330"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="333"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="333"/>
+      <c r="K7" s="333"/>
+      <c r="L7" s="333"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="206"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="282"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="207"/>
+      <c r="A8" s="330"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="206"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="293" t="s">
+      <c r="A10" s="314" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="294"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="295"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
         <v>281</v>
       </c>
       <c r="B11" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>366</v>
       </c>
       <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="351" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="130" t="s">
-        <v>276</v>
+      <c r="G11" s="123" t="s">
+        <v>270</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="130" t="s">
+        <v>276</v>
+      </c>
+      <c r="J11" s="142" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9669,22 +9853,25 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="352" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="H12" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="I12" s="145" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="144"/>
@@ -9693,85 +9880,86 @@
       <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="236"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="151">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="152">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="272" t="s">
+      <c r="A15" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="273"/>
-      <c r="C15" s="273"/>
-      <c r="D15" s="273"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="274"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="302"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="294" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="267"/>
-      <c r="C16" s="267"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="267"/>
-      <c r="F16" s="267"/>
-      <c r="G16" s="267"/>
-      <c r="H16" s="268"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="295"/>
+      <c r="F16" s="295"/>
+      <c r="G16" s="295"/>
+      <c r="H16" s="296"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="266"/>
-      <c r="B17" s="267"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="267"/>
-      <c r="H17" s="268"/>
+      <c r="A17" s="294"/>
+      <c r="B17" s="295"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="295"/>
+      <c r="E17" s="295"/>
+      <c r="F17" s="295"/>
+      <c r="G17" s="295"/>
+      <c r="H17" s="296"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="266"/>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="268"/>
+      <c r="A18" s="294"/>
+      <c r="B18" s="295"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="296"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="271"/>
+      <c r="A19" s="297"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="299"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="256" t="s">
+      <c r="A21" s="284" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="256"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9783,12 +9971,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="255" t="s">
+      <c r="D22" s="283" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9814,7 +10002,7 @@
       <c r="C24" t="s">
         <v>457</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="185" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9870,7 +10058,7 @@
       <c r="C28" t="s">
         <v>457</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="D28" s="185" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9884,7 +10072,7 @@
       <c r="C29" t="s">
         <v>457</v>
       </c>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="185" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9898,7 +10086,7 @@
       <c r="C30" t="s">
         <v>457</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="D30" s="185" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9912,7 +10100,7 @@
       <c r="C31" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="185" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9926,7 +10114,7 @@
       <c r="C32" t="s">
         <v>457</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="185" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9954,18 +10142,12 @@
       <c r="C34" t="s">
         <v>457</v>
       </c>
-      <c r="D34" s="186" t="s">
+      <c r="D34" s="185" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
@@ -9981,6 +10163,12 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10044,17 +10232,17 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="91" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="183" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="182" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -10062,12 +10250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="335" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="306"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="337"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10088,7 +10276,7 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="207" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="133" t="s">
@@ -10102,7 +10290,7 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="22"/>
       <c r="F3" s="134" t="s">
         <v>79</v>
@@ -10115,7 +10303,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="23">
         <v>0</v>
       </c>
@@ -10130,687 +10318,879 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
-        <v>498</v>
+      <c r="A6" s="200" t="s">
+        <v>514</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6" s="209" t="s">
-        <v>500</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C6" s="355"/>
       <c r="D6" s="23">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="181"/>
+        <v>498</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="356"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="357"/>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="357"/>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="200" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="355"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C8" s="202">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="C11" s="201"/>
+      <c r="D11" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="201" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C9" s="202">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="22"/>
-    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="181"/>
+      <c r="A12" s="200" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="355"/>
       <c r="D12" s="23">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="24" t="s">
-        <v>68</v>
+      <c r="A13" s="200" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="355"/>
+      <c r="D13" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A14" s="200" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" s="355"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
+      <c r="A15" s="200" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" s="355"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="23" t="s">
-        <v>31</v>
+      <c r="A16" s="200" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="355"/>
+      <c r="D16" s="23">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="200" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C17" s="355"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="181"/>
+      <c r="A18" s="200" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C18" s="355"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="23"/>
+        <v>490</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="181"/>
+        <v>102</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="180"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="181"/>
+        <v>29</v>
+      </c>
+      <c r="C22" s="180"/>
       <c r="D22" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="C23" s="180"/>
+      <c r="D23" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>42</v>
+      <c r="A26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="180"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="23">
-        <v>100</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="23">
-        <v>65535</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C28" s="180"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="181"/>
-      <c r="D29" s="23">
-        <v>10</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="23">
-        <v>0.1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C30" s="180"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="181"/>
+        <v>38</v>
+      </c>
+      <c r="C31" s="180"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="181"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="180"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>50</v>
+      <c r="A34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="180"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="181"/>
+        <v>82</v>
+      </c>
+      <c r="C35" s="180"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="A36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="179"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="C37" s="180"/>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="180"/>
+      <c r="D38" s="23">
+        <v>65535</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="180"/>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="24" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="180"/>
+      <c r="D40" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="24">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C41" s="180"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>58</v>
+      <c r="A42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="180"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="181"/>
+        <v>122</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="180"/>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="179"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="181"/>
+        <v>51</v>
+      </c>
+      <c r="C45" s="180"/>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="180"/>
+      <c r="D46" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="181"/>
+        <v>53</v>
+      </c>
+      <c r="C47" s="180"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="181"/>
+        <v>54</v>
+      </c>
+      <c r="C48" s="180"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="181"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="180"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="C50" s="180"/>
+      <c r="D50" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="C51" s="180"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" s="358"/>
+      <c r="D52" s="359"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="181"/>
-      <c r="D53" s="23"/>
+        <v>537</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" s="356"/>
+      <c r="D53" s="360">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="181"/>
-      <c r="D54" s="23">
-        <v>1</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C54" s="356"/>
+      <c r="D54" s="360"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="181"/>
-      <c r="D55" s="23">
-        <v>1</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C55" s="356"/>
+      <c r="D55" s="360"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="181"/>
-      <c r="D56" s="23">
-        <v>1</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C56" s="356"/>
+      <c r="D56" s="360"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="181"/>
-      <c r="D57" s="23">
-        <v>1</v>
+        <v>545</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C57" s="356"/>
+      <c r="D57" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="181"/>
-      <c r="D58" s="23">
-        <v>1</v>
-      </c>
+      <c r="A58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="179"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="181"/>
-      <c r="D59" s="23">
-        <v>0</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="181"/>
+        <v>85</v>
+      </c>
+      <c r="C60" s="180"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="181"/>
+        <v>86</v>
+      </c>
+      <c r="C61" s="180"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>148</v>
+      <c r="A62" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C62" s="180"/>
-      <c r="D62" s="179"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="181"/>
-      <c r="D63" s="25">
-        <v>0</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="180"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" s="178"/>
+      <c r="A64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C64" s="180"/>
-      <c r="D64" s="179"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="180"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="180"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="180"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="180"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="180"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="180"/>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="180"/>
+      <c r="D71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="180"/>
+      <c r="D72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="180"/>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="180"/>
+      <c r="D74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="180"/>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="180"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="180"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="179"/>
+      <c r="D78" s="178"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="180"/>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="C80" s="179"/>
+      <c r="D80" s="178"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="181"/>
-      <c r="D65" s="25">
+      <c r="C81" s="180"/>
+      <c r="D81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B82" s="361" t="s">
+        <v>549</v>
+      </c>
+      <c r="C82" s="179"/>
+      <c r="D82" s="178"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C83" s="180"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="179"/>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="C84" s="179"/>
+      <c r="D84" s="178"/>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B85" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="182"/>
-      <c r="D67" s="28">
+      <c r="C85" s="181"/>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="74eWta5L8Yhz4iS1rxGcXlqXG5gv6gJoc981GJMOpDHJ2q/ExJwcIywQ8KgOseRnN/S5mk6FKMWD/Xjg9+rh8A==" saltValue="mCsttIcsEE5oAm7QfPcuKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10824,8 +11204,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10844,23 +11224,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="341" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -10878,17 +11258,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="309"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="340"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11079,21 +11459,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="307" t="s">
+      <c r="B19" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="308"/>
-      <c r="E19" s="308"/>
-      <c r="F19" s="308"/>
-      <c r="G19" s="308"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="308"/>
-      <c r="J19" s="308"/>
-      <c r="K19" s="308"/>
-      <c r="L19" s="308"/>
-      <c r="M19" s="308"/>
-      <c r="N19" s="309"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="340"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11295,27 +11675,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="346" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="316"/>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="316"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
+      <c r="N1" s="347"/>
+      <c r="O1" s="347"/>
+      <c r="P1" s="347"/>
+      <c r="Q1" s="347"/>
+      <c r="R1" s="347"/>
+      <c r="S1" s="347"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11329,26 +11709,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="309"/>
-      <c r="L3" s="312" t="s">
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="340"/>
+      <c r="L3" s="343" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="313"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="313"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="345"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11579,23 +11959,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="348" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="319"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11608,22 +11988,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="309"/>
-      <c r="J3" s="312" t="s">
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="340"/>
+      <c r="J3" s="343" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="345"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="553">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2674,6 +2674,9 @@
   </si>
   <si>
     <t>When true, controls the random seed for GMM Gating</t>
+  </si>
+  <si>
+    <t>10^4</t>
   </si>
 </sst>
 </file>
@@ -4286,20 +4289,147 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4322,102 +4452,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4477,6 +4511,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4509,57 +4549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4572,6 +4561,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4629,43 +4669,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4756,7 +4759,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4822,7 +4825,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4893,7 +4896,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4964,7 +4967,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5030,7 +5033,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5101,7 +5104,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5167,7 +5170,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5497,7 +5500,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5518,86 +5521,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="271" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="253"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="273"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="267" t="s">
+      <c r="A3" s="250" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="268"/>
+      <c r="B3" s="251"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="265" t="s">
+      <c r="A4" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="266"/>
+      <c r="B4" s="265"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="281" t="s">
+      <c r="A5" s="266" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="282"/>
+      <c r="B5" s="267"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="250" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="269"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="268"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="251"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="254" t="s">
+      <c r="A8" s="274" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="256"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="276"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="257"/>
-      <c r="B9" s="258"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="259"/>
+      <c r="A9" s="277"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="278"/>
+      <c r="K9" s="279"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5608,62 +5611,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="253" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="271"/>
-      <c r="C11" s="271"/>
-      <c r="D11" s="272"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="255"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="273" t="s">
+      <c r="A12" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="274"/>
-      <c r="C12" s="275" t="s">
+      <c r="B12" s="257"/>
+      <c r="C12" s="258" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="276"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="277"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="280"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="263"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="270" t="s">
+      <c r="A15" s="253" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="272"/>
-      <c r="E15" s="270" t="s">
+      <c r="B15" s="255"/>
+      <c r="E15" s="253" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="271"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="272"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="266"/>
+      <c r="B16" s="265"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="260" t="s">
+      <c r="E16" s="280" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="262"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="282"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5673,10 +5676,10 @@
         <v>278</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="263" t="s">
+      <c r="E17" s="283" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="264"/>
+      <c r="F17" s="284"/>
       <c r="G17" s="199" t="s">
         <v>159</v>
       </c>
@@ -5706,7 +5709,7 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="239" t="s">
+      <c r="I18" s="268" t="s">
         <v>486</v>
       </c>
       <c r="J18" s="80"/>
@@ -5729,7 +5732,7 @@
       <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="239"/>
+      <c r="I19" s="268"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5746,7 +5749,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="240"/>
+      <c r="I20" s="269"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5768,24 +5771,24 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="241" t="s">
+      <c r="E23" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="243"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="243"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="247" t="s">
+      <c r="E24" s="288" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="248"/>
+      <c r="F24" s="289"/>
       <c r="G24" s="199" t="s">
         <v>159</v>
       </c>
@@ -5814,7 +5817,7 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="244" t="s">
+      <c r="I25" s="285" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5838,7 +5841,7 @@
       <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="245"/>
+      <c r="I26" s="286"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -5854,7 +5857,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="246"/>
+      <c r="I27" s="287"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -5878,22 +5881,22 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="241" t="s">
+      <c r="E30" s="248" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="243"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="249" t="s">
+      <c r="E31" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="F31" s="250"/>
+      <c r="F31" s="291"/>
       <c r="G31" s="197" t="s">
         <v>159</v>
       </c>
@@ -5905,10 +5908,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="241" t="s">
+      <c r="A32" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="243"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5918,7 +5921,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="239"/>
+      <c r="I32" s="268"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -5938,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="239"/>
+      <c r="I33" s="268"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -5953,7 +5956,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="239"/>
+      <c r="I34" s="268"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -5966,7 +5969,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="239"/>
+      <c r="I35" s="268"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -5979,7 +5982,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="239"/>
+      <c r="I36" s="268"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -5992,7 +5995,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="240"/>
+      <c r="I37" s="269"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -6005,17 +6008,17 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="241" t="s">
+      <c r="E40" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="243"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="249"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="247"/>
-      <c r="F41" s="248"/>
+      <c r="E41" s="288"/>
+      <c r="F41" s="289"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
@@ -6033,7 +6036,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="239"/>
+      <c r="I42" s="268"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -6042,7 +6045,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="239"/>
+      <c r="I43" s="268"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -6051,7 +6054,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="239"/>
+      <c r="I44" s="268"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -6060,7 +6063,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="239"/>
+      <c r="I45" s="268"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -6069,7 +6072,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="239"/>
+      <c r="I46" s="268"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -6078,11 +6081,25 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="240"/>
+      <c r="I47" s="269"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6098,20 +6115,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6125,8 +6128,8 @@
   </sheetPr>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6151,32 +6154,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="294" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="287"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="290"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="299"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6190,13 +6193,13 @@
       <c r="B3" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="291" t="s">
+      <c r="C3" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="293"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="302"/>
       <c r="H3" s="175" t="s">
         <v>318</v>
       </c>
@@ -6887,26 +6890,26 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="353" t="s">
+      <c r="A28" s="312" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="354"/>
-      <c r="C28" s="354"/>
-      <c r="D28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="F28" s="354"/>
-      <c r="G28" s="354"/>
-      <c r="H28" s="354"/>
-      <c r="I28" s="354"/>
-      <c r="J28" s="354"/>
-      <c r="K28" s="354"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="354"/>
-      <c r="N28" s="354"/>
-      <c r="O28" s="354"/>
-      <c r="P28" s="354"/>
-      <c r="Q28" s="354"/>
-      <c r="R28" s="354"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="313"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="313"/>
+      <c r="H28" s="313"/>
+      <c r="I28" s="313"/>
+      <c r="J28" s="313"/>
+      <c r="K28" s="313"/>
+      <c r="L28" s="313"/>
+      <c r="M28" s="313"/>
+      <c r="N28" s="313"/>
+      <c r="O28" s="313"/>
+      <c r="P28" s="313"/>
+      <c r="Q28" s="313"/>
+      <c r="R28" s="313"/>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
@@ -6945,7 +6948,7 @@
       <c r="L29" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="M29" s="351" t="s">
+      <c r="M29" s="239" t="s">
         <v>270</v>
       </c>
       <c r="N29" s="121" t="s">
@@ -6999,7 +7002,7 @@
       <c r="L30" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="352" t="s">
+      <c r="M30" s="240" t="s">
         <v>513</v>
       </c>
       <c r="N30" s="95" t="s">
@@ -7060,70 +7063,70 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="300" t="s">
+      <c r="A33" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B33" s="301"/>
-      <c r="C33" s="301"/>
-      <c r="D33" s="301"/>
-      <c r="E33" s="301"/>
-      <c r="F33" s="301"/>
-      <c r="G33" s="301"/>
-      <c r="H33" s="302"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="310"/>
+      <c r="F33" s="310"/>
+      <c r="G33" s="310"/>
+      <c r="H33" s="311"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="294" t="s">
+      <c r="A34" s="303" t="s">
         <v>361</v>
       </c>
-      <c r="B34" s="295"/>
-      <c r="C34" s="295"/>
-      <c r="D34" s="295"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="295"/>
-      <c r="G34" s="295"/>
-      <c r="H34" s="296"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="304"/>
+      <c r="E34" s="304"/>
+      <c r="F34" s="304"/>
+      <c r="G34" s="304"/>
+      <c r="H34" s="305"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="294"/>
-      <c r="B35" s="295"/>
-      <c r="C35" s="295"/>
-      <c r="D35" s="295"/>
-      <c r="E35" s="295"/>
-      <c r="F35" s="295"/>
-      <c r="G35" s="295"/>
-      <c r="H35" s="296"/>
+      <c r="A35" s="303"/>
+      <c r="B35" s="304"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="304"/>
+      <c r="E35" s="304"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="304"/>
+      <c r="H35" s="305"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="294"/>
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="295"/>
-      <c r="E36" s="295"/>
-      <c r="F36" s="295"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="296"/>
+      <c r="A36" s="303"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="304"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="305"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="297"/>
-      <c r="B37" s="298"/>
-      <c r="C37" s="298"/>
-      <c r="D37" s="298"/>
-      <c r="E37" s="298"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="298"/>
-      <c r="H37" s="299"/>
+      <c r="A37" s="306"/>
+      <c r="B37" s="307"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="307"/>
+      <c r="G37" s="307"/>
+      <c r="H37" s="308"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="284" t="s">
+      <c r="A39" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="284"/>
-      <c r="C39" s="284"/>
-      <c r="D39" s="284"/>
-      <c r="E39" s="284"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="284"/>
+      <c r="B39" s="293"/>
+      <c r="C39" s="293"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="293"/>
+      <c r="F39" s="293"/>
+      <c r="G39" s="293"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
@@ -7135,12 +7138,12 @@
       <c r="C40" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="283" t="s">
+      <c r="D40" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E40" s="283"/>
-      <c r="F40" s="283"/>
-      <c r="G40" s="283"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="292"/>
+      <c r="G40" s="292"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -7685,32 +7688,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="317" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="308"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="319"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="305"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="316"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7789,18 +7792,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="304"/>
-      <c r="J6" s="305"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="316"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7851,18 +7854,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="305"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="316"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -8017,18 +8020,18 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="309" t="s">
+      <c r="A17" s="320" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="310"/>
-      <c r="C17" s="310"/>
-      <c r="D17" s="310"/>
-      <c r="E17" s="310"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="311"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="321"/>
+      <c r="J17" s="322"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="209"/>
@@ -8113,18 +8116,18 @@
       <c r="J21" s="223"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="303" t="s">
+      <c r="A22" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="304"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="304"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="304"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="304"/>
-      <c r="I22" s="304"/>
-      <c r="J22" s="305"/>
+      <c r="B22" s="315"/>
+      <c r="C22" s="315"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
+      <c r="G22" s="315"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="315"/>
+      <c r="J22" s="316"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8187,18 +8190,18 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="309" t="s">
+      <c r="A26" s="320" t="s">
         <v>507</v>
       </c>
-      <c r="B26" s="310"/>
-      <c r="C26" s="310"/>
-      <c r="D26" s="310"/>
-      <c r="E26" s="310"/>
-      <c r="F26" s="310"/>
-      <c r="G26" s="310"/>
-      <c r="H26" s="310"/>
-      <c r="I26" s="310"/>
-      <c r="J26" s="311"/>
+      <c r="B26" s="321"/>
+      <c r="C26" s="321"/>
+      <c r="D26" s="321"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="321"/>
+      <c r="G26" s="321"/>
+      <c r="H26" s="321"/>
+      <c r="I26" s="321"/>
+      <c r="J26" s="322"/>
     </row>
     <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="224" t="s">
@@ -8273,18 +8276,18 @@
       <c r="J29" s="238"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="303" t="s">
+      <c r="A30" s="314" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="304"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
-      <c r="F30" s="304"/>
-      <c r="G30" s="304"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="304"/>
-      <c r="J30" s="305"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="315"/>
+      <c r="D30" s="315"/>
+      <c r="E30" s="315"/>
+      <c r="F30" s="315"/>
+      <c r="G30" s="315"/>
+      <c r="H30" s="315"/>
+      <c r="I30" s="315"/>
+      <c r="J30" s="316"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
@@ -8346,58 +8349,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="300" t="s">
+      <c r="A35" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="301"/>
-      <c r="C35" s="301"/>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="301"/>
-      <c r="G35" s="301"/>
-      <c r="H35" s="302"/>
+      <c r="B35" s="310"/>
+      <c r="C35" s="310"/>
+      <c r="D35" s="310"/>
+      <c r="E35" s="310"/>
+      <c r="F35" s="310"/>
+      <c r="G35" s="310"/>
+      <c r="H35" s="311"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="294" t="s">
+      <c r="A36" s="303" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="295"/>
-      <c r="E36" s="295"/>
-      <c r="F36" s="295"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="296"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="304"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="305"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="294"/>
-      <c r="B37" s="295"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="295"/>
-      <c r="E37" s="295"/>
-      <c r="F37" s="295"/>
-      <c r="G37" s="295"/>
-      <c r="H37" s="296"/>
+      <c r="A37" s="303"/>
+      <c r="B37" s="304"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="304"/>
+      <c r="E37" s="304"/>
+      <c r="F37" s="304"/>
+      <c r="G37" s="304"/>
+      <c r="H37" s="305"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="294"/>
-      <c r="B38" s="295"/>
-      <c r="C38" s="295"/>
-      <c r="D38" s="295"/>
-      <c r="E38" s="295"/>
-      <c r="F38" s="295"/>
-      <c r="G38" s="295"/>
-      <c r="H38" s="296"/>
+      <c r="A38" s="303"/>
+      <c r="B38" s="304"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="304"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="304"/>
+      <c r="H38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="297"/>
-      <c r="B39" s="298"/>
-      <c r="C39" s="298"/>
-      <c r="D39" s="298"/>
-      <c r="E39" s="298"/>
-      <c r="F39" s="298"/>
-      <c r="G39" s="298"/>
-      <c r="H39" s="299"/>
+      <c r="A39" s="306"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="307"/>
+      <c r="D39" s="307"/>
+      <c r="E39" s="307"/>
+      <c r="F39" s="307"/>
+      <c r="G39" s="307"/>
+      <c r="H39" s="308"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8414,15 +8417,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="284" t="s">
+      <c r="A41" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="284"/>
-      <c r="C41" s="284"/>
-      <c r="D41" s="284"/>
-      <c r="E41" s="284"/>
-      <c r="F41" s="284"/>
-      <c r="G41" s="284"/>
+      <c r="B41" s="293"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8437,12 +8440,12 @@
       <c r="C42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D42" s="283" t="s">
+      <c r="D42" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="283"/>
-      <c r="F42" s="283"/>
-      <c r="G42" s="283"/>
+      <c r="E42" s="292"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="292"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8684,68 +8687,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="327" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="338" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="318"/>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="324" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="328" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="334" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="341" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="326" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="330" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
       <c r="M3" s="203" t="s">
         <v>299</v>
       </c>
@@ -8758,24 +8761,24 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="331" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="325" t="s">
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="329" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325" t="s">
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
       <c r="M4" s="204" t="s">
         <v>154</v>
       </c>
@@ -8787,22 +8790,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="330"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="312" t="s">
+      <c r="A5" s="324"/>
+      <c r="B5" s="325"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="323" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="312" t="s">
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="312"/>
-      <c r="L5" s="312"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
       <c r="M5" s="205"/>
       <c r="N5" s="205" t="s">
         <v>384</v>
@@ -8812,22 +8815,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="324" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="331"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="312" t="s">
+      <c r="B6" s="325"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="323" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="312"/>
-      <c r="I6" s="312"/>
-      <c r="J6" s="312"/>
-      <c r="K6" s="312"/>
-      <c r="L6" s="312"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
       <c r="M6" s="205"/>
       <c r="N6" s="205" t="s">
         <v>385</v>
@@ -8837,54 +8840,54 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="324" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="312"/>
-      <c r="K7" s="312"/>
-      <c r="L7" s="312"/>
+      <c r="B7" s="325"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="323"/>
+      <c r="I7" s="323"/>
+      <c r="J7" s="323"/>
+      <c r="K7" s="323"/>
+      <c r="L7" s="323"/>
       <c r="M7" s="205"/>
       <c r="N7" s="205"/>
       <c r="O7" s="206"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="330"/>
-      <c r="B8" s="331"/>
-      <c r="C8" s="331"/>
-      <c r="D8" s="331"/>
-      <c r="E8" s="331"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="312"/>
-      <c r="H8" s="312"/>
-      <c r="I8" s="312"/>
-      <c r="J8" s="312"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="312"/>
+      <c r="A8" s="324"/>
+      <c r="B8" s="325"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="323"/>
+      <c r="L8" s="323"/>
       <c r="M8" s="205"/>
       <c r="N8" s="205"/>
       <c r="O8" s="206"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="335" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="336"/>
+      <c r="I10" s="337"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -8899,7 +8902,7 @@
       <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="351" t="s">
+      <c r="E11" s="239" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -8931,7 +8934,7 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="352" t="s">
+      <c r="E12" s="240" t="s">
         <v>513</v>
       </c>
       <c r="F12" s="145" t="s">
@@ -8974,69 +8977,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="300" t="s">
+      <c r="A15" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="301"/>
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="302"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="303" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="296"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="305"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="294"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="295"/>
-      <c r="D17" s="295"/>
-      <c r="E17" s="295"/>
-      <c r="F17" s="295"/>
-      <c r="G17" s="295"/>
-      <c r="H17" s="296"/>
+      <c r="A17" s="303"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="305"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="294"/>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="296"/>
+      <c r="A18" s="303"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="305"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="297"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="299"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="308"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="284" t="s">
+      <c r="A21" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="284"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="284"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9048,12 +9051,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="283" t="s">
+      <c r="D22" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9491,12 +9494,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9509,14 +9514,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9608,68 +9611,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="327" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="323"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="328" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324" t="s">
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="334" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="330" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
       <c r="M3" s="203" t="s">
         <v>298</v>
       </c>
@@ -9685,22 +9688,22 @@
       <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="331" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="325" t="s">
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="329" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
       <c r="M4" s="204" t="s">
         <v>252</v>
       </c>
@@ -9715,20 +9718,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="330"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="334" t="s">
+      <c r="A5" s="324"/>
+      <c r="B5" s="325"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
       <c r="M5" s="202" t="s">
         <v>291</v>
       </c>
@@ -9743,54 +9746,54 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="330"/>
-      <c r="B6" s="331"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="333"/>
-      <c r="K6" s="333"/>
-      <c r="L6" s="333"/>
+      <c r="A6" s="324"/>
+      <c r="B6" s="325"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="344"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="344"/>
+      <c r="K6" s="344"/>
+      <c r="L6" s="344"/>
       <c r="M6" s="205"/>
       <c r="N6" s="205"/>
       <c r="O6" s="205"/>
       <c r="P6" s="205"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="330"/>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="333"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="333"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
+      <c r="A7" s="324"/>
+      <c r="B7" s="325"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="344"/>
       <c r="M7" s="205"/>
       <c r="N7" s="205"/>
       <c r="O7" s="205"/>
       <c r="P7" s="206"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="330"/>
-      <c r="B8" s="331"/>
-      <c r="C8" s="331"/>
-      <c r="D8" s="331"/>
-      <c r="E8" s="331"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="333"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="333"/>
+      <c r="A8" s="324"/>
+      <c r="B8" s="325"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="344"/>
       <c r="M8" s="205"/>
       <c r="N8" s="205"/>
       <c r="O8" s="205"/>
@@ -9798,17 +9801,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="335" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="336"/>
+      <c r="I10" s="337"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9823,7 +9826,7 @@
       <c r="D11" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="351" t="s">
+      <c r="E11" s="239" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -9853,7 +9856,7 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="352" t="s">
+      <c r="E12" s="240" t="s">
         <v>513</v>
       </c>
       <c r="F12" s="145" t="s">
@@ -9897,69 +9900,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="300" t="s">
+      <c r="A15" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="301"/>
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="302"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="303" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="296"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="305"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="294"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="295"/>
-      <c r="D17" s="295"/>
-      <c r="E17" s="295"/>
-      <c r="F17" s="295"/>
-      <c r="G17" s="295"/>
-      <c r="H17" s="296"/>
+      <c r="A17" s="303"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="305"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="294"/>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="296"/>
+      <c r="A18" s="303"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="305"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="297"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="299"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="308"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="284" t="s">
+      <c r="A21" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="284"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="284"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9971,12 +9974,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="283" t="s">
+      <c r="D22" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -10148,6 +10151,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
@@ -10163,12 +10172,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10234,8 +10237,8 @@
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10250,12 +10253,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="346" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="337"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="348"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10330,7 +10333,7 @@
       <c r="B6" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C6" s="355"/>
+      <c r="C6" s="241"/>
       <c r="D6" s="23">
         <v>1000000</v>
       </c>
@@ -10342,7 +10345,9 @@
       <c r="B7" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C7" s="356"/>
+      <c r="C7" s="242" t="s">
+        <v>552</v>
+      </c>
       <c r="D7" s="23">
         <v>0</v>
       </c>
@@ -10354,7 +10359,7 @@
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="357"/>
+      <c r="C8" s="243"/>
       <c r="D8" s="23">
         <v>0</v>
       </c>
@@ -10366,7 +10371,7 @@
       <c r="B9" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C9" s="357"/>
+      <c r="C9" s="243"/>
       <c r="D9" s="23">
         <v>0</v>
       </c>
@@ -10378,7 +10383,7 @@
       <c r="B10" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C10" s="355"/>
+      <c r="C10" s="241"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10388,7 +10393,9 @@
       <c r="B11" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="201">
+        <v>0</v>
+      </c>
       <c r="D11" s="23">
         <v>1</v>
       </c>
@@ -10400,7 +10407,7 @@
       <c r="B12" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C12" s="355"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="23">
         <v>10000</v>
       </c>
@@ -10412,7 +10419,7 @@
       <c r="B13" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="C13" s="355"/>
+      <c r="C13" s="241"/>
       <c r="D13" s="23">
         <v>0.1</v>
       </c>
@@ -10424,7 +10431,7 @@
       <c r="B14" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C14" s="355"/>
+      <c r="C14" s="241"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10434,7 +10441,7 @@
       <c r="B15" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="C15" s="355"/>
+      <c r="C15" s="241"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -10444,7 +10451,7 @@
       <c r="B16" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="C16" s="355"/>
+      <c r="C16" s="241"/>
       <c r="D16" s="23">
         <v>10</v>
       </c>
@@ -10456,7 +10463,7 @@
       <c r="B17" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="355"/>
+      <c r="C17" s="241"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10466,7 +10473,7 @@
       <c r="B18" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="C18" s="355"/>
+      <c r="C18" s="241"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10476,7 +10483,9 @@
       <c r="B19" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C19" s="201"/>
+      <c r="C19" s="201">
+        <v>0</v>
+      </c>
       <c r="D19" s="23">
         <v>1</v>
       </c>
@@ -10834,8 +10843,8 @@
       <c r="B52" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="C52" s="358"/>
-      <c r="D52" s="359"/>
+      <c r="C52" s="244"/>
+      <c r="D52" s="245"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10844,8 +10853,8 @@
       <c r="B53" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C53" s="356"/>
-      <c r="D53" s="360">
+      <c r="C53" s="242"/>
+      <c r="D53" s="246">
         <v>0.02</v>
       </c>
     </row>
@@ -10856,8 +10865,8 @@
       <c r="B54" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="C54" s="356"/>
-      <c r="D54" s="360"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="246"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10866,8 +10875,8 @@
       <c r="B55" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="C55" s="356"/>
-      <c r="D55" s="360"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="246"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10876,8 +10885,8 @@
       <c r="B56" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="C56" s="356"/>
-      <c r="D56" s="360"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="246"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10886,7 +10895,7 @@
       <c r="B57" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="C57" s="356"/>
+      <c r="C57" s="242"/>
       <c r="D57" s="24" t="s">
         <v>72</v>
       </c>
@@ -11149,7 +11158,7 @@
       <c r="A82" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="B82" s="361" t="s">
+      <c r="B82" s="247" t="s">
         <v>549</v>
       </c>
       <c r="C82" s="179"/>
@@ -11204,7 +11213,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -11224,23 +11233,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="352" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="353"/>
+      <c r="G1" s="353"/>
+      <c r="H1" s="353"/>
+      <c r="I1" s="353"/>
+      <c r="J1" s="353"/>
+      <c r="K1" s="353"/>
+      <c r="L1" s="353"/>
+      <c r="M1" s="353"/>
+      <c r="N1" s="353"/>
+      <c r="O1" s="353"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11258,17 +11267,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="349" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="340"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="351"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11459,21 +11468,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="338" t="s">
+      <c r="B19" s="349" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="339"/>
-      <c r="D19" s="339"/>
-      <c r="E19" s="339"/>
-      <c r="F19" s="339"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="339"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="340"/>
+      <c r="C19" s="350"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="350"/>
+      <c r="F19" s="350"/>
+      <c r="G19" s="350"/>
+      <c r="H19" s="350"/>
+      <c r="I19" s="350"/>
+      <c r="J19" s="350"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="350"/>
+      <c r="M19" s="350"/>
+      <c r="N19" s="351"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11675,27 +11684,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="357" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
-      <c r="O1" s="347"/>
-      <c r="P1" s="347"/>
-      <c r="Q1" s="347"/>
-      <c r="R1" s="347"/>
-      <c r="S1" s="347"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
+      <c r="H1" s="358"/>
+      <c r="I1" s="358"/>
+      <c r="J1" s="358"/>
+      <c r="K1" s="358"/>
+      <c r="L1" s="358"/>
+      <c r="M1" s="358"/>
+      <c r="N1" s="358"/>
+      <c r="O1" s="358"/>
+      <c r="P1" s="358"/>
+      <c r="Q1" s="358"/>
+      <c r="R1" s="358"/>
+      <c r="S1" s="358"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11709,26 +11718,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="349" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="340"/>
-      <c r="L3" s="343" t="s">
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="351"/>
+      <c r="L3" s="354" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="355"/>
+      <c r="R3" s="356"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11959,23 +11968,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="359" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
-      <c r="O1" s="350"/>
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
+      <c r="O1" s="361"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11988,22 +11997,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="349" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="340"/>
-      <c r="J3" s="343" t="s">
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="351"/>
+      <c r="J3" s="354" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="345"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="356"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template1.xlsx
+++ b/test_templates/test_batch_template1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="551">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2575,12 +2575,6 @@
   </si>
   <si>
     <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
-  </si>
-  <si>
-    <t>flow.defaultCSVReadHeader</t>
-  </si>
-  <si>
-    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
   </si>
   <si>
     <t>flow.smallFileWarning</t>
@@ -4320,10 +4314,88 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fil